--- a/INTLINE/data/576/DOS/M014811 - Expenditure On Gross Domestic Product In Chained Dollars Quarterly.xlsx
+++ b/INTLINE/data/576/DOS/M014811 - Expenditure On Gross Domestic Product In Chained Dollars Quarterly.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="237">
   <si>
     <t/>
   </si>
@@ -28,7 +28,7 @@
     <t>Table Title: Expenditure On Gross Domestic Product In Chained (2015) Dollars, Quarterly</t>
   </si>
   <si>
-    <t>Data last updated: 17/02/2022</t>
+    <t>Data last updated: 25/05/2022</t>
   </si>
   <si>
     <t>Check next release date</t>
@@ -43,6 +43,9 @@
     <t>Data Series</t>
   </si>
   <si>
+    <t xml:space="preserve">2022 1Q </t>
+  </si>
+  <si>
     <t xml:space="preserve">2021 4Q </t>
   </si>
   <si>
@@ -715,7 +718,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 22/04/2022</t>
+    <t>Date generated: 14/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
@@ -1123,13 +1126,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GG53"/>
+  <dimension ref="A1:GH53"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="189" width="24" customWidth="1"/>
+    <col min="1" max="190" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:189" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1695,6 +1698,9 @@
         <v>0</v>
       </c>
       <c r="GG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GH1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1731,12 +1737,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="189:189" x14ac:dyDescent="0.25">
-      <c r="GG10" s="1" t="s">
+    <row r="10" spans="190:190" x14ac:dyDescent="0.25">
+      <c r="GH10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:189" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:190" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -2304,5271 +2310,5301 @@
       <c r="GG11" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="GH11" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="12" spans="1:189" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B12" s="5">
+        <v>126345.3</v>
+      </c>
+      <c r="C12" s="5">
         <v>128440.5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>123844.4</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>122091.6</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>121785.1</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>120999.9</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>115195.7</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>105447.8</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>119413.5</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>122150.5</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>120755.3</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>120075.5</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>118003.3</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>120523.8</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P12" s="6">
         <v>119866</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>118936.6</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>116445.3</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>118778.9</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <v>116108.1</v>
       </c>
-      <c r="T12" s="5">
+      <c r="U12" s="5">
         <v>113141.9</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="5">
         <v>110938.6</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <v>113441.1</v>
       </c>
-      <c r="W12" s="5">
+      <c r="X12" s="5">
         <v>110098.6</v>
       </c>
-      <c r="X12" s="5">
+      <c r="Y12" s="5">
         <v>109024.3</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Z12" s="5">
         <v>105961.9</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="AA12" s="6">
         <v>108239</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AB12" s="5">
         <v>106783.2</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AC12" s="5">
         <v>105849.7</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AD12" s="5">
         <v>102572.2</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AE12" s="5">
         <v>105931.8</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AF12" s="5">
         <v>103017.9</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AG12" s="6">
         <v>102643</v>
       </c>
-      <c r="AG12" s="5">
+      <c r="AH12" s="5">
         <v>99610.7</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AI12" s="5">
         <v>101366.2</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AJ12" s="5">
         <v>99385.2</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AK12" s="5">
         <v>99358.7</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AL12" s="6">
         <v>95523</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AM12" s="5">
         <v>96455.2</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AN12" s="5">
         <v>93656.6</v>
       </c>
-      <c r="AN12" s="5">
+      <c r="AO12" s="5">
         <v>94982.9</v>
       </c>
-      <c r="AO12" s="5">
+      <c r="AP12" s="5">
         <v>92354.3</v>
       </c>
-      <c r="AP12" s="5">
+      <c r="AQ12" s="5">
         <v>92084.3</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="AR12" s="5">
         <v>91787.2</v>
       </c>
-      <c r="AR12" s="5">
+      <c r="AS12" s="5">
         <v>89460.8</v>
       </c>
-      <c r="AS12" s="6">
+      <c r="AT12" s="6">
         <v>88086</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="AU12" s="5">
         <v>87464.6</v>
       </c>
-      <c r="AU12" s="5">
+      <c r="AV12" s="5">
         <v>85183.5</v>
       </c>
-      <c r="AV12" s="6">
+      <c r="AW12" s="6">
         <v>86924</v>
       </c>
-      <c r="AW12" s="5">
+      <c r="AX12" s="5">
         <v>80698.6</v>
       </c>
-      <c r="AX12" s="6">
+      <c r="AY12" s="6">
         <v>77216</v>
       </c>
-      <c r="AY12" s="5">
+      <c r="AZ12" s="5">
         <v>77238.8</v>
       </c>
-      <c r="AZ12" s="5">
+      <c r="BA12" s="5">
         <v>73277.9</v>
       </c>
-      <c r="BA12" s="5">
+      <c r="BB12" s="5">
         <v>69395.7</v>
       </c>
-      <c r="BB12" s="5">
+      <c r="BC12" s="5">
         <v>72296.6</v>
       </c>
-      <c r="BC12" s="5">
+      <c r="BD12" s="5">
         <v>75107.9</v>
       </c>
-      <c r="BD12" s="5">
+      <c r="BE12" s="5">
         <v>74147.7</v>
       </c>
-      <c r="BE12" s="5">
+      <c r="BF12" s="5">
         <v>75196.5</v>
       </c>
-      <c r="BF12" s="5">
+      <c r="BG12" s="5">
         <v>74862.4</v>
       </c>
-      <c r="BG12" s="5">
+      <c r="BH12" s="5">
         <v>75167.4</v>
       </c>
-      <c r="BH12" s="5">
+      <c r="BI12" s="5">
         <v>71768.4</v>
       </c>
-      <c r="BI12" s="5">
+      <c r="BJ12" s="5">
         <v>69521.8</v>
       </c>
-      <c r="BJ12" s="5">
+      <c r="BK12" s="5">
         <v>70218.4</v>
       </c>
-      <c r="BK12" s="5">
+      <c r="BL12" s="5">
         <v>67735.7</v>
       </c>
-      <c r="BL12" s="6">
+      <c r="BM12" s="6">
         <v>65220</v>
       </c>
-      <c r="BM12" s="5">
+      <c r="BN12" s="5">
         <v>64039.2</v>
       </c>
-      <c r="BN12" s="6">
+      <c r="BO12" s="6">
         <v>64698</v>
       </c>
-      <c r="BO12" s="5">
+      <c r="BP12" s="5">
         <v>62367.3</v>
       </c>
-      <c r="BP12" s="6">
+      <c r="BQ12" s="6">
         <v>59959</v>
       </c>
-      <c r="BQ12" s="5">
+      <c r="BR12" s="5">
         <v>58110.3</v>
       </c>
-      <c r="BR12" s="5">
+      <c r="BS12" s="5">
         <v>59272.8</v>
       </c>
-      <c r="BS12" s="5">
+      <c r="BT12" s="5">
         <v>57486.8</v>
       </c>
-      <c r="BT12" s="5">
+      <c r="BU12" s="5">
         <v>56432.5</v>
       </c>
-      <c r="BU12" s="6">
+      <c r="BV12" s="6">
         <v>55124</v>
       </c>
-      <c r="BV12" s="5">
+      <c r="BW12" s="5">
         <v>54979.7</v>
       </c>
-      <c r="BW12" s="5">
+      <c r="BX12" s="5">
         <v>53017.6</v>
       </c>
-      <c r="BX12" s="5">
+      <c r="BY12" s="5">
         <v>49717.3</v>
       </c>
-      <c r="BY12" s="5">
+      <c r="BZ12" s="5">
         <v>49958.8</v>
       </c>
-      <c r="BZ12" s="5">
+      <c r="CA12" s="5">
         <v>50497.4</v>
       </c>
-      <c r="CA12" s="5">
+      <c r="CB12" s="5">
         <v>50336.3</v>
       </c>
-      <c r="CB12" s="5">
+      <c r="CC12" s="5">
         <v>49845.5</v>
       </c>
-      <c r="CC12" s="5">
+      <c r="CD12" s="5">
         <v>47959.6</v>
       </c>
-      <c r="CD12" s="5">
+      <c r="CE12" s="5">
         <v>47604.4</v>
       </c>
-      <c r="CE12" s="6">
+      <c r="CF12" s="6">
         <v>47214</v>
       </c>
-      <c r="CF12" s="5">
+      <c r="CG12" s="5">
         <v>47825.5</v>
       </c>
-      <c r="CG12" s="5">
+      <c r="CH12" s="5">
         <v>48495.8</v>
       </c>
-      <c r="CH12" s="5">
+      <c r="CI12" s="5">
         <v>49955.5</v>
       </c>
-      <c r="CI12" s="5">
+      <c r="CJ12" s="5">
         <v>49671.1</v>
       </c>
-      <c r="CJ12" s="5">
+      <c r="CK12" s="5">
         <v>47584.6</v>
       </c>
-      <c r="CK12" s="5">
+      <c r="CL12" s="5">
         <v>45997.5</v>
       </c>
-      <c r="CL12" s="5">
+      <c r="CM12" s="5">
         <v>45683.3</v>
       </c>
-      <c r="CM12" s="5">
+      <c r="CN12" s="5">
         <v>45349.6</v>
       </c>
-      <c r="CN12" s="5">
+      <c r="CO12" s="5">
         <v>43975.5</v>
       </c>
-      <c r="CO12" s="6">
+      <c r="CP12" s="6">
         <v>42185</v>
       </c>
-      <c r="CP12" s="5">
+      <c r="CQ12" s="5">
         <v>42639.9</v>
       </c>
-      <c r="CQ12" s="5">
+      <c r="CR12" s="5">
         <v>41975.6</v>
       </c>
-      <c r="CR12" s="5">
+      <c r="CS12" s="5">
         <v>41711.4</v>
       </c>
-      <c r="CS12" s="6">
+      <c r="CT12" s="6">
         <v>41282</v>
       </c>
-      <c r="CT12" s="5">
+      <c r="CU12" s="5">
         <v>43758.3</v>
       </c>
-      <c r="CU12" s="5">
+      <c r="CV12" s="5">
         <v>44192.3</v>
       </c>
-      <c r="CV12" s="5">
+      <c r="CW12" s="5">
         <v>42743.9</v>
       </c>
-      <c r="CW12" s="6">
+      <c r="CX12" s="6">
         <v>40669</v>
       </c>
-      <c r="CX12" s="6">
+      <c r="CY12" s="6">
         <v>40865</v>
       </c>
-      <c r="CY12" s="5">
+      <c r="CZ12" s="5">
         <v>39833.6</v>
       </c>
-      <c r="CZ12" s="5">
+      <c r="DA12" s="5">
         <v>39047.4</v>
       </c>
-      <c r="DA12" s="5">
+      <c r="DB12" s="5">
         <v>38460.7</v>
       </c>
-      <c r="DB12" s="5">
+      <c r="DC12" s="5">
         <v>38610.5</v>
       </c>
-      <c r="DC12" s="5">
+      <c r="DD12" s="5">
         <v>38217.2</v>
       </c>
-      <c r="DD12" s="5">
+      <c r="DE12" s="5">
         <v>35948.6</v>
       </c>
-      <c r="DE12" s="5">
+      <c r="DF12" s="5">
         <v>34431.9</v>
       </c>
-      <c r="DF12" s="5">
+      <c r="DG12" s="5">
         <v>35866.6</v>
       </c>
-      <c r="DG12" s="5">
+      <c r="DH12" s="5">
         <v>35306.3</v>
       </c>
-      <c r="DH12" s="5">
+      <c r="DI12" s="5">
         <v>33467.3</v>
       </c>
-      <c r="DI12" s="5">
+      <c r="DJ12" s="5">
         <v>32712.4</v>
       </c>
-      <c r="DJ12" s="5">
+      <c r="DK12" s="5">
         <v>32896.3</v>
       </c>
-      <c r="DK12" s="5">
+      <c r="DL12" s="5">
         <v>31580.6</v>
       </c>
-      <c r="DL12" s="6">
+      <c r="DM12" s="6">
         <v>30333</v>
       </c>
-      <c r="DM12" s="5">
+      <c r="DN12" s="5">
         <v>28824.6</v>
       </c>
-      <c r="DN12" s="5">
+      <c r="DO12" s="5">
         <v>29142.8</v>
       </c>
-      <c r="DO12" s="5">
+      <c r="DP12" s="5">
         <v>28322.4</v>
       </c>
-      <c r="DP12" s="6">
+      <c r="DQ12" s="6">
         <v>27004</v>
       </c>
-      <c r="DQ12" s="5">
+      <c r="DR12" s="5">
         <v>26453.9</v>
       </c>
-      <c r="DR12" s="5">
+      <c r="DS12" s="5">
         <v>26814.6</v>
       </c>
-      <c r="DS12" s="5">
+      <c r="DT12" s="5">
         <v>26545.5</v>
       </c>
-      <c r="DT12" s="6">
+      <c r="DU12" s="6">
         <v>25624</v>
       </c>
-      <c r="DU12" s="5">
+      <c r="DV12" s="5">
         <v>25032.5</v>
       </c>
-      <c r="DV12" s="5">
+      <c r="DW12" s="5">
         <v>25173.4</v>
       </c>
-      <c r="DW12" s="5">
+      <c r="DX12" s="5">
         <v>24745.6</v>
       </c>
-      <c r="DX12" s="6">
+      <c r="DY12" s="6">
         <v>24053</v>
       </c>
-      <c r="DY12" s="5">
+      <c r="DZ12" s="5">
         <v>23523.7</v>
       </c>
-      <c r="DZ12" s="5">
+      <c r="EA12" s="5">
         <v>23293.3</v>
       </c>
-      <c r="EA12" s="5">
+      <c r="EB12" s="5">
         <v>22733.8</v>
       </c>
-      <c r="EB12" s="5">
+      <c r="EC12" s="5">
         <v>22117.2</v>
       </c>
-      <c r="EC12" s="5">
+      <c r="ED12" s="5">
         <v>20632.7</v>
       </c>
-      <c r="ED12" s="6">
+      <c r="EE12" s="6">
         <v>21281</v>
       </c>
-      <c r="EE12" s="5">
+      <c r="EF12" s="5">
         <v>20682.9</v>
       </c>
-      <c r="EF12" s="5">
+      <c r="EG12" s="5">
         <v>19850.3</v>
       </c>
-      <c r="EG12" s="5">
+      <c r="EH12" s="5">
         <v>18775.8</v>
       </c>
-      <c r="EH12" s="5">
+      <c r="EI12" s="5">
         <v>19217.1</v>
       </c>
-      <c r="EI12" s="5">
+      <c r="EJ12" s="5">
         <v>18597.5</v>
       </c>
-      <c r="EJ12" s="5">
+      <c r="EK12" s="5">
         <v>17723.4</v>
       </c>
-      <c r="EK12" s="5">
+      <c r="EL12" s="5">
         <v>16893.6</v>
       </c>
-      <c r="EL12" s="5">
+      <c r="EM12" s="5">
         <v>17083.4</v>
       </c>
-      <c r="EM12" s="5">
+      <c r="EN12" s="5">
         <v>16567.8</v>
       </c>
-      <c r="EN12" s="5">
+      <c r="EO12" s="5">
         <v>16087.5</v>
       </c>
-      <c r="EO12" s="6">
+      <c r="EP12" s="6">
         <v>15634</v>
       </c>
-      <c r="EP12" s="5">
+      <c r="EQ12" s="5">
         <v>16035.8</v>
       </c>
-      <c r="EQ12" s="5">
+      <c r="ER12" s="5">
         <v>16106.3</v>
       </c>
-      <c r="ER12" s="5">
+      <c r="ES12" s="5">
         <v>16074.7</v>
       </c>
-      <c r="ES12" s="5">
+      <c r="ET12" s="5">
         <v>16289.7</v>
       </c>
-      <c r="ET12" s="5">
+      <c r="EU12" s="5">
         <v>16662.4</v>
       </c>
-      <c r="EU12" s="5">
+      <c r="EV12" s="5">
         <v>16488.4</v>
       </c>
-      <c r="EV12" s="5">
+      <c r="EW12" s="5">
         <v>16084.5</v>
       </c>
-      <c r="EW12" s="5">
+      <c r="EX12" s="5">
         <v>15675.4</v>
       </c>
-      <c r="EX12" s="5">
+      <c r="EY12" s="5">
         <v>15730.2</v>
       </c>
-      <c r="EY12" s="5">
+      <c r="EZ12" s="5">
         <v>15151.3</v>
       </c>
-      <c r="EZ12" s="5">
+      <c r="FA12" s="5">
         <v>14649.2</v>
       </c>
-      <c r="FA12" s="5">
+      <c r="FB12" s="5">
         <v>14134.1</v>
       </c>
-      <c r="FB12" s="5">
+      <c r="FC12" s="5">
         <v>14301.1</v>
       </c>
-      <c r="FC12" s="5">
+      <c r="FD12" s="5">
         <v>13957.7</v>
       </c>
-      <c r="FD12" s="5">
+      <c r="FE12" s="5">
         <v>13563.7</v>
       </c>
-      <c r="FE12" s="5">
+      <c r="FF12" s="5">
         <v>13140.5</v>
       </c>
-      <c r="FF12" s="5">
+      <c r="FG12" s="5">
         <v>13526.1</v>
       </c>
-      <c r="FG12" s="5">
+      <c r="FH12" s="5">
         <v>13113.3</v>
       </c>
-      <c r="FH12" s="5">
+      <c r="FI12" s="5">
         <v>12633.1</v>
       </c>
-      <c r="FI12" s="5">
+      <c r="FJ12" s="5">
         <v>12045.8</v>
       </c>
-      <c r="FJ12" s="5">
+      <c r="FK12" s="5">
         <v>12255.7</v>
       </c>
-      <c r="FK12" s="5">
+      <c r="FL12" s="5">
         <v>11797.3</v>
       </c>
-      <c r="FL12" s="5">
+      <c r="FM12" s="5">
         <v>11334.3</v>
       </c>
-      <c r="FM12" s="5">
+      <c r="FN12" s="5">
         <v>10922.2</v>
       </c>
-      <c r="FN12" s="5">
+      <c r="FO12" s="5">
         <v>11296.8</v>
       </c>
-      <c r="FO12" s="6">
+      <c r="FP12" s="6">
         <v>10692</v>
       </c>
-      <c r="FP12" s="6">
+      <c r="FQ12" s="6">
         <v>10274</v>
       </c>
-      <c r="FQ12" s="5">
+      <c r="FR12" s="5">
         <v>9793.4</v>
       </c>
-      <c r="FR12" s="5">
+      <c r="FS12" s="5">
         <v>10281.5</v>
       </c>
-      <c r="FS12" s="5">
+      <c r="FT12" s="5">
         <v>9884.6</v>
       </c>
-      <c r="FT12" s="5">
+      <c r="FU12" s="5">
         <v>9280.1</v>
       </c>
-      <c r="FU12" s="5">
+      <c r="FV12" s="5">
         <v>8942.2</v>
       </c>
-      <c r="FV12" s="5">
+      <c r="FW12" s="5">
         <v>9329.6</v>
       </c>
-      <c r="FW12" s="5">
+      <c r="FX12" s="5">
         <v>9081.6</v>
       </c>
-      <c r="FX12" s="5">
+      <c r="FY12" s="5">
         <v>8739.3</v>
       </c>
-      <c r="FY12" s="5">
+      <c r="FZ12" s="5">
         <v>8467.8</v>
       </c>
-      <c r="FZ12" s="5">
+      <c r="GA12" s="5">
         <v>8700.6</v>
       </c>
-      <c r="GA12" s="6">
+      <c r="GB12" s="6">
         <v>8537</v>
       </c>
-      <c r="GB12" s="5">
+      <c r="GC12" s="5">
         <v>8124.5</v>
       </c>
-      <c r="GC12" s="6">
+      <c r="GD12" s="6">
         <v>7972</v>
       </c>
-      <c r="GD12" s="5">
+      <c r="GE12" s="5">
         <v>8134.6</v>
       </c>
-      <c r="GE12" s="5">
+      <c r="GF12" s="5">
         <v>7960.5</v>
       </c>
-      <c r="GF12" s="5">
+      <c r="GG12" s="5">
         <v>7564.2</v>
       </c>
-      <c r="GG12" s="5">
+      <c r="GH12" s="5">
         <v>7367.3</v>
       </c>
     </row>
-    <row r="13" spans="1:189" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B13" s="5">
+        <v>43923.7</v>
+      </c>
+      <c r="C13" s="5">
         <v>42145.5</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>40428.3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>39871.6</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>41242.9</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>41092.2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>38837.9</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>32405.2</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>44296.8</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>46007.5</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>44115.9</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>44632.2</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>45013.1</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>45398.2</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>42817.6</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>43428.9</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="5">
         <v>42552.9</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S13" s="5">
         <v>43939.8</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <v>41146.9</v>
       </c>
-      <c r="T13" s="5">
+      <c r="U13" s="5">
         <v>41464.8</v>
       </c>
-      <c r="U13" s="6">
+      <c r="V13" s="6">
         <v>41016</v>
       </c>
-      <c r="V13" s="5">
+      <c r="W13" s="5">
         <v>41694.5</v>
       </c>
-      <c r="W13" s="5">
+      <c r="X13" s="5">
         <v>39441.4</v>
       </c>
-      <c r="X13" s="5">
+      <c r="Y13" s="5">
         <v>40374.2</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Z13" s="5">
         <v>40884.8</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="AA13" s="6">
         <v>41171</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AB13" s="5">
         <v>38250.1</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AC13" s="5">
         <v>39233.1</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AD13" s="5">
         <v>38689.5</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AE13" s="5">
         <v>38740.8</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AF13" s="5">
         <v>36584.9</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AG13" s="5">
         <v>37422.4</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AH13" s="5">
         <v>36888.8</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AI13" s="6">
         <v>36979</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AJ13" s="6">
         <v>35608</v>
       </c>
-      <c r="AJ13" s="5">
+      <c r="AK13" s="5">
         <v>36212.4</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AL13" s="5">
         <v>35630.9</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AM13" s="5">
         <v>36270.4</v>
       </c>
-      <c r="AM13" s="5">
+      <c r="AN13" s="5">
         <v>34692.1</v>
       </c>
-      <c r="AN13" s="5">
+      <c r="AO13" s="5">
         <v>34925.4</v>
       </c>
-      <c r="AO13" s="5">
+      <c r="AP13" s="5">
         <v>34587.6</v>
       </c>
-      <c r="AP13" s="5">
+      <c r="AQ13" s="5">
         <v>35165.1</v>
       </c>
-      <c r="AQ13" s="5">
+      <c r="AR13" s="5">
         <v>33293.7</v>
       </c>
-      <c r="AR13" s="5">
+      <c r="AS13" s="5">
         <v>33946.7</v>
       </c>
-      <c r="AS13" s="5">
+      <c r="AT13" s="5">
         <v>33027.4</v>
       </c>
-      <c r="AT13" s="5">
+      <c r="AU13" s="5">
         <v>33709.2</v>
       </c>
-      <c r="AU13" s="5">
+      <c r="AV13" s="5">
         <v>31873.9</v>
       </c>
-      <c r="AV13" s="5">
+      <c r="AW13" s="5">
         <v>32296.2</v>
       </c>
-      <c r="AW13" s="5">
+      <c r="AX13" s="5">
         <v>32393.7</v>
       </c>
-      <c r="AX13" s="5">
+      <c r="AY13" s="5">
         <v>32187.2</v>
       </c>
-      <c r="AY13" s="5">
+      <c r="AZ13" s="5">
         <v>31372.8</v>
       </c>
-      <c r="AZ13" s="5">
+      <c r="BA13" s="5">
         <v>30736.6</v>
       </c>
-      <c r="BA13" s="5">
+      <c r="BB13" s="5">
         <v>30544.8</v>
       </c>
-      <c r="BB13" s="6">
+      <c r="BC13" s="6">
         <v>31644</v>
       </c>
-      <c r="BC13" s="5">
+      <c r="BD13" s="5">
         <v>31049.2</v>
       </c>
-      <c r="BD13" s="5">
+      <c r="BE13" s="5">
         <v>31494.2</v>
       </c>
-      <c r="BE13" s="5">
+      <c r="BF13" s="5">
         <v>30999.3</v>
       </c>
-      <c r="BF13" s="5">
+      <c r="BG13" s="5">
         <v>31338.3</v>
       </c>
-      <c r="BG13" s="5">
+      <c r="BH13" s="5">
         <v>29676.4</v>
       </c>
-      <c r="BH13" s="5">
+      <c r="BI13" s="5">
         <v>29870.6</v>
       </c>
-      <c r="BI13" s="5">
+      <c r="BJ13" s="5">
         <v>29167.6</v>
       </c>
-      <c r="BJ13" s="5">
+      <c r="BK13" s="5">
         <v>29097.2</v>
       </c>
-      <c r="BK13" s="5">
+      <c r="BL13" s="5">
         <v>27579.3</v>
       </c>
-      <c r="BL13" s="5">
+      <c r="BM13" s="5">
         <v>27768.5</v>
       </c>
-      <c r="BM13" s="5">
+      <c r="BN13" s="5">
         <v>27748.7</v>
       </c>
-      <c r="BN13" s="5">
+      <c r="BO13" s="5">
         <v>27442.7</v>
       </c>
-      <c r="BO13" s="5">
+      <c r="BP13" s="5">
         <v>26449.9</v>
       </c>
-      <c r="BP13" s="5">
+      <c r="BQ13" s="5">
         <v>26747.9</v>
       </c>
-      <c r="BQ13" s="5">
+      <c r="BR13" s="5">
         <v>26840.2</v>
       </c>
-      <c r="BR13" s="5">
+      <c r="BS13" s="5">
         <v>26278.4</v>
       </c>
-      <c r="BS13" s="5">
+      <c r="BT13" s="5">
         <v>25408.8</v>
       </c>
-      <c r="BT13" s="5">
+      <c r="BU13" s="5">
         <v>25748.7</v>
       </c>
-      <c r="BU13" s="5">
+      <c r="BV13" s="5">
         <v>25815.6</v>
       </c>
-      <c r="BV13" s="5">
+      <c r="BW13" s="5">
         <v>25658.6</v>
       </c>
-      <c r="BW13" s="5">
+      <c r="BX13" s="5">
         <v>24598.9</v>
       </c>
-      <c r="BX13" s="5">
+      <c r="BY13" s="5">
         <v>23412.2</v>
       </c>
-      <c r="BY13" s="5">
+      <c r="BZ13" s="5">
         <v>24426.7</v>
       </c>
-      <c r="BZ13" s="5">
+      <c r="CA13" s="5">
         <v>24409.7</v>
       </c>
-      <c r="CA13" s="5">
+      <c r="CB13" s="5">
         <v>24173.6</v>
       </c>
-      <c r="CB13" s="5">
+      <c r="CC13" s="5">
         <v>24156.7</v>
       </c>
-      <c r="CC13" s="5">
+      <c r="CD13" s="5">
         <v>24113.6</v>
       </c>
-      <c r="CD13" s="5">
+      <c r="CE13" s="5">
         <v>22998.6</v>
       </c>
-      <c r="CE13" s="5">
+      <c r="CF13" s="5">
         <v>23285.4</v>
       </c>
-      <c r="CF13" s="5">
+      <c r="CG13" s="5">
         <v>23639.8</v>
       </c>
-      <c r="CG13" s="6">
+      <c r="CH13" s="6">
         <v>23701</v>
       </c>
-      <c r="CH13" s="5">
+      <c r="CI13" s="5">
         <v>22306.2</v>
       </c>
-      <c r="CI13" s="5">
+      <c r="CJ13" s="5">
         <v>21808.8</v>
       </c>
-      <c r="CJ13" s="5">
+      <c r="CK13" s="5">
         <v>21424.3</v>
       </c>
-      <c r="CK13" s="6">
+      <c r="CL13" s="6">
         <v>21097</v>
       </c>
-      <c r="CL13" s="5">
+      <c r="CM13" s="5">
         <v>19862.1</v>
       </c>
-      <c r="CM13" s="5">
+      <c r="CN13" s="5">
         <v>19110.5</v>
       </c>
-      <c r="CN13" s="5">
+      <c r="CO13" s="5">
         <v>18760.5</v>
       </c>
-      <c r="CO13" s="5">
+      <c r="CP13" s="5">
         <v>18541.8</v>
       </c>
-      <c r="CP13" s="6">
+      <c r="CQ13" s="6">
         <v>17237</v>
       </c>
-      <c r="CQ13" s="5">
+      <c r="CR13" s="5">
         <v>16986.5</v>
       </c>
-      <c r="CR13" s="5">
+      <c r="CS13" s="5">
         <v>17376.1</v>
       </c>
-      <c r="CS13" s="5">
+      <c r="CT13" s="5">
         <v>17958.6</v>
       </c>
-      <c r="CT13" s="5">
+      <c r="CU13" s="5">
         <v>18068.7</v>
       </c>
-      <c r="CU13" s="5">
+      <c r="CV13" s="5">
         <v>18125.5</v>
       </c>
-      <c r="CV13" s="5">
+      <c r="CW13" s="5">
         <v>17271.7</v>
       </c>
-      <c r="CW13" s="5">
+      <c r="CX13" s="5">
         <v>17461.7</v>
       </c>
-      <c r="CX13" s="5">
+      <c r="CY13" s="5">
         <v>17297.9</v>
       </c>
-      <c r="CY13" s="5">
+      <c r="CZ13" s="5">
         <v>16703.2</v>
       </c>
-      <c r="CZ13" s="5">
+      <c r="DA13" s="5">
         <v>16484.6</v>
       </c>
-      <c r="DA13" s="5">
+      <c r="DB13" s="5">
         <v>16590.4</v>
       </c>
-      <c r="DB13" s="5">
+      <c r="DC13" s="5">
         <v>16307.1</v>
       </c>
-      <c r="DC13" s="6">
+      <c r="DD13" s="6">
         <v>15639</v>
       </c>
-      <c r="DD13" s="5">
+      <c r="DE13" s="5">
         <v>15444.5</v>
       </c>
-      <c r="DE13" s="5">
+      <c r="DF13" s="5">
         <v>15544.8</v>
       </c>
-      <c r="DF13" s="6">
+      <c r="DG13" s="6">
         <v>15444</v>
       </c>
-      <c r="DG13" s="5">
+      <c r="DH13" s="5">
         <v>14975.2</v>
       </c>
-      <c r="DH13" s="5">
+      <c r="DI13" s="5">
         <v>14660.8</v>
       </c>
-      <c r="DI13" s="5">
+      <c r="DJ13" s="5">
         <v>15515.4</v>
       </c>
-      <c r="DJ13" s="5">
+      <c r="DK13" s="5">
         <v>14674.9</v>
       </c>
-      <c r="DK13" s="5">
+      <c r="DL13" s="5">
         <v>14030.1</v>
       </c>
-      <c r="DL13" s="5">
+      <c r="DM13" s="5">
         <v>13821.3</v>
       </c>
-      <c r="DM13" s="5">
+      <c r="DN13" s="5">
         <v>13947.5</v>
       </c>
-      <c r="DN13" s="5">
+      <c r="DO13" s="5">
         <v>13143.3</v>
       </c>
-      <c r="DO13" s="5">
+      <c r="DP13" s="5">
         <v>12582.2</v>
       </c>
-      <c r="DP13" s="5">
+      <c r="DQ13" s="5">
         <v>12344.7</v>
       </c>
-      <c r="DQ13" s="5">
+      <c r="DR13" s="5">
         <v>12463.4</v>
       </c>
-      <c r="DR13" s="5">
+      <c r="DS13" s="5">
         <v>12417.3</v>
       </c>
-      <c r="DS13" s="5">
+      <c r="DT13" s="5">
         <v>11839.9</v>
       </c>
-      <c r="DT13" s="5">
+      <c r="DU13" s="5">
         <v>11607.6</v>
       </c>
-      <c r="DU13" s="6">
+      <c r="DV13" s="6">
         <v>11856</v>
       </c>
-      <c r="DV13" s="5">
+      <c r="DW13" s="5">
         <v>11762.4</v>
       </c>
-      <c r="DW13" s="5">
+      <c r="DX13" s="5">
         <v>11022.8</v>
       </c>
-      <c r="DX13" s="5">
+      <c r="DY13" s="5">
         <v>11037.1</v>
       </c>
-      <c r="DY13" s="5">
+      <c r="DZ13" s="5">
         <v>11142.9</v>
       </c>
-      <c r="DZ13" s="5">
+      <c r="EA13" s="5">
         <v>11150.3</v>
       </c>
-      <c r="EA13" s="5">
+      <c r="EB13" s="5">
         <v>10533.8</v>
       </c>
-      <c r="EB13" s="5">
+      <c r="EC13" s="5">
         <v>10315.7</v>
       </c>
-      <c r="EC13" s="5">
+      <c r="ED13" s="5">
         <v>9869.5</v>
       </c>
-      <c r="ED13" s="5">
+      <c r="EE13" s="5">
         <v>10512.6</v>
       </c>
-      <c r="EE13" s="5">
+      <c r="EF13" s="5">
         <v>9730.4</v>
       </c>
-      <c r="EF13" s="5">
+      <c r="EG13" s="5">
         <v>9420.4</v>
       </c>
-      <c r="EG13" s="5">
+      <c r="EH13" s="5">
         <v>8998.4</v>
       </c>
-      <c r="EH13" s="6">
+      <c r="EI13" s="6">
         <v>9287</v>
       </c>
-      <c r="EI13" s="5">
+      <c r="EJ13" s="5">
         <v>8927.7</v>
       </c>
-      <c r="EJ13" s="5">
+      <c r="EK13" s="5">
         <v>8570.6</v>
       </c>
-      <c r="EK13" s="5">
+      <c r="EL13" s="5">
         <v>7913.4</v>
       </c>
-      <c r="EL13" s="6">
+      <c r="EM13" s="6">
         <v>8257</v>
       </c>
-      <c r="EM13" s="5">
+      <c r="EN13" s="5">
         <v>8060.9</v>
       </c>
-      <c r="EN13" s="5">
+      <c r="EO13" s="5">
         <v>7773.8</v>
       </c>
-      <c r="EO13" s="5">
+      <c r="EP13" s="5">
         <v>7389.2</v>
       </c>
-      <c r="EP13" s="6">
+      <c r="EQ13" s="6">
         <v>7825</v>
       </c>
-      <c r="EQ13" s="6">
+      <c r="ER13" s="6">
         <v>7395</v>
       </c>
-      <c r="ER13" s="5">
+      <c r="ES13" s="5">
         <v>7489.4</v>
       </c>
-      <c r="ES13" s="5">
+      <c r="ET13" s="5">
         <v>7580.7</v>
       </c>
-      <c r="ET13" s="6">
+      <c r="EU13" s="6">
         <v>8051</v>
       </c>
-      <c r="EU13" s="5">
+      <c r="EV13" s="5">
         <v>7436.2</v>
       </c>
-      <c r="EV13" s="5">
+      <c r="EW13" s="5">
         <v>7406.8</v>
       </c>
-      <c r="EW13" s="5">
+      <c r="EX13" s="5">
         <v>7419.5</v>
       </c>
-      <c r="EX13" s="5">
+      <c r="EY13" s="5">
         <v>7378.3</v>
       </c>
-      <c r="EY13" s="5">
+      <c r="EZ13" s="5">
         <v>7245.6</v>
       </c>
-      <c r="EZ13" s="5">
+      <c r="FA13" s="5">
         <v>7214.7</v>
       </c>
-      <c r="FA13" s="5">
+      <c r="FB13" s="5">
         <v>6800.9</v>
       </c>
-      <c r="FB13" s="5">
+      <c r="FC13" s="5">
         <v>7170.9</v>
       </c>
-      <c r="FC13" s="5">
+      <c r="FD13" s="5">
         <v>6790.7</v>
       </c>
-      <c r="FD13" s="5">
+      <c r="FE13" s="5">
         <v>6665.2</v>
       </c>
-      <c r="FE13" s="5">
+      <c r="FF13" s="5">
         <v>6471.1</v>
       </c>
-      <c r="FF13" s="5">
+      <c r="FG13" s="5">
         <v>6737.9</v>
       </c>
-      <c r="FG13" s="5">
+      <c r="FH13" s="5">
         <v>6586.2</v>
       </c>
-      <c r="FH13" s="5">
+      <c r="FI13" s="5">
         <v>6412.4</v>
       </c>
-      <c r="FI13" s="5">
+      <c r="FJ13" s="5">
         <v>6313.1</v>
       </c>
-      <c r="FJ13" s="6">
+      <c r="FK13" s="6">
         <v>6550</v>
       </c>
-      <c r="FK13" s="6">
+      <c r="FL13" s="6">
         <v>6214</v>
       </c>
-      <c r="FL13" s="5">
+      <c r="FM13" s="5">
         <v>6249.7</v>
       </c>
-      <c r="FM13" s="5">
+      <c r="FN13" s="5">
         <v>5830.7</v>
       </c>
-      <c r="FN13" s="5">
+      <c r="FO13" s="5">
         <v>6197.1</v>
       </c>
-      <c r="FO13" s="5">
+      <c r="FP13" s="5">
         <v>5925.8</v>
       </c>
-      <c r="FP13" s="5">
+      <c r="FQ13" s="5">
         <v>5758.6</v>
       </c>
-      <c r="FQ13" s="5">
+      <c r="FR13" s="5">
         <v>5633.6</v>
       </c>
-      <c r="FR13" s="5">
+      <c r="FS13" s="5">
         <v>5691.4</v>
       </c>
-      <c r="FS13" s="5">
+      <c r="FT13" s="5">
         <v>5660.5</v>
       </c>
-      <c r="FT13" s="5">
+      <c r="FU13" s="5">
         <v>5384.7</v>
       </c>
-      <c r="FU13" s="6">
+      <c r="FV13" s="6">
         <v>5315</v>
       </c>
-      <c r="FV13" s="5">
+      <c r="FW13" s="5">
         <v>5423.8</v>
       </c>
-      <c r="FW13" s="5">
+      <c r="FX13" s="5">
         <v>5214.2</v>
       </c>
-      <c r="FX13" s="5">
+      <c r="FY13" s="5">
         <v>5112.7</v>
       </c>
-      <c r="FY13" s="5">
+      <c r="FZ13" s="5">
         <v>4942.3</v>
       </c>
-      <c r="FZ13" s="5">
+      <c r="GA13" s="5">
         <v>5227.7</v>
       </c>
-      <c r="GA13" s="5">
+      <c r="GB13" s="5">
         <v>4928.2</v>
       </c>
-      <c r="GB13" s="5">
+      <c r="GC13" s="5">
         <v>4770.6</v>
       </c>
-      <c r="GC13" s="5">
+      <c r="GD13" s="5">
         <v>4739.4</v>
       </c>
-      <c r="GD13" s="5">
+      <c r="GE13" s="5">
         <v>5062.3</v>
       </c>
-      <c r="GE13" s="5">
+      <c r="GF13" s="5">
         <v>4748.2</v>
       </c>
-      <c r="GF13" s="5">
+      <c r="GG13" s="5">
         <v>4505.8</v>
       </c>
-      <c r="GG13" s="6">
+      <c r="GH13" s="6">
         <v>4365</v>
       </c>
     </row>
-    <row r="14" spans="1:189" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B14" s="5">
+        <v>16420.9</v>
+      </c>
+      <c r="C14" s="5">
         <v>14131.1</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>14342.4</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>12976.3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <v>16889</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>13643.8</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>13884</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>12883</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>15427.5</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>12437.4</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>11741.3</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>10721.2</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="6">
         <v>14372</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>11848.8</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>11433.7</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>10558.3</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
         <v>13833.5</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <v>11646.9</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <v>11379.3</v>
       </c>
-      <c r="T14" s="5">
+      <c r="U14" s="5">
         <v>10425.6</v>
       </c>
-      <c r="U14" s="5">
+      <c r="V14" s="5">
         <v>12842.6</v>
       </c>
-      <c r="V14" s="5">
+      <c r="W14" s="5">
         <v>11510.9</v>
       </c>
-      <c r="W14" s="5">
+      <c r="X14" s="5">
         <v>10683.9</v>
       </c>
-      <c r="X14" s="5">
+      <c r="Y14" s="5">
         <v>10152.1</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Z14" s="6">
         <v>12412</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="AA14" s="6">
         <v>11210</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AB14" s="5">
         <v>10692.3</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AC14" s="5">
         <v>9473.4</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AD14" s="5">
         <v>11777.1</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AE14" s="5">
         <v>10102.9</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AF14" s="5">
         <v>9500.8</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AG14" s="5">
         <v>9220.5</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AH14" s="5">
         <v>10801.2</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AI14" s="5">
         <v>9849.7</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AJ14" s="6">
         <v>9424</v>
       </c>
-      <c r="AJ14" s="5">
+      <c r="AK14" s="5">
         <v>8112.4</v>
       </c>
-      <c r="AK14" s="5">
+      <c r="AL14" s="5">
         <v>11993.4</v>
       </c>
-      <c r="AL14" s="5">
+      <c r="AM14" s="5">
         <v>8618.9</v>
       </c>
-      <c r="AM14" s="5">
+      <c r="AN14" s="5">
         <v>8636.5</v>
       </c>
-      <c r="AN14" s="5">
+      <c r="AO14" s="5">
         <v>7073.9</v>
       </c>
-      <c r="AO14" s="5">
+      <c r="AP14" s="5">
         <v>10915.9</v>
       </c>
-      <c r="AP14" s="5">
+      <c r="AQ14" s="5">
         <v>8815.7</v>
       </c>
-      <c r="AQ14" s="5">
+      <c r="AR14" s="5">
         <v>8564.5</v>
       </c>
-      <c r="AR14" s="5">
+      <c r="AS14" s="5">
         <v>7199.1</v>
       </c>
-      <c r="AS14" s="5">
+      <c r="AT14" s="5">
         <v>10365.5</v>
       </c>
-      <c r="AT14" s="5">
+      <c r="AU14" s="5">
         <v>9289.2</v>
       </c>
-      <c r="AU14" s="5">
+      <c r="AV14" s="5">
         <v>8203.8</v>
       </c>
-      <c r="AV14" s="6">
+      <c r="AW14" s="6">
         <v>6821</v>
       </c>
-      <c r="AW14" s="5">
+      <c r="AX14" s="5">
         <v>10694.6</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="AY14" s="5">
         <v>7973.6</v>
       </c>
-      <c r="AY14" s="6">
+      <c r="AZ14" s="6">
         <v>7814</v>
       </c>
-      <c r="AZ14" s="5">
+      <c r="BA14" s="5">
         <v>6191.8</v>
       </c>
-      <c r="BA14" s="5">
+      <c r="BB14" s="5">
         <v>9783.6</v>
       </c>
-      <c r="BB14" s="5">
+      <c r="BC14" s="5">
         <v>7292.9</v>
       </c>
-      <c r="BC14" s="5">
+      <c r="BD14" s="5">
         <v>6971.9</v>
       </c>
-      <c r="BD14" s="5">
+      <c r="BE14" s="5">
         <v>5885.9</v>
       </c>
-      <c r="BE14" s="5">
+      <c r="BF14" s="5">
         <v>10141.2</v>
       </c>
-      <c r="BF14" s="5">
+      <c r="BG14" s="5">
         <v>6896.9</v>
       </c>
-      <c r="BG14" s="5">
+      <c r="BH14" s="5">
         <v>6599.6</v>
       </c>
-      <c r="BH14" s="5">
+      <c r="BI14" s="5">
         <v>5558.5</v>
       </c>
-      <c r="BI14" s="5">
+      <c r="BJ14" s="5">
         <v>9433.7</v>
       </c>
-      <c r="BJ14" s="5">
+      <c r="BK14" s="5">
         <v>6507.9</v>
       </c>
-      <c r="BK14" s="5">
+      <c r="BL14" s="5">
         <v>6444.3</v>
       </c>
-      <c r="BL14" s="5">
+      <c r="BM14" s="5">
         <v>5319.5</v>
       </c>
-      <c r="BM14" s="5">
+      <c r="BN14" s="5">
         <v>9539.9</v>
       </c>
-      <c r="BN14" s="5">
+      <c r="BO14" s="5">
         <v>6557.9</v>
       </c>
-      <c r="BO14" s="5">
+      <c r="BP14" s="5">
         <v>5635.2</v>
       </c>
-      <c r="BP14" s="5">
+      <c r="BQ14" s="5">
         <v>5226.4</v>
       </c>
-      <c r="BQ14" s="5">
+      <c r="BR14" s="5">
         <v>8496.6</v>
       </c>
-      <c r="BR14" s="5">
+      <c r="BS14" s="5">
         <v>6114.9</v>
       </c>
-      <c r="BS14" s="5">
+      <c r="BT14" s="5">
         <v>5501.9</v>
       </c>
-      <c r="BT14" s="5">
+      <c r="BU14" s="5">
         <v>5388.6</v>
       </c>
-      <c r="BU14" s="6">
+      <c r="BV14" s="6">
         <v>7910</v>
       </c>
-      <c r="BV14" s="5">
+      <c r="BW14" s="5">
         <v>6055.7</v>
       </c>
-      <c r="BW14" s="5">
+      <c r="BX14" s="5">
         <v>5700.4</v>
       </c>
-      <c r="BX14" s="5">
+      <c r="BY14" s="5">
         <v>5648.4</v>
       </c>
-      <c r="BY14" s="6">
+      <c r="BZ14" s="6">
         <v>7261</v>
       </c>
-      <c r="BZ14" s="5">
+      <c r="CA14" s="5">
         <v>5632.8</v>
       </c>
-      <c r="CA14" s="5">
+      <c r="CB14" s="5">
         <v>6176.9</v>
       </c>
-      <c r="CB14" s="6">
+      <c r="CC14" s="6">
         <v>5352</v>
       </c>
-      <c r="CC14" s="5">
+      <c r="CD14" s="5">
         <v>7280.9</v>
       </c>
-      <c r="CD14" s="5">
+      <c r="CE14" s="5">
         <v>5608.5</v>
       </c>
-      <c r="CE14" s="5">
+      <c r="CF14" s="5">
         <v>5548.2</v>
       </c>
-      <c r="CF14" s="5">
+      <c r="CG14" s="5">
         <v>4605.1</v>
       </c>
-      <c r="CG14" s="5">
+      <c r="CH14" s="5">
         <v>7600.5</v>
       </c>
-      <c r="CH14" s="5">
+      <c r="CI14" s="5">
         <v>6428.7</v>
       </c>
-      <c r="CI14" s="5">
+      <c r="CJ14" s="5">
         <v>4183.2</v>
       </c>
-      <c r="CJ14" s="5">
+      <c r="CK14" s="5">
         <v>3707.6</v>
       </c>
-      <c r="CK14" s="5">
+      <c r="CL14" s="5">
         <v>7917.7</v>
       </c>
-      <c r="CL14" s="5">
+      <c r="CM14" s="5">
         <v>4215.1</v>
       </c>
-      <c r="CM14" s="5">
+      <c r="CN14" s="5">
         <v>3843.8</v>
       </c>
-      <c r="CN14" s="5">
+      <c r="CO14" s="5">
         <v>3366.1</v>
       </c>
-      <c r="CO14" s="5">
+      <c r="CP14" s="5">
         <v>7368.8</v>
       </c>
-      <c r="CP14" s="5">
+      <c r="CQ14" s="5">
         <v>4318.5</v>
       </c>
-      <c r="CQ14" s="5">
+      <c r="CR14" s="5">
         <v>3817.7</v>
       </c>
-      <c r="CR14" s="5">
+      <c r="CS14" s="5">
         <v>3549.4</v>
       </c>
-      <c r="CS14" s="5">
+      <c r="CT14" s="5">
         <v>5943.1</v>
       </c>
-      <c r="CT14" s="5">
+      <c r="CU14" s="5">
         <v>4052.8</v>
       </c>
-      <c r="CU14" s="5">
+      <c r="CV14" s="5">
         <v>3674.6</v>
       </c>
-      <c r="CV14" s="5">
+      <c r="CW14" s="5">
         <v>3040.9</v>
       </c>
-      <c r="CW14" s="5">
+      <c r="CX14" s="5">
         <v>5593.9</v>
       </c>
-      <c r="CX14" s="5">
+      <c r="CY14" s="5">
         <v>3354.1</v>
       </c>
-      <c r="CY14" s="5">
+      <c r="CZ14" s="5">
         <v>4132.1</v>
       </c>
-      <c r="CZ14" s="5">
+      <c r="DA14" s="5">
         <v>2693.5</v>
       </c>
-      <c r="DA14" s="5">
+      <c r="DB14" s="5">
         <v>5184.3</v>
       </c>
-      <c r="DB14" s="5">
+      <c r="DC14" s="5">
         <v>3291.2</v>
       </c>
-      <c r="DC14" s="5">
+      <c r="DD14" s="5">
         <v>3186.2</v>
       </c>
-      <c r="DD14" s="5">
+      <c r="DE14" s="5">
         <v>2571.8</v>
       </c>
-      <c r="DE14" s="5">
+      <c r="DF14" s="5">
         <v>4158.9</v>
       </c>
-      <c r="DF14" s="5">
+      <c r="DG14" s="5">
         <v>2612.4</v>
       </c>
-      <c r="DG14" s="5">
+      <c r="DH14" s="5">
         <v>2938.1</v>
       </c>
-      <c r="DH14" s="5">
+      <c r="DI14" s="5">
         <v>2484.2</v>
       </c>
-      <c r="DI14" s="5">
+      <c r="DJ14" s="5">
         <v>3921.8</v>
       </c>
-      <c r="DJ14" s="5">
+      <c r="DK14" s="5">
         <v>2419.3</v>
       </c>
-      <c r="DK14" s="5">
+      <c r="DL14" s="5">
         <v>2953.4</v>
       </c>
-      <c r="DL14" s="5">
+      <c r="DM14" s="5">
         <v>2273.3</v>
       </c>
-      <c r="DM14" s="5">
+      <c r="DN14" s="5">
         <v>4364.7</v>
       </c>
-      <c r="DN14" s="5">
+      <c r="DO14" s="5">
         <v>2317.3</v>
       </c>
-      <c r="DO14" s="5">
+      <c r="DP14" s="5">
         <v>2475.1</v>
       </c>
-      <c r="DP14" s="5">
+      <c r="DQ14" s="5">
         <v>2054.5</v>
       </c>
-      <c r="DQ14" s="5">
+      <c r="DR14" s="5">
         <v>3551.2</v>
       </c>
-      <c r="DR14" s="5">
+      <c r="DS14" s="5">
         <v>2179.9</v>
       </c>
-      <c r="DS14" s="5">
+      <c r="DT14" s="5">
         <v>2308.7</v>
       </c>
-      <c r="DT14" s="5">
+      <c r="DU14" s="5">
         <v>1953.3</v>
       </c>
-      <c r="DU14" s="5">
+      <c r="DV14" s="5">
         <v>3695.9</v>
       </c>
-      <c r="DV14" s="5">
+      <c r="DW14" s="5">
         <v>2031.1</v>
       </c>
-      <c r="DW14" s="5">
+      <c r="DX14" s="5">
         <v>2286.3</v>
       </c>
-      <c r="DX14" s="6">
+      <c r="DY14" s="6">
         <v>1595</v>
       </c>
-      <c r="DY14" s="5">
+      <c r="DZ14" s="5">
         <v>3455.5</v>
       </c>
-      <c r="DZ14" s="5">
+      <c r="EA14" s="5">
         <v>1799.9</v>
       </c>
-      <c r="EA14" s="6">
+      <c r="EB14" s="6">
         <v>1964</v>
       </c>
-      <c r="EB14" s="5">
+      <c r="EC14" s="5">
         <v>1668.5</v>
       </c>
-      <c r="EC14" s="5">
+      <c r="ED14" s="5">
         <v>3018.6</v>
       </c>
-      <c r="ED14" s="6">
+      <c r="EE14" s="6">
         <v>1781</v>
       </c>
-      <c r="EE14" s="5">
+      <c r="EF14" s="5">
         <v>1849.1</v>
       </c>
-      <c r="EF14" s="5">
+      <c r="EG14" s="5">
         <v>1520.7</v>
       </c>
-      <c r="EG14" s="5">
+      <c r="EH14" s="5">
         <v>2813.3</v>
       </c>
-      <c r="EH14" s="5">
+      <c r="EI14" s="5">
         <v>2239.3</v>
       </c>
-      <c r="EI14" s="5">
+      <c r="EJ14" s="5">
         <v>1966.4</v>
       </c>
-      <c r="EJ14" s="5">
+      <c r="EK14" s="5">
         <v>1549.6</v>
       </c>
-      <c r="EK14" s="5">
+      <c r="EL14" s="5">
         <v>2717.2</v>
       </c>
-      <c r="EL14" s="5">
+      <c r="EM14" s="5">
         <v>1854.3</v>
       </c>
-      <c r="EM14" s="5">
+      <c r="EN14" s="5">
         <v>1887.9</v>
       </c>
-      <c r="EN14" s="5">
+      <c r="EO14" s="5">
         <v>1687.5</v>
       </c>
-      <c r="EO14" s="5">
+      <c r="EP14" s="5">
         <v>2939.9</v>
       </c>
-      <c r="EP14" s="6">
+      <c r="EQ14" s="6">
         <v>1862</v>
       </c>
-      <c r="EQ14" s="5">
+      <c r="ER14" s="5">
         <v>1945.8</v>
       </c>
-      <c r="ER14" s="5">
+      <c r="ES14" s="5">
         <v>1703.1</v>
       </c>
-      <c r="ES14" s="5">
+      <c r="ET14" s="5">
         <v>2782.2</v>
       </c>
-      <c r="ET14" s="5">
+      <c r="EU14" s="5">
         <v>1687.3</v>
       </c>
-      <c r="EU14" s="5">
+      <c r="EV14" s="5">
         <v>1692.2</v>
       </c>
-      <c r="EV14" s="5">
+      <c r="EW14" s="5">
         <v>1287.3</v>
       </c>
-      <c r="EW14" s="5">
+      <c r="EX14" s="5">
         <v>2233.3</v>
       </c>
-      <c r="EX14" s="5">
+      <c r="EY14" s="5">
         <v>1531.4</v>
       </c>
-      <c r="EY14" s="6">
+      <c r="EZ14" s="6">
         <v>1451</v>
       </c>
-      <c r="EZ14" s="5">
+      <c r="FA14" s="5">
         <v>1339.6</v>
       </c>
-      <c r="FA14" s="5">
+      <c r="FB14" s="5">
         <v>2222.8</v>
       </c>
-      <c r="FB14" s="5">
+      <c r="FC14" s="5">
         <v>1555.2</v>
       </c>
-      <c r="FC14" s="5">
+      <c r="FD14" s="5">
         <v>1437.9</v>
       </c>
-      <c r="FD14" s="5">
+      <c r="FE14" s="5">
         <v>1198.4</v>
       </c>
-      <c r="FE14" s="5">
+      <c r="FF14" s="5">
         <v>1777.8</v>
       </c>
-      <c r="FF14" s="5">
+      <c r="FG14" s="5">
         <v>1354.6</v>
       </c>
-      <c r="FG14" s="6">
+      <c r="FH14" s="6">
         <v>1287</v>
       </c>
-      <c r="FH14" s="5">
+      <c r="FI14" s="5">
         <v>1271.4</v>
       </c>
-      <c r="FI14" s="5">
+      <c r="FJ14" s="5">
         <v>1356.7</v>
       </c>
-      <c r="FJ14" s="5">
+      <c r="FK14" s="5">
         <v>1226.4</v>
       </c>
-      <c r="FK14" s="5">
+      <c r="FL14" s="5">
         <v>1153.7</v>
       </c>
-      <c r="FL14" s="5">
+      <c r="FM14" s="5">
         <v>1285.9</v>
       </c>
-      <c r="FM14" s="5">
+      <c r="FN14" s="5">
         <v>1331.6</v>
       </c>
-      <c r="FN14" s="6">
+      <c r="FO14" s="6">
         <v>1055</v>
       </c>
-      <c r="FO14" s="5">
+      <c r="FP14" s="5">
         <v>1154.9</v>
       </c>
-      <c r="FP14" s="5">
+      <c r="FQ14" s="5">
         <v>995.8</v>
       </c>
-      <c r="FQ14" s="5">
+      <c r="FR14" s="5">
         <v>1319.6</v>
       </c>
-      <c r="FR14" s="5">
+      <c r="FS14" s="5">
         <v>1099.6</v>
       </c>
-      <c r="FS14" s="5">
+      <c r="FT14" s="5">
         <v>1052.2</v>
       </c>
-      <c r="FT14" s="5">
+      <c r="FU14" s="5">
         <v>932.8</v>
       </c>
-      <c r="FU14" s="5">
+      <c r="FV14" s="5">
         <v>1448.8</v>
       </c>
-      <c r="FV14" s="5">
+      <c r="FW14" s="5">
         <v>977.7</v>
       </c>
-      <c r="FW14" s="6">
+      <c r="FX14" s="6">
         <v>907</v>
       </c>
-      <c r="FX14" s="5">
+      <c r="FY14" s="5">
         <v>915.8</v>
       </c>
-      <c r="FY14" s="5">
+      <c r="FZ14" s="5">
         <v>1276.1</v>
       </c>
-      <c r="FZ14" s="5">
+      <c r="GA14" s="5">
         <v>865.5</v>
       </c>
-      <c r="GA14" s="5">
+      <c r="GB14" s="5">
         <v>919.8</v>
       </c>
-      <c r="GB14" s="5">
+      <c r="GC14" s="5">
         <v>772.1</v>
       </c>
-      <c r="GC14" s="5">
+      <c r="GD14" s="5">
         <v>1188.9</v>
       </c>
-      <c r="GD14" s="5">
+      <c r="GE14" s="5">
         <v>863.7</v>
       </c>
-      <c r="GE14" s="5">
+      <c r="GF14" s="5">
         <v>896.3</v>
       </c>
-      <c r="GF14" s="5">
+      <c r="GG14" s="5">
         <v>747.1</v>
       </c>
-      <c r="GG14" s="5">
+      <c r="GH14" s="5">
         <v>1067.2</v>
       </c>
     </row>
-    <row r="15" spans="1:189" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="5">
+        <v>202</v>
+      </c>
+      <c r="B15" s="6">
+        <v>30141</v>
+      </c>
+      <c r="C15" s="5">
         <v>30954.2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="5">
         <v>30655.7</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>29824.9</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>29534.3</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>28569.2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>23082.2</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>20876.6</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>28628.2</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <v>29868.2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>29432.2</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>29974.6</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>28566.1</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>29409.9</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>28196.3</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>29821.2</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>28458.2</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <v>32362.8</v>
       </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <v>30139.1</v>
       </c>
-      <c r="T15" s="5">
+      <c r="U15" s="5">
         <v>30830.2</v>
       </c>
-      <c r="U15" s="5">
+      <c r="V15" s="5">
         <v>28779.4</v>
       </c>
-      <c r="V15" s="5">
+      <c r="W15" s="5">
         <v>30469.5</v>
       </c>
-      <c r="W15" s="6">
+      <c r="X15" s="6">
         <v>28305</v>
       </c>
-      <c r="X15" s="5">
+      <c r="Y15" s="5">
         <v>29775.7</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Z15" s="5">
         <v>27443.2</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="AA15" s="5">
         <v>30276.3</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AB15" s="5">
         <v>29017.8</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AC15" s="5">
         <v>29042.4</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AD15" s="5">
         <v>26934.7</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AE15" s="5">
         <v>29505.8</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AF15" s="5">
         <v>28286.4</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AG15" s="5">
         <v>27583.2</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AH15" s="5">
         <v>27679.7</v>
       </c>
-      <c r="AH15" s="5">
+      <c r="AI15" s="5">
         <v>27419.3</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AJ15" s="6">
         <v>28683</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AK15" s="5">
         <v>26262.4</v>
       </c>
-      <c r="AK15" s="5">
+      <c r="AL15" s="5">
         <v>26112.5</v>
       </c>
-      <c r="AL15" s="5">
+      <c r="AM15" s="5">
         <v>26414.9</v>
       </c>
-      <c r="AM15" s="5">
+      <c r="AN15" s="5">
         <v>25461.7</v>
       </c>
-      <c r="AN15" s="5">
+      <c r="AO15" s="5">
         <v>24781.6</v>
       </c>
-      <c r="AO15" s="5">
+      <c r="AP15" s="5">
         <v>25525.5</v>
       </c>
-      <c r="AP15" s="5">
+      <c r="AQ15" s="5">
         <v>24097.3</v>
       </c>
-      <c r="AQ15" s="5">
+      <c r="AR15" s="5">
         <v>25291.9</v>
       </c>
-      <c r="AR15" s="5">
+      <c r="AS15" s="5">
         <v>23366.6</v>
       </c>
-      <c r="AS15" s="5">
+      <c r="AT15" s="5">
         <v>21310.4</v>
       </c>
-      <c r="AT15" s="5">
+      <c r="AU15" s="5">
         <v>23026.9</v>
       </c>
-      <c r="AU15" s="5">
+      <c r="AV15" s="5">
         <v>22184.9</v>
       </c>
-      <c r="AV15" s="5">
+      <c r="AW15" s="5">
         <v>21736.5</v>
       </c>
-      <c r="AW15" s="5">
+      <c r="AX15" s="5">
         <v>21488.5</v>
       </c>
-      <c r="AX15" s="5">
+      <c r="AY15" s="5">
         <v>21775.8</v>
       </c>
-      <c r="AY15" s="5">
+      <c r="AZ15" s="5">
         <v>20668.6</v>
       </c>
-      <c r="AZ15" s="5">
+      <c r="BA15" s="5">
         <v>21096.8</v>
       </c>
-      <c r="BA15" s="5">
+      <c r="BB15" s="5">
         <v>19303.2</v>
       </c>
-      <c r="BB15" s="5">
+      <c r="BC15" s="5">
         <v>19387.9</v>
       </c>
-      <c r="BC15" s="5">
+      <c r="BD15" s="5">
         <v>19682.1</v>
       </c>
-      <c r="BD15" s="6">
+      <c r="BE15" s="6">
         <v>20036</v>
       </c>
-      <c r="BE15" s="5">
+      <c r="BF15" s="5">
         <v>19429.2</v>
       </c>
-      <c r="BF15" s="5">
+      <c r="BG15" s="5">
         <v>20643.4</v>
       </c>
-      <c r="BG15" s="6">
+      <c r="BH15" s="6">
         <v>16885</v>
       </c>
-      <c r="BH15" s="5">
+      <c r="BI15" s="5">
         <v>16961.7</v>
       </c>
-      <c r="BI15" s="5">
+      <c r="BJ15" s="5">
         <v>16418.4</v>
       </c>
-      <c r="BJ15" s="5">
+      <c r="BK15" s="5">
         <v>17166.9</v>
       </c>
-      <c r="BK15" s="5">
+      <c r="BL15" s="5">
         <v>15681.3</v>
       </c>
-      <c r="BL15" s="5">
+      <c r="BM15" s="5">
         <v>14114.6</v>
       </c>
-      <c r="BM15" s="5">
+      <c r="BN15" s="5">
         <v>14427.2</v>
       </c>
-      <c r="BN15" s="5">
+      <c r="BO15" s="5">
         <v>15492.3</v>
       </c>
-      <c r="BO15" s="5">
+      <c r="BP15" s="5">
         <v>13942.4</v>
       </c>
-      <c r="BP15" s="5">
+      <c r="BQ15" s="5">
         <v>13147.5</v>
       </c>
-      <c r="BQ15" s="5">
+      <c r="BR15" s="5">
         <v>13513.4</v>
       </c>
-      <c r="BR15" s="5">
+      <c r="BS15" s="5">
         <v>13116.9</v>
       </c>
-      <c r="BS15" s="6">
+      <c r="BT15" s="6">
         <v>14491</v>
       </c>
-      <c r="BT15" s="5">
+      <c r="BU15" s="5">
         <v>13513.8</v>
       </c>
-      <c r="BU15" s="5">
+      <c r="BV15" s="5">
         <v>13003.9</v>
       </c>
-      <c r="BV15" s="5">
+      <c r="BW15" s="5">
         <v>12638.4</v>
       </c>
-      <c r="BW15" s="5">
+      <c r="BX15" s="5">
         <v>12455.7</v>
       </c>
-      <c r="BX15" s="5">
+      <c r="BY15" s="5">
         <v>11783.6</v>
       </c>
-      <c r="BY15" s="5">
+      <c r="BZ15" s="5">
         <v>12196.1</v>
       </c>
-      <c r="BZ15" s="6">
+      <c r="CA15" s="6">
         <v>12715</v>
       </c>
-      <c r="CA15" s="5">
+      <c r="CB15" s="5">
         <v>12674.3</v>
       </c>
-      <c r="CB15" s="5">
+      <c r="CC15" s="5">
         <v>13103.9</v>
       </c>
-      <c r="CC15" s="5">
+      <c r="CD15" s="5">
         <v>13248.5</v>
       </c>
-      <c r="CD15" s="5">
+      <c r="CE15" s="5">
         <v>13708.3</v>
       </c>
-      <c r="CE15" s="5">
+      <c r="CF15" s="5">
         <v>14402.5</v>
       </c>
-      <c r="CF15" s="5">
+      <c r="CG15" s="5">
         <v>14043.7</v>
       </c>
-      <c r="CG15" s="6">
+      <c r="CH15" s="6">
         <v>14801</v>
       </c>
-      <c r="CH15" s="5">
+      <c r="CI15" s="5">
         <v>15065.7</v>
       </c>
-      <c r="CI15" s="6">
+      <c r="CJ15" s="6">
         <v>16323</v>
       </c>
-      <c r="CJ15" s="5">
+      <c r="CK15" s="5">
         <v>13976.9</v>
       </c>
-      <c r="CK15" s="5">
+      <c r="CL15" s="5">
         <v>14718.6</v>
       </c>
-      <c r="CL15" s="5">
+      <c r="CM15" s="5">
         <v>13618.7</v>
       </c>
-      <c r="CM15" s="5">
+      <c r="CN15" s="5">
         <v>14365.4</v>
       </c>
-      <c r="CN15" s="5">
+      <c r="CO15" s="5">
         <v>13125.2</v>
       </c>
-      <c r="CO15" s="5">
+      <c r="CP15" s="5">
         <v>12819.1</v>
       </c>
-      <c r="CP15" s="5">
+      <c r="CQ15" s="5">
         <v>13420.7</v>
       </c>
-      <c r="CQ15" s="5">
+      <c r="CR15" s="5">
         <v>14209.7</v>
       </c>
-      <c r="CR15" s="5">
+      <c r="CS15" s="5">
         <v>13820.2</v>
       </c>
-      <c r="CS15" s="5">
+      <c r="CT15" s="5">
         <v>15020.6</v>
       </c>
-      <c r="CT15" s="5">
+      <c r="CU15" s="5">
         <v>16407.5</v>
       </c>
-      <c r="CU15" s="5">
+      <c r="CV15" s="5">
         <v>15746.8</v>
       </c>
-      <c r="CV15" s="5">
+      <c r="CW15" s="5">
         <v>13965.1</v>
       </c>
-      <c r="CW15" s="5">
+      <c r="CX15" s="5">
         <v>13337.6</v>
       </c>
-      <c r="CX15" s="5">
+      <c r="CY15" s="5">
         <v>14894.3</v>
       </c>
-      <c r="CY15" s="5">
+      <c r="CZ15" s="5">
         <v>12566.9</v>
       </c>
-      <c r="CZ15" s="5">
+      <c r="DA15" s="5">
         <v>13584.1</v>
       </c>
-      <c r="DA15" s="5">
+      <c r="DB15" s="5">
         <v>12735.9</v>
       </c>
-      <c r="DB15" s="5">
+      <c r="DC15" s="5">
         <v>12689.6</v>
       </c>
-      <c r="DC15" s="5">
+      <c r="DD15" s="5">
         <v>10879.3</v>
       </c>
-      <c r="DD15" s="5">
+      <c r="DE15" s="5">
         <v>10104.5</v>
       </c>
-      <c r="DE15" s="5">
+      <c r="DF15" s="5">
         <v>9658.7</v>
       </c>
-      <c r="DF15" s="6">
+      <c r="DG15" s="6">
         <v>10390</v>
       </c>
-      <c r="DG15" s="5">
+      <c r="DH15" s="5">
         <v>9836.8</v>
       </c>
-      <c r="DH15" s="5">
+      <c r="DI15" s="5">
         <v>9173.8</v>
       </c>
-      <c r="DI15" s="5">
+      <c r="DJ15" s="5">
         <v>9199.7</v>
       </c>
-      <c r="DJ15" s="5">
+      <c r="DK15" s="5">
         <v>9513.8</v>
       </c>
-      <c r="DK15" s="5">
+      <c r="DL15" s="5">
         <v>8833.8</v>
       </c>
-      <c r="DL15" s="5">
+      <c r="DM15" s="5">
         <v>8632.1</v>
       </c>
-      <c r="DM15" s="5">
+      <c r="DN15" s="5">
         <v>8142.5</v>
       </c>
-      <c r="DN15" s="5">
+      <c r="DO15" s="5">
         <v>8875.4</v>
       </c>
-      <c r="DO15" s="5">
+      <c r="DP15" s="5">
         <v>7897.1</v>
       </c>
-      <c r="DP15" s="5">
+      <c r="DQ15" s="5">
         <v>7759.5</v>
       </c>
-      <c r="DQ15" s="6">
+      <c r="DR15" s="6">
         <v>7462</v>
       </c>
-      <c r="DR15" s="5">
+      <c r="DS15" s="5">
         <v>7141.4</v>
       </c>
-      <c r="DS15" s="5">
+      <c r="DT15" s="5">
         <v>7297.9</v>
       </c>
-      <c r="DT15" s="5">
+      <c r="DU15" s="5">
         <v>7343.2</v>
       </c>
-      <c r="DU15" s="5">
+      <c r="DV15" s="5">
         <v>6794.6</v>
       </c>
-      <c r="DV15" s="5">
+      <c r="DW15" s="5">
         <v>6595.2</v>
       </c>
-      <c r="DW15" s="5">
+      <c r="DX15" s="5">
         <v>6552.2</v>
       </c>
-      <c r="DX15" s="5">
+      <c r="DY15" s="5">
         <v>6015.5</v>
       </c>
-      <c r="DY15" s="5">
+      <c r="DZ15" s="5">
         <v>6061.1</v>
       </c>
-      <c r="DZ15" s="5">
+      <c r="EA15" s="5">
         <v>6367.3</v>
       </c>
-      <c r="EA15" s="6">
+      <c r="EB15" s="6">
         <v>5588</v>
       </c>
-      <c r="EB15" s="5">
+      <c r="EC15" s="5">
         <v>5119.8</v>
       </c>
-      <c r="EC15" s="5">
+      <c r="ED15" s="5">
         <v>5595.9</v>
       </c>
-      <c r="ED15" s="5">
+      <c r="EE15" s="5">
         <v>5172.6</v>
       </c>
-      <c r="EE15" s="5">
+      <c r="EF15" s="5">
         <v>5326.4</v>
       </c>
-      <c r="EF15" s="5">
+      <c r="EG15" s="5">
         <v>4531.4</v>
       </c>
-      <c r="EG15" s="5">
+      <c r="EH15" s="5">
         <v>4541.9</v>
       </c>
-      <c r="EH15" s="6">
+      <c r="EI15" s="6">
         <v>4882</v>
       </c>
-      <c r="EI15" s="5">
+      <c r="EJ15" s="5">
         <v>4720.4</v>
       </c>
-      <c r="EJ15" s="6">
+      <c r="EK15" s="6">
         <v>4334</v>
       </c>
-      <c r="EK15" s="5">
+      <c r="EL15" s="5">
         <v>4579.8</v>
       </c>
-      <c r="EL15" s="5">
+      <c r="EM15" s="5">
         <v>4507.3</v>
       </c>
-      <c r="EM15" s="5">
+      <c r="EN15" s="5">
         <v>4808.7</v>
       </c>
-      <c r="EN15" s="5">
+      <c r="EO15" s="5">
         <v>4257.2</v>
       </c>
-      <c r="EO15" s="5">
+      <c r="EP15" s="5">
         <v>4834.1</v>
       </c>
-      <c r="EP15" s="5">
+      <c r="EQ15" s="5">
         <v>4977.3</v>
       </c>
-      <c r="EQ15" s="5">
+      <c r="ER15" s="5">
         <v>5105.5</v>
       </c>
-      <c r="ER15" s="5">
+      <c r="ES15" s="5">
         <v>4854.5</v>
       </c>
-      <c r="ES15" s="5">
+      <c r="ET15" s="5">
         <v>6052.2</v>
       </c>
-      <c r="ET15" s="5">
+      <c r="EU15" s="5">
         <v>6185.4</v>
       </c>
-      <c r="EU15" s="5">
+      <c r="EV15" s="5">
         <v>5627.3</v>
       </c>
-      <c r="EV15" s="5">
+      <c r="EW15" s="5">
         <v>6005.8</v>
       </c>
-      <c r="EW15" s="5">
+      <c r="EX15" s="5">
         <v>5958.3</v>
       </c>
-      <c r="EX15" s="5">
+      <c r="EY15" s="5">
         <v>5584.3</v>
       </c>
-      <c r="EY15" s="5">
+      <c r="EZ15" s="5">
         <v>5528.7</v>
       </c>
-      <c r="EZ15" s="5">
+      <c r="FA15" s="5">
         <v>5737.6</v>
       </c>
-      <c r="FA15" s="5">
+      <c r="FB15" s="5">
         <v>4804.5</v>
       </c>
-      <c r="FB15" s="5">
+      <c r="FC15" s="5">
         <v>4960.1</v>
       </c>
-      <c r="FC15" s="5">
+      <c r="FD15" s="5">
         <v>5087.2</v>
       </c>
-      <c r="FD15" s="5">
+      <c r="FE15" s="5">
         <v>4707.2</v>
       </c>
-      <c r="FE15" s="5">
+      <c r="FF15" s="5">
         <v>4751.6</v>
       </c>
-      <c r="FF15" s="5">
+      <c r="FG15" s="5">
         <v>4665.1</v>
       </c>
-      <c r="FG15" s="6">
+      <c r="FH15" s="6">
         <v>4171</v>
       </c>
-      <c r="FH15" s="5">
+      <c r="FI15" s="5">
         <v>3828.2</v>
       </c>
-      <c r="FI15" s="6">
+      <c r="FJ15" s="6">
         <v>3452</v>
       </c>
-      <c r="FJ15" s="5">
+      <c r="FK15" s="5">
         <v>3593.3</v>
       </c>
-      <c r="FK15" s="5">
+      <c r="FL15" s="5">
         <v>3512.9</v>
       </c>
-      <c r="FL15" s="6">
+      <c r="FM15" s="6">
         <v>3570</v>
       </c>
-      <c r="FM15" s="5">
+      <c r="FN15" s="5">
         <v>3205.9</v>
       </c>
-      <c r="FN15" s="5">
+      <c r="FO15" s="5">
         <v>3184.2</v>
       </c>
-      <c r="FO15" s="5">
+      <c r="FP15" s="5">
         <v>3233.3</v>
       </c>
-      <c r="FP15" s="5">
+      <c r="FQ15" s="5">
         <v>2767.6</v>
       </c>
-      <c r="FQ15" s="5">
+      <c r="FR15" s="5">
         <v>2319.6</v>
       </c>
-      <c r="FR15" s="5">
+      <c r="FS15" s="5">
         <v>2831.7</v>
       </c>
-      <c r="FS15" s="5">
+      <c r="FT15" s="5">
         <v>2374.1</v>
       </c>
-      <c r="FT15" s="5">
+      <c r="FU15" s="5">
         <v>2429.3</v>
       </c>
-      <c r="FU15" s="5">
+      <c r="FV15" s="5">
         <v>2509.6</v>
       </c>
-      <c r="FV15" s="5">
+      <c r="FW15" s="5">
         <v>2405.3</v>
       </c>
-      <c r="FW15" s="6">
+      <c r="FX15" s="6">
         <v>2381</v>
       </c>
-      <c r="FX15" s="5">
+      <c r="FY15" s="5">
         <v>2211.6</v>
       </c>
-      <c r="FY15" s="6">
+      <c r="FZ15" s="6">
         <v>1987</v>
       </c>
-      <c r="FZ15" s="5">
+      <c r="GA15" s="5">
         <v>1987.2</v>
       </c>
-      <c r="GA15" s="5">
+      <c r="GB15" s="5">
         <v>2322.4</v>
       </c>
-      <c r="GB15" s="5">
+      <c r="GC15" s="5">
         <v>2247.5</v>
       </c>
-      <c r="GC15" s="5">
+      <c r="GD15" s="5">
         <v>2304.5</v>
       </c>
-      <c r="GD15" s="5">
+      <c r="GE15" s="5">
         <v>2121.8</v>
       </c>
-      <c r="GE15" s="5">
+      <c r="GF15" s="5">
         <v>1992.9</v>
       </c>
-      <c r="GF15" s="5">
+      <c r="GG15" s="5">
         <v>2139.7</v>
       </c>
-      <c r="GG15" s="5">
+      <c r="GH15" s="5">
         <v>2170.8</v>
       </c>
     </row>
-    <row r="16" spans="1:189" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1184.6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1519</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1265.5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1143.3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1208.5</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1526.1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1599.1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1519.8</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1311.1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>2376.9</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1578.3</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1818.4</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1911.3</v>
+      </c>
+      <c r="O16" s="6">
+        <v>3332</v>
+      </c>
+      <c r="P16" s="5">
+        <v>3194.7</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>2024.1</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1416.9</v>
+      </c>
+      <c r="S16" s="5">
+        <v>3493.1</v>
+      </c>
+      <c r="T16" s="5">
+        <v>2039.4</v>
+      </c>
+      <c r="U16" s="5">
+        <v>1771.9</v>
+      </c>
+      <c r="V16" s="5">
+        <v>1240.1</v>
+      </c>
+      <c r="W16" s="5">
+        <v>3124.1</v>
+      </c>
+      <c r="X16" s="5">
+        <v>-690.6</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>-1603</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>866.1</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>-3596.2</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>-191.8</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>1152.6</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>-5279.2</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>-445.9</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>-1021.6</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>3483.7</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>2335.7</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>1584.5</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>1657.2</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>2865.5</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>1889.4</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>2632.8</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>925.6</v>
+      </c>
+      <c r="AO16" s="5">
+        <v>5685.2</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>-373.8</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>1639.9</v>
+      </c>
+      <c r="AR16" s="5">
+        <v>-1186.3</v>
+      </c>
+      <c r="AS16" s="5">
+        <v>4144.4</v>
+      </c>
+      <c r="AT16" s="5">
+        <v>-412.4</v>
+      </c>
+      <c r="AU16" s="5">
+        <v>-1433.4</v>
+      </c>
+      <c r="AV16" s="5">
+        <v>-425.3</v>
+      </c>
+      <c r="AW16" s="5">
+        <v>5885.8</v>
+      </c>
+      <c r="AX16" s="5">
+        <v>1993.1</v>
+      </c>
+      <c r="AY16" s="5">
+        <v>-148.7</v>
+      </c>
+      <c r="AZ16" s="5">
+        <v>1019.1</v>
+      </c>
+      <c r="BA16" s="5">
+        <v>-779.4</v>
+      </c>
+      <c r="BB16" s="5">
+        <v>-4222.5</v>
+      </c>
+      <c r="BC16" s="5">
+        <v>4366.5</v>
+      </c>
+      <c r="BD16" s="6">
+        <v>1397</v>
+      </c>
+      <c r="BE16" s="5">
+        <v>2860.6</v>
+      </c>
+      <c r="BF16" s="5">
+        <v>-2845.1</v>
+      </c>
+      <c r="BG16" s="5">
+        <v>2248.1</v>
+      </c>
+      <c r="BH16" s="5">
+        <v>-1414.8</v>
+      </c>
+      <c r="BI16" s="5">
+        <v>935.2</v>
+      </c>
+      <c r="BJ16" s="5">
+        <v>-5379.5</v>
+      </c>
+      <c r="BK16" s="5">
+        <v>-1354.7</v>
+      </c>
+      <c r="BL16" s="5">
+        <v>1301.6</v>
+      </c>
+      <c r="BM16" s="6">
+        <v>1861</v>
+      </c>
+      <c r="BN16" s="5">
+        <v>-3267.7</v>
+      </c>
+      <c r="BO16" s="5">
+        <v>-1649.6</v>
+      </c>
+      <c r="BP16" s="5">
+        <v>-1155.2</v>
+      </c>
+      <c r="BQ16" s="5">
+        <v>1102.4</v>
+      </c>
+      <c r="BR16" s="5">
+        <v>-1605.6</v>
+      </c>
+      <c r="BS16" s="6">
+        <v>467</v>
+      </c>
+      <c r="BT16" s="5">
+        <v>-1117.6</v>
+      </c>
+      <c r="BU16" s="6">
+        <v>169</v>
+      </c>
+      <c r="BV16" s="5">
+        <v>-1529.7</v>
+      </c>
+      <c r="BW16" s="5">
+        <v>-1493.1</v>
+      </c>
+      <c r="BX16" s="5">
+        <v>-3031.7</v>
+      </c>
+      <c r="BY16" s="5">
+        <v>-1247.6</v>
+      </c>
+      <c r="BZ16" s="5">
+        <v>-3722.9</v>
+      </c>
+      <c r="CA16" s="5">
+        <v>-768.9</v>
+      </c>
+      <c r="CB16" s="5">
+        <v>-1072.4</v>
+      </c>
+      <c r="CC16" s="5">
+        <v>1496.4</v>
+      </c>
+      <c r="CD16" s="5">
+        <v>-1743.1</v>
+      </c>
+      <c r="CE16" s="5">
+        <v>-1568.9</v>
+      </c>
+      <c r="CF16" s="5">
+        <v>-1035.5</v>
+      </c>
+      <c r="CG16" s="5">
+        <v>223.9</v>
+      </c>
+      <c r="CH16" s="5">
+        <v>-1586.6</v>
+      </c>
+      <c r="CI16" s="5">
+        <v>2214.8</v>
+      </c>
+      <c r="CJ16" s="5">
+        <v>786.4</v>
+      </c>
+      <c r="CK16" s="5">
+        <v>1913.1</v>
+      </c>
+      <c r="CL16" s="5">
+        <v>-1444.5</v>
+      </c>
+      <c r="CM16" s="5">
+        <v>-24.4</v>
+      </c>
+      <c r="CN16" s="5">
+        <v>-67.8</v>
+      </c>
+      <c r="CO16" s="5">
+        <v>-25.3</v>
+      </c>
+      <c r="CP16" s="5">
+        <v>-2405.8</v>
+      </c>
+      <c r="CQ16" s="5">
+        <v>-2431.8</v>
+      </c>
+      <c r="CR16" s="5">
+        <v>-2769.7</v>
+      </c>
+      <c r="CS16" s="5">
+        <v>-925.1</v>
+      </c>
+      <c r="CT16" s="5">
+        <v>-1749.8</v>
+      </c>
+      <c r="CU16" s="5">
+        <v>-385.4</v>
+      </c>
+      <c r="CV16" s="6">
+        <v>47</v>
+      </c>
+      <c r="CW16" s="5">
+        <v>482.2</v>
+      </c>
+      <c r="CX16" s="5">
+        <v>-483.6</v>
+      </c>
+      <c r="CY16" s="6">
+        <v>-638</v>
+      </c>
+      <c r="CZ16" s="5">
+        <v>-1899.4</v>
+      </c>
+      <c r="DA16" s="5">
+        <v>-101.5</v>
+      </c>
+      <c r="DB16" s="5">
+        <v>-630.9</v>
+      </c>
+      <c r="DC16" s="6">
         <v>202</v>
       </c>
-      <c r="B16" s="6">
-        <v>1519</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1265.5</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1143.3</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1208.5</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1526.1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1599.1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1519.8</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1311.1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>2376.9</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1578.3</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1818.4</v>
-      </c>
-      <c r="M16" s="5">
-        <v>1911.3</v>
-      </c>
-      <c r="N16" s="6">
-        <v>3332</v>
-      </c>
-      <c r="O16" s="5">
-        <v>3194.7</v>
-      </c>
-      <c r="P16" s="5">
-        <v>2024.1</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>1416.9</v>
-      </c>
-      <c r="R16" s="5">
-        <v>3493.1</v>
-      </c>
-      <c r="S16" s="5">
-        <v>2039.4</v>
-      </c>
-      <c r="T16" s="5">
-        <v>1771.9</v>
-      </c>
-      <c r="U16" s="5">
-        <v>1240.1</v>
-      </c>
-      <c r="V16" s="5">
+      <c r="DD16" s="5">
+        <v>462.4</v>
+      </c>
+      <c r="DE16" s="6">
+        <v>1186</v>
+      </c>
+      <c r="DF16" s="5">
+        <v>-1163.2</v>
+      </c>
+      <c r="DG16" s="5">
+        <v>-945.3</v>
+      </c>
+      <c r="DH16" s="5">
+        <v>-755.1</v>
+      </c>
+      <c r="DI16" s="5">
+        <v>203.5</v>
+      </c>
+      <c r="DJ16" s="5">
+        <v>1118.8</v>
+      </c>
+      <c r="DK16" s="5">
+        <v>595.9</v>
+      </c>
+      <c r="DL16" s="5">
+        <v>153.2</v>
+      </c>
+      <c r="DM16" s="5">
+        <v>1333.7</v>
+      </c>
+      <c r="DN16" s="5">
+        <v>-30.1</v>
+      </c>
+      <c r="DO16" s="5">
+        <v>664.3</v>
+      </c>
+      <c r="DP16" s="6">
+        <v>-359</v>
+      </c>
+      <c r="DQ16" s="5">
+        <v>648.4</v>
+      </c>
+      <c r="DR16" s="5">
+        <v>-754.7</v>
+      </c>
+      <c r="DS16" s="5">
+        <v>-385.7</v>
+      </c>
+      <c r="DT16" s="5">
+        <v>165.6</v>
+      </c>
+      <c r="DU16" s="5">
+        <v>333.6</v>
+      </c>
+      <c r="DV16" s="5">
+        <v>472.7</v>
+      </c>
+      <c r="DW16" s="5">
+        <v>369.1</v>
+      </c>
+      <c r="DX16" s="5">
+        <v>-60.1</v>
+      </c>
+      <c r="DY16" s="5">
+        <v>1531.9</v>
+      </c>
+      <c r="DZ16" s="5">
+        <v>672.7</v>
+      </c>
+      <c r="EA16" s="6">
+        <v>-472</v>
+      </c>
+      <c r="EB16" s="5">
+        <v>482.6</v>
+      </c>
+      <c r="EC16" s="5">
+        <v>1268.4</v>
+      </c>
+      <c r="ED16" s="5">
+        <v>-20.1</v>
+      </c>
+      <c r="EE16" s="5">
+        <v>-31.3</v>
+      </c>
+      <c r="EF16" s="6">
+        <v>650</v>
+      </c>
+      <c r="EG16" s="5">
+        <v>846.7</v>
+      </c>
+      <c r="EH16" s="6">
+        <v>4</v>
+      </c>
+      <c r="EI16" s="6">
+        <v>524</v>
+      </c>
+      <c r="EJ16" s="5">
+        <v>563.9</v>
+      </c>
+      <c r="EK16" s="5">
+        <v>700.1</v>
+      </c>
+      <c r="EL16" s="5">
+        <v>481.2</v>
+      </c>
+      <c r="EM16" s="5">
+        <v>448.4</v>
+      </c>
+      <c r="EN16" s="5">
+        <v>-65.2</v>
+      </c>
+      <c r="EO16" s="5">
+        <v>57.4</v>
+      </c>
+      <c r="EP16" s="5">
+        <v>155.5</v>
+      </c>
+      <c r="EQ16" s="5">
+        <v>-104.2</v>
+      </c>
+      <c r="ER16" s="5">
+        <v>287.6</v>
+      </c>
+      <c r="ES16" s="5">
+        <v>153.3</v>
+      </c>
+      <c r="ET16" s="5">
+        <v>-184.9</v>
+      </c>
+      <c r="EU16" s="5">
+        <v>329.1</v>
+      </c>
+      <c r="EV16" s="5">
+        <v>21.9</v>
+      </c>
+      <c r="EW16" s="5">
+        <v>181.7</v>
+      </c>
+      <c r="EX16" s="5">
+        <v>-252.9</v>
+      </c>
+      <c r="EY16" s="5">
+        <v>294.3</v>
+      </c>
+      <c r="EZ16" s="5">
+        <v>-88.7</v>
+      </c>
+      <c r="FA16" s="5">
+        <v>-23.2</v>
+      </c>
+      <c r="FB16" s="5">
+        <v>-4.9</v>
+      </c>
+      <c r="FC16" s="5">
+        <v>-96.9</v>
+      </c>
+      <c r="FD16" s="5">
+        <v>66.6</v>
+      </c>
+      <c r="FE16" s="5">
+        <v>-166.3</v>
+      </c>
+      <c r="FF16" s="5">
+        <v>369.5</v>
+      </c>
+      <c r="FG16" s="6">
+        <v>-366</v>
+      </c>
+      <c r="FH16" s="5">
+        <v>202.5</v>
+      </c>
+      <c r="FI16" s="5">
+        <v>505.1</v>
+      </c>
+      <c r="FJ16" s="5">
+        <v>535.9</v>
+      </c>
+      <c r="FK16" s="5">
+        <v>337.2</v>
+      </c>
+      <c r="FL16" s="5">
+        <v>749.7</v>
+      </c>
+      <c r="FM16" s="5">
+        <v>348.4</v>
+      </c>
+      <c r="FN16" s="5">
+        <v>385.3</v>
+      </c>
+      <c r="FO16" s="5">
+        <v>148.4</v>
+      </c>
+      <c r="FP16" s="5">
+        <v>436.1</v>
+      </c>
+      <c r="FQ16" s="5">
+        <v>677.9</v>
+      </c>
+      <c r="FR16" s="5">
+        <v>654.9</v>
+      </c>
+      <c r="FS16" s="5">
+        <v>554.3</v>
+      </c>
+      <c r="FT16" s="5">
+        <v>474.3</v>
+      </c>
+      <c r="FU16" s="5">
+        <v>240.3</v>
+      </c>
+      <c r="FV16" s="5">
+        <v>-150.9</v>
+      </c>
+      <c r="FW16" s="5">
+        <v>159.2</v>
+      </c>
+      <c r="FX16" s="5">
+        <v>254.9</v>
+      </c>
+      <c r="FY16" s="5">
+        <v>-90.5</v>
+      </c>
+      <c r="FZ16" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="GA16" s="5">
+        <v>188.8</v>
+      </c>
+      <c r="GB16" s="5">
+        <v>290.9</v>
+      </c>
+      <c r="GC16" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="GD16" s="5">
+        <v>112.3</v>
+      </c>
+      <c r="GE16" s="5">
+        <v>-70.2</v>
+      </c>
+      <c r="GF16" s="5">
+        <v>237.1</v>
+      </c>
+      <c r="GG16" s="5">
+        <v>90.9</v>
+      </c>
+      <c r="GH16" s="5">
+        <v>221.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="6">
+        <v>36243</v>
+      </c>
+      <c r="C17" s="5">
+        <v>37110.8</v>
+      </c>
+      <c r="D17" s="5">
+        <v>38846.9</v>
+      </c>
+      <c r="E17" s="5">
+        <v>40499.6</v>
+      </c>
+      <c r="F17" s="5">
+        <v>34933.3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>38284.6</v>
+      </c>
+      <c r="H17" s="5">
+        <v>39544.5</v>
+      </c>
+      <c r="I17" s="5">
+        <v>38606.5</v>
+      </c>
+      <c r="J17" s="5">
+        <v>30585.1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>33653.5</v>
+      </c>
+      <c r="L17" s="5">
+        <v>34992.7</v>
+      </c>
+      <c r="M17" s="6">
+        <v>33232</v>
+      </c>
+      <c r="N17" s="6">
+        <v>30326</v>
+      </c>
+      <c r="O17" s="5">
+        <v>32660.7</v>
+      </c>
+      <c r="P17" s="5">
+        <v>35092.7</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>33440.4</v>
+      </c>
+      <c r="R17" s="5">
+        <v>28790.9</v>
+      </c>
+      <c r="S17" s="5">
+        <v>29385.1</v>
+      </c>
+      <c r="T17" s="5">
+        <v>31110.7</v>
+      </c>
+      <c r="U17" s="5">
+        <v>29494.9</v>
+      </c>
+      <c r="V17" s="5">
+        <v>28612.1</v>
+      </c>
+      <c r="W17" s="5">
+        <v>26892.6</v>
+      </c>
+      <c r="X17" s="5">
+        <v>33577.2</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>29934.6</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>24201.1</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>30364.6</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>27128.6</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>27719.7</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>30378.1</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>26507.4</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>29470.5</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>24223.9</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>20562.7</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>25400.6</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>22825.5</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>24299.6</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>19770.6</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>22499.6</v>
+      </c>
+      <c r="AN17" s="5">
+        <v>22978.8</v>
+      </c>
+      <c r="AO17" s="5">
+        <v>21270.5</v>
+      </c>
+      <c r="AP17" s="5">
+        <v>22193.6</v>
+      </c>
+      <c r="AQ17" s="6">
+        <v>22327</v>
+      </c>
+      <c r="AR17" s="5">
+        <v>25790.6</v>
+      </c>
+      <c r="AS17" s="5">
+        <v>21915.6</v>
+      </c>
+      <c r="AT17" s="5">
+        <v>24123.4</v>
+      </c>
+      <c r="AU17" s="5">
+        <v>23214.5</v>
+      </c>
+      <c r="AV17" s="5">
+        <v>21623.8</v>
+      </c>
+      <c r="AW17" s="5">
+        <v>17845.5</v>
+      </c>
+      <c r="AX17" s="5">
+        <v>15049.8</v>
+      </c>
+      <c r="AY17" s="5">
+        <v>15086.5</v>
+      </c>
+      <c r="AZ17" s="5">
+        <v>16415.5</v>
+      </c>
+      <c r="BA17" s="5">
+        <v>15697.6</v>
+      </c>
+      <c r="BB17" s="5">
+        <v>13158.1</v>
+      </c>
+      <c r="BC17" s="5">
+        <v>7905.1</v>
+      </c>
+      <c r="BD17" s="5">
+        <v>15045.1</v>
+      </c>
+      <c r="BE17" s="5">
+        <v>11657.1</v>
+      </c>
+      <c r="BF17" s="5">
+        <v>15725.9</v>
+      </c>
+      <c r="BG17" s="5">
+        <v>13787.9</v>
+      </c>
+      <c r="BH17" s="5">
+        <v>22054.9</v>
+      </c>
+      <c r="BI17" s="6">
+        <v>16997</v>
+      </c>
+      <c r="BJ17" s="5">
+        <v>18931.3</v>
+      </c>
+      <c r="BK17" s="5">
+        <v>17487.6</v>
+      </c>
+      <c r="BL17" s="5">
+        <v>15364.2</v>
+      </c>
+      <c r="BM17" s="5">
+        <v>14387.1</v>
+      </c>
+      <c r="BN17" s="5">
+        <v>14751.1</v>
+      </c>
+      <c r="BO17" s="5">
+        <v>16196.5</v>
+      </c>
+      <c r="BP17" s="6">
+        <v>15421</v>
+      </c>
+      <c r="BQ17" s="5">
+        <v>12186.6</v>
+      </c>
+      <c r="BR17" s="5">
+        <v>9831.1</v>
+      </c>
+      <c r="BS17" s="5">
+        <v>11652.2</v>
+      </c>
+      <c r="BT17" s="5">
+        <v>12394.9</v>
+      </c>
+      <c r="BU17" s="5">
+        <v>10211.9</v>
+      </c>
+      <c r="BV17" s="5">
+        <v>9664.3</v>
+      </c>
+      <c r="BW17" s="5">
+        <v>10988.2</v>
+      </c>
+      <c r="BX17" s="5">
+        <v>12391.8</v>
+      </c>
+      <c r="BY17" s="5">
+        <v>9456.6</v>
+      </c>
+      <c r="BZ17" s="6">
+        <v>11427</v>
+      </c>
+      <c r="CA17" s="5">
+        <v>8708.4</v>
+      </c>
+      <c r="CB17" s="5">
+        <v>8735.1</v>
+      </c>
+      <c r="CC17" s="5">
+        <v>5779.7</v>
+      </c>
+      <c r="CD17" s="6">
+        <v>6838</v>
+      </c>
+      <c r="CE17" s="5">
+        <v>7562.2</v>
+      </c>
+      <c r="CF17" s="5">
+        <v>5501.1</v>
+      </c>
+      <c r="CG17" s="5">
+        <v>5433.2</v>
+      </c>
+      <c r="CH17" s="5">
+        <v>5406.5</v>
+      </c>
+      <c r="CI17" s="5">
+        <v>3152.6</v>
+      </c>
+      <c r="CJ17" s="6">
+        <v>5044</v>
+      </c>
+      <c r="CK17" s="5">
+        <v>4156.7</v>
+      </c>
+      <c r="CL17" s="5">
+        <v>3989.9</v>
+      </c>
+      <c r="CM17" s="5">
+        <v>6355.8</v>
+      </c>
+      <c r="CN17" s="6">
+        <v>6241</v>
+      </c>
+      <c r="CO17" s="6">
+        <v>6213</v>
+      </c>
+      <c r="CP17" s="5">
+        <v>6111.9</v>
+      </c>
+      <c r="CQ17" s="5">
+        <v>8293.8</v>
+      </c>
+      <c r="CR17" s="5">
+        <v>7763.8</v>
+      </c>
+      <c r="CS17" s="5">
+        <v>5967.6</v>
+      </c>
+      <c r="CT17" s="5">
+        <v>3564.3</v>
+      </c>
+      <c r="CU17" s="5">
+        <v>4101.9</v>
+      </c>
+      <c r="CV17" s="5">
+        <v>4650.9</v>
+      </c>
+      <c r="CW17" s="5">
+        <v>5377.7</v>
+      </c>
+      <c r="CX17" s="5">
+        <v>3662.4</v>
+      </c>
+      <c r="CY17" s="5">
+        <v>4066.9</v>
+      </c>
+      <c r="CZ17" s="5">
+        <v>6204.3</v>
+      </c>
+      <c r="DA17" s="5">
+        <v>4125.9</v>
+      </c>
+      <c r="DB17" s="5">
+        <v>3481.5</v>
+      </c>
+      <c r="DC17" s="6">
+        <v>3593</v>
+      </c>
+      <c r="DD17" s="5">
+        <v>5064.1</v>
+      </c>
+      <c r="DE17" s="5">
+        <v>4047.9</v>
+      </c>
+      <c r="DF17" s="5">
+        <v>4730.8</v>
+      </c>
+      <c r="DG17" s="5">
+        <v>4853.7</v>
+      </c>
+      <c r="DH17" s="5">
+        <v>5146.8</v>
+      </c>
+      <c r="DI17" s="5">
+        <v>4259.9</v>
+      </c>
+      <c r="DJ17" s="5">
+        <v>2269.6</v>
+      </c>
+      <c r="DK17" s="5">
+        <v>3322.9</v>
+      </c>
+      <c r="DL17" s="5">
+        <v>3546.1</v>
+      </c>
+      <c r="DM17" s="5">
+        <v>3066.5</v>
+      </c>
+      <c r="DN17" s="5">
+        <v>1932.6</v>
+      </c>
+      <c r="DO17" s="5">
+        <v>2878.1</v>
+      </c>
+      <c r="DP17" s="5">
+        <v>3357.4</v>
+      </c>
+      <c r="DQ17" s="5">
+        <v>2933.2</v>
+      </c>
+      <c r="DR17" s="6">
+        <v>2356</v>
+      </c>
+      <c r="DS17" s="5">
+        <v>3496.9</v>
+      </c>
+      <c r="DT17" s="5">
+        <v>3034.1</v>
+      </c>
+      <c r="DU17" s="5">
+        <v>2667.3</v>
+      </c>
+      <c r="DV17" s="5">
+        <v>1750.1</v>
+      </c>
+      <c r="DW17" s="5">
+        <v>2726.7</v>
+      </c>
+      <c r="DX17" s="5">
+        <v>2817.2</v>
+      </c>
+      <c r="DY17" s="5">
+        <v>1886.1</v>
+      </c>
+      <c r="DZ17" s="5">
+        <v>1497.9</v>
+      </c>
+      <c r="EA17" s="5">
+        <v>2598.8</v>
+      </c>
+      <c r="EB17" s="6">
+        <v>2571</v>
+      </c>
+      <c r="EC17" s="5">
+        <v>2212.4</v>
+      </c>
+      <c r="ED17" s="5">
+        <v>1489.1</v>
+      </c>
+      <c r="EE17" s="5">
+        <v>2501.7</v>
+      </c>
+      <c r="EF17" s="6">
+        <v>1770</v>
+      </c>
+      <c r="EG17" s="5">
+        <v>1925.5</v>
+      </c>
+      <c r="EH17" s="5">
+        <v>1690.7</v>
+      </c>
+      <c r="EI17" s="5">
+        <v>1309.1</v>
+      </c>
+      <c r="EJ17" s="5">
+        <v>1414.2</v>
+      </c>
+      <c r="EK17" s="5">
+        <v>1541.9</v>
+      </c>
+      <c r="EL17" s="5">
+        <v>500.6</v>
+      </c>
+      <c r="EM17" s="6">
+        <v>1138</v>
+      </c>
+      <c r="EN17" s="5">
+        <v>1386.9</v>
+      </c>
+      <c r="EO17" s="5">
+        <v>1260.9</v>
+      </c>
+      <c r="EP17" s="5">
+        <v>27.2</v>
+      </c>
+      <c r="EQ17" s="5">
+        <v>880.1</v>
+      </c>
+      <c r="ER17" s="5">
+        <v>472.3</v>
+      </c>
+      <c r="ES17" s="5">
+        <v>977.8</v>
+      </c>
+      <c r="ET17" s="5">
+        <v>279.4</v>
+      </c>
+      <c r="EU17" s="5">
+        <v>397.6</v>
+      </c>
+      <c r="EV17" s="5">
+        <v>1029.9</v>
+      </c>
+      <c r="EW17" s="5">
+        <v>626.8</v>
+      </c>
+      <c r="EX17" s="6">
+        <v>286</v>
+      </c>
+      <c r="EY17" s="5">
+        <v>699.7</v>
+      </c>
+      <c r="EZ17" s="5">
+        <v>786.3</v>
+      </c>
+      <c r="FA17" s="5">
+        <v>210.3</v>
+      </c>
+      <c r="FB17" s="6">
+        <v>242</v>
+      </c>
+      <c r="FC17" s="5">
+        <v>525.9</v>
+      </c>
+      <c r="FD17" s="5">
+        <v>430.4</v>
+      </c>
+      <c r="FE17" s="5">
+        <v>706.2</v>
+      </c>
+      <c r="FF17" s="5">
+        <v>-113.3</v>
+      </c>
+      <c r="FG17" s="5">
+        <v>778.8</v>
+      </c>
+      <c r="FH17" s="5">
+        <v>532.3</v>
+      </c>
+      <c r="FI17" s="5">
+        <v>367.9</v>
+      </c>
+      <c r="FJ17" s="5">
+        <v>249.6</v>
+      </c>
+      <c r="FK17" s="5">
+        <v>551.5</v>
+      </c>
+      <c r="FL17" s="6">
+        <v>345</v>
+      </c>
+      <c r="FM17" s="5">
+        <v>112.4</v>
+      </c>
+      <c r="FN17" s="6">
+        <v>297</v>
+      </c>
+      <c r="FO17" s="5">
+        <v>638.9</v>
+      </c>
+      <c r="FP17" s="6">
+        <v>125</v>
+      </c>
+      <c r="FQ17" s="5">
+        <v>199.2</v>
+      </c>
+      <c r="FR17" s="5">
+        <v>-56.3</v>
+      </c>
+      <c r="FS17" s="5">
+        <v>-13.6</v>
+      </c>
+      <c r="FT17" s="5">
+        <v>276.2</v>
+      </c>
+      <c r="FU17" s="5">
+        <v>193.2</v>
+      </c>
+      <c r="FV17" s="5">
+        <v>58.8</v>
+      </c>
+      <c r="FW17" s="5">
+        <v>102.6</v>
+      </c>
+      <c r="FX17" s="6">
+        <v>94</v>
+      </c>
+      <c r="FY17" s="5">
+        <v>315.8</v>
+      </c>
+      <c r="FZ17" s="6">
+        <v>248</v>
+      </c>
+      <c r="GA17" s="5">
+        <v>280.9</v>
+      </c>
+      <c r="GB17" s="6">
+        <v>-93</v>
+      </c>
+      <c r="GC17" s="5">
+        <v>24.2</v>
+      </c>
+      <c r="GD17" s="5">
+        <v>-332.8</v>
+      </c>
+      <c r="GE17" s="5">
+        <v>138.1</v>
+      </c>
+      <c r="GF17" s="5">
+        <v>-140.9</v>
+      </c>
+      <c r="GG17" s="5">
+        <v>-128.2</v>
+      </c>
+      <c r="GH17" s="5">
+        <v>-377.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="5">
+        <v>235574.3</v>
+      </c>
+      <c r="C18" s="5">
+        <v>241753.7</v>
+      </c>
+      <c r="D18" s="5">
+        <v>231557.4</v>
+      </c>
+      <c r="E18" s="6">
+        <v>231483</v>
+      </c>
+      <c r="F18" s="5">
+        <v>227805.9</v>
+      </c>
+      <c r="G18" s="5">
+        <v>224140.4</v>
+      </c>
+      <c r="H18" s="5">
+        <v>216588.7</v>
+      </c>
+      <c r="I18" s="5">
+        <v>202757.4</v>
+      </c>
+      <c r="J18" s="5">
+        <v>229712.8</v>
+      </c>
+      <c r="K18" s="5">
+        <v>226006.9</v>
+      </c>
+      <c r="L18" s="6">
+        <v>219307</v>
+      </c>
+      <c r="M18" s="5">
+        <v>218303.5</v>
+      </c>
+      <c r="N18" s="5">
+        <v>211748.2</v>
+      </c>
+      <c r="O18" s="5">
+        <v>217284.2</v>
+      </c>
+      <c r="P18" s="5">
+        <v>221834.6</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>220248.9</v>
+      </c>
+      <c r="R18" s="5">
+        <v>213340.9</v>
+      </c>
+      <c r="S18" s="5">
+        <v>210663.6</v>
+      </c>
+      <c r="T18" s="5">
+        <v>206938.5</v>
+      </c>
+      <c r="U18" s="6">
+        <v>200168</v>
+      </c>
+      <c r="V18" s="5">
+        <v>193597.2</v>
+      </c>
+      <c r="W18" s="5">
+        <v>194148.5</v>
+      </c>
+      <c r="X18" s="5">
+        <v>192467.5</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>189985.2</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>179025.6</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>192787.9</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>190980.8</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>186951.2</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>184639.2</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>184378.6</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>181589.8</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>181105.6</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>172537</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>177239.5</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>179292.3</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>177174.5</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>160765.1</v>
+      </c>
+      <c r="AM18" s="6">
+        <v>165318</v>
+      </c>
+      <c r="AN18" s="5">
+        <v>161070.5</v>
+      </c>
+      <c r="AO18" s="5">
+        <v>166097.9</v>
+      </c>
+      <c r="AP18" s="5">
+        <v>161812.2</v>
+      </c>
+      <c r="AQ18" s="5">
+        <v>162055.5</v>
+      </c>
+      <c r="AR18" s="5">
+        <v>166441.1</v>
+      </c>
+      <c r="AS18" s="5">
+        <v>159967.2</v>
+      </c>
+      <c r="AT18" s="5">
+        <v>156819.1</v>
+      </c>
+      <c r="AU18" s="5">
+        <v>154747.1</v>
+      </c>
+      <c r="AV18" s="5">
+        <v>156698.6</v>
+      </c>
+      <c r="AW18" s="5">
+        <v>149634.4</v>
+      </c>
+      <c r="AX18" s="5">
+        <v>138121.2</v>
+      </c>
+      <c r="AY18" s="5">
+        <v>136312.7</v>
+      </c>
+      <c r="AZ18" s="5">
+        <v>132690.8</v>
+      </c>
+      <c r="BA18" s="5">
+        <v>122826.8</v>
+      </c>
+      <c r="BB18" s="6">
+        <v>116883</v>
+      </c>
+      <c r="BC18" s="5">
+        <v>129183.5</v>
+      </c>
+      <c r="BD18" s="5">
+        <v>142369.5</v>
+      </c>
+      <c r="BE18" s="5">
+        <v>137525.1</v>
+      </c>
+      <c r="BF18" s="5">
+        <v>139127.2</v>
+      </c>
+      <c r="BG18" s="5">
+        <v>134041.5</v>
+      </c>
+      <c r="BH18" s="5">
+        <v>134431.9</v>
+      </c>
+      <c r="BI18" s="5">
+        <v>127269.6</v>
+      </c>
+      <c r="BJ18" s="5">
+        <v>125061.8</v>
+      </c>
+      <c r="BK18" s="5">
+        <v>125147.1</v>
+      </c>
+      <c r="BL18" s="5">
+        <v>123144.3</v>
+      </c>
+      <c r="BM18" s="5">
+        <v>117833.8</v>
+      </c>
+      <c r="BN18" s="5">
+        <v>113710.8</v>
+      </c>
+      <c r="BO18" s="5">
+        <v>117977.3</v>
+      </c>
+      <c r="BP18" s="5">
+        <v>111024.2</v>
+      </c>
+      <c r="BQ18" s="5">
+        <v>104478.7</v>
+      </c>
+      <c r="BR18" s="5">
+        <v>98982.5</v>
+      </c>
+      <c r="BS18" s="5">
+        <v>101322.2</v>
+      </c>
+      <c r="BT18" s="6">
+        <v>100423</v>
+      </c>
+      <c r="BU18" s="5">
+        <v>94423.4</v>
+      </c>
+      <c r="BV18" s="5">
+        <v>87288.8</v>
+      </c>
+      <c r="BW18" s="5">
+        <v>87047.7</v>
+      </c>
+      <c r="BX18" s="5">
+        <v>82970.1</v>
+      </c>
+      <c r="BY18" s="5">
+        <v>75618.7</v>
+      </c>
+      <c r="BZ18" s="5">
+        <v>75519.2</v>
+      </c>
+      <c r="CA18" s="5">
+        <v>74030.8</v>
+      </c>
+      <c r="CB18" s="6">
+        <v>73217</v>
+      </c>
+      <c r="CC18" s="5">
+        <v>70270.5</v>
+      </c>
+      <c r="CD18" s="5">
+        <v>64517.1</v>
+      </c>
+      <c r="CE18" s="5">
+        <v>66513.3</v>
+      </c>
+      <c r="CF18" s="5">
+        <v>63986.5</v>
+      </c>
+      <c r="CG18" s="5">
+        <v>64844.6</v>
+      </c>
+      <c r="CH18" s="5">
+        <v>67305.4</v>
+      </c>
+      <c r="CI18" s="5">
+        <v>73387.4</v>
+      </c>
+      <c r="CJ18" s="5">
+        <v>72289.5</v>
+      </c>
+      <c r="CK18" s="5">
+        <v>65961.1</v>
+      </c>
+      <c r="CL18" s="5">
+        <v>60935.5</v>
+      </c>
+      <c r="CM18" s="5">
+        <v>64964.3</v>
+      </c>
+      <c r="CN18" s="5">
+        <v>61658.4</v>
+      </c>
+      <c r="CO18" s="5">
+        <v>58967.6</v>
+      </c>
+      <c r="CP18" s="5">
+        <v>52822.6</v>
+      </c>
+      <c r="CQ18" s="5">
+        <v>55165.8</v>
+      </c>
+      <c r="CR18" s="5">
+        <v>56695.7</v>
+      </c>
+      <c r="CS18" s="5">
+        <v>54696.9</v>
+      </c>
+      <c r="CT18" s="5">
+        <v>54157.3</v>
+      </c>
+      <c r="CU18" s="5">
+        <v>60222.8</v>
+      </c>
+      <c r="CV18" s="5">
+        <v>60681.7</v>
+      </c>
+      <c r="CW18" s="5">
+        <v>57893.6</v>
+      </c>
+      <c r="CX18" s="5">
+        <v>52117.7</v>
+      </c>
+      <c r="CY18" s="5">
+        <v>54999.5</v>
+      </c>
+      <c r="CZ18" s="5">
+        <v>53313.8</v>
+      </c>
+      <c r="DA18" s="5">
+        <v>51241.8</v>
+      </c>
+      <c r="DB18" s="5">
+        <v>49928.3</v>
+      </c>
+      <c r="DC18" s="5">
+        <v>51476.2</v>
+      </c>
+      <c r="DD18" s="5">
+        <v>50428.8</v>
+      </c>
+      <c r="DE18" s="5">
+        <v>46501.6</v>
+      </c>
+      <c r="DF18" s="5">
+        <v>43171.8</v>
+      </c>
+      <c r="DG18" s="5">
+        <v>42861.7</v>
+      </c>
+      <c r="DH18" s="5">
+        <v>42641.3</v>
+      </c>
+      <c r="DI18" s="5">
+        <v>40128.3</v>
+      </c>
+      <c r="DJ18" s="5">
+        <v>32583.6</v>
+      </c>
+      <c r="DK18" s="5">
+        <v>35272.9</v>
+      </c>
+      <c r="DL18" s="5">
+        <v>35127.5</v>
+      </c>
+      <c r="DM18" s="5">
+        <v>33038.5</v>
+      </c>
+      <c r="DN18" s="5">
+        <v>30084.6</v>
+      </c>
+      <c r="DO18" s="5">
+        <v>31163.2</v>
+      </c>
+      <c r="DP18" s="5">
+        <v>29363.7</v>
+      </c>
+      <c r="DQ18" s="5">
+        <v>27231.7</v>
+      </c>
+      <c r="DR18" s="5">
+        <v>26386.9</v>
+      </c>
+      <c r="DS18" s="5">
+        <v>27074.3</v>
+      </c>
+      <c r="DT18" s="5">
+        <v>27441.7</v>
+      </c>
+      <c r="DU18" s="5">
+        <v>26764.7</v>
+      </c>
+      <c r="DV18" s="5">
+        <v>25156.1</v>
+      </c>
+      <c r="DW18" s="5">
+        <v>26493.3</v>
+      </c>
+      <c r="DX18" s="5">
+        <v>24497.3</v>
+      </c>
+      <c r="DY18" s="5">
+        <v>23879.7</v>
+      </c>
+      <c r="DZ18" s="5">
+        <v>23149.3</v>
+      </c>
+      <c r="EA18" s="5">
+        <v>23532.2</v>
+      </c>
+      <c r="EB18" s="5">
+        <v>22407.9</v>
+      </c>
+      <c r="EC18" s="5">
+        <v>21385.8</v>
+      </c>
+      <c r="ED18" s="5">
+        <v>19357.9</v>
+      </c>
+      <c r="EE18" s="5">
+        <v>22006.1</v>
+      </c>
+      <c r="EF18" s="5">
+        <v>20318.7</v>
+      </c>
+      <c r="EG18" s="5">
+        <v>19226.9</v>
+      </c>
+      <c r="EH18" s="5">
+        <v>17331.8</v>
+      </c>
+      <c r="EI18" s="5">
+        <v>17236.8</v>
+      </c>
+      <c r="EJ18" s="6">
+        <v>15940</v>
+      </c>
+      <c r="EK18" s="6">
+        <v>14836</v>
+      </c>
+      <c r="EL18" s="5">
+        <v>12805.6</v>
+      </c>
+      <c r="EM18" s="5">
+        <v>14064.6</v>
+      </c>
+      <c r="EN18" s="5">
+        <v>14252.4</v>
+      </c>
+      <c r="EO18" s="5">
+        <v>13669.6</v>
+      </c>
+      <c r="EP18" s="5">
+        <v>11298.7</v>
+      </c>
+      <c r="EQ18" s="5">
+        <v>12044.6</v>
+      </c>
+      <c r="ER18" s="5">
+        <v>11229.5</v>
+      </c>
+      <c r="ES18" s="5">
+        <v>12267.4</v>
+      </c>
+      <c r="ET18" s="5">
+        <v>11672.7</v>
+      </c>
+      <c r="EU18" s="5">
+        <v>12338.7</v>
+      </c>
+      <c r="EV18" s="5">
+        <v>12569.9</v>
+      </c>
+      <c r="EW18" s="5">
+        <v>12242.1</v>
+      </c>
+      <c r="EX18" s="5">
+        <v>11663.2</v>
+      </c>
+      <c r="EY18" s="5">
+        <v>11718.7</v>
+      </c>
+      <c r="EZ18" s="5">
+        <v>11571.2</v>
+      </c>
+      <c r="FA18" s="5">
+        <v>11268.7</v>
+      </c>
+      <c r="FB18" s="5">
+        <v>10380.6</v>
+      </c>
+      <c r="FC18" s="5">
+        <v>10828.1</v>
+      </c>
+      <c r="FD18" s="5">
+        <v>10632.7</v>
+      </c>
+      <c r="FE18" s="5">
+        <v>10893.1</v>
+      </c>
+      <c r="FF18" s="5">
+        <v>10187.3</v>
+      </c>
+      <c r="FG18" s="5">
+        <v>10602.2</v>
+      </c>
+      <c r="FH18" s="5">
+        <v>10470.6</v>
+      </c>
+      <c r="FI18" s="5">
+        <v>10008.2</v>
+      </c>
+      <c r="FJ18" s="5">
+        <v>9490.5</v>
+      </c>
+      <c r="FK18" s="5">
+        <v>9641.7</v>
+      </c>
+      <c r="FL18" s="5">
+        <v>9431.8</v>
+      </c>
+      <c r="FM18" s="5">
+        <v>8861.2</v>
+      </c>
+      <c r="FN18" s="5">
+        <v>8538.6</v>
+      </c>
+      <c r="FO18" s="5">
+        <v>8153.4</v>
+      </c>
+      <c r="FP18" s="5">
+        <v>7696.1</v>
+      </c>
+      <c r="FQ18" s="5">
+        <v>7240.5</v>
+      </c>
+      <c r="FR18" s="5">
+        <v>6809.1</v>
+      </c>
+      <c r="FS18" s="5">
+        <v>6471.5</v>
+      </c>
+      <c r="FT18" s="5">
+        <v>6314.4</v>
+      </c>
+      <c r="FU18" s="5">
+        <v>5917.7</v>
+      </c>
+      <c r="FV18" s="5">
+        <v>5519.5</v>
+      </c>
+      <c r="FW18" s="5">
+        <v>5705.8</v>
+      </c>
+      <c r="FX18" s="6">
+        <v>5539</v>
+      </c>
+      <c r="FY18" s="5">
+        <v>5324.1</v>
+      </c>
+      <c r="FZ18" s="5">
+        <v>5147.1</v>
+      </c>
+      <c r="GA18" s="5">
+        <v>5310.7</v>
+      </c>
+      <c r="GB18" s="5">
+        <v>4951.7</v>
+      </c>
+      <c r="GC18" s="5">
+        <v>4444.1</v>
+      </c>
+      <c r="GD18" s="5">
+        <v>4309.5</v>
+      </c>
+      <c r="GE18" s="6">
+        <v>4618</v>
+      </c>
+      <c r="GF18" s="5">
+        <v>4259.4</v>
+      </c>
+      <c r="GG18" s="5">
+        <v>4155.4</v>
+      </c>
+      <c r="GH18" s="5">
+        <v>3951.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="5">
+        <v>199331.3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>204642.9</v>
+      </c>
+      <c r="D19" s="5">
+        <v>192710.6</v>
+      </c>
+      <c r="E19" s="5">
+        <v>190983.4</v>
+      </c>
+      <c r="F19" s="5">
+        <v>192872.6</v>
+      </c>
+      <c r="G19" s="5">
+        <v>185855.8</v>
+      </c>
+      <c r="H19" s="5">
+        <v>177044.2</v>
+      </c>
+      <c r="I19" s="6">
+        <v>164151</v>
+      </c>
+      <c r="J19" s="5">
+        <v>199127.7</v>
+      </c>
+      <c r="K19" s="5">
+        <v>192353.4</v>
+      </c>
+      <c r="L19" s="5">
+        <v>184314.3</v>
+      </c>
+      <c r="M19" s="5">
+        <v>185071.5</v>
+      </c>
+      <c r="N19" s="5">
+        <v>181422.2</v>
+      </c>
+      <c r="O19" s="5">
+        <v>184623.6</v>
+      </c>
+      <c r="P19" s="5">
+        <v>186741.9</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>186808.5</v>
+      </c>
+      <c r="R19" s="6">
+        <v>184550</v>
+      </c>
+      <c r="S19" s="5">
+        <v>181278.4</v>
+      </c>
+      <c r="T19" s="5">
+        <v>175827.7</v>
+      </c>
+      <c r="U19" s="5">
+        <v>170673.1</v>
+      </c>
+      <c r="V19" s="6">
+        <v>164985</v>
+      </c>
+      <c r="W19" s="5">
+        <v>167255.9</v>
+      </c>
+      <c r="X19" s="5">
+        <v>158890.3</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>160050.6</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>154824.5</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>162423.3</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>163852.2</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>159231.5</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>154261.1</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>157871.3</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>152119.3</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>156881.6</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>151974.3</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>151839</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>156466.8</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>152874.9</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>140994.5</v>
+      </c>
+      <c r="AM19" s="5">
+        <v>142818.3</v>
+      </c>
+      <c r="AN19" s="5">
+        <v>138091.7</v>
+      </c>
+      <c r="AO19" s="5">
+        <v>144827.4</v>
+      </c>
+      <c r="AP19" s="5">
+        <v>139618.6</v>
+      </c>
+      <c r="AQ19" s="5">
+        <v>139728.5</v>
+      </c>
+      <c r="AR19" s="5">
+        <v>140650.5</v>
+      </c>
+      <c r="AS19" s="5">
+        <v>138051.6</v>
+      </c>
+      <c r="AT19" s="5">
+        <v>132695.7</v>
+      </c>
+      <c r="AU19" s="5">
+        <v>131532.6</v>
+      </c>
+      <c r="AV19" s="5">
+        <v>135074.8</v>
+      </c>
+      <c r="AW19" s="5">
+        <v>131788.9</v>
+      </c>
+      <c r="AX19" s="5">
+        <v>123071.4</v>
+      </c>
+      <c r="AY19" s="5">
+        <v>121226.2</v>
+      </c>
+      <c r="AZ19" s="5">
+        <v>116275.3</v>
+      </c>
+      <c r="BA19" s="5">
+        <v>107129.2</v>
+      </c>
+      <c r="BB19" s="5">
+        <v>103724.9</v>
+      </c>
+      <c r="BC19" s="5">
+        <v>121278.4</v>
+      </c>
+      <c r="BD19" s="5">
+        <v>127324.4</v>
+      </c>
+      <c r="BE19" s="5">
+        <v>125868.1</v>
+      </c>
+      <c r="BF19" s="5">
+        <v>123401.3</v>
+      </c>
+      <c r="BG19" s="5">
+        <v>120253.6</v>
+      </c>
+      <c r="BH19" s="6">
+        <v>112377</v>
+      </c>
+      <c r="BI19" s="5">
+        <v>110272.5</v>
+      </c>
+      <c r="BJ19" s="5">
+        <v>106130.6</v>
+      </c>
+      <c r="BK19" s="5">
+        <v>107659.5</v>
+      </c>
+      <c r="BL19" s="5">
+        <v>107780.1</v>
+      </c>
+      <c r="BM19" s="5">
+        <v>103446.6</v>
+      </c>
+      <c r="BN19" s="5">
+        <v>98959.7</v>
+      </c>
+      <c r="BO19" s="5">
+        <v>101780.8</v>
+      </c>
+      <c r="BP19" s="5">
+        <v>95603.3</v>
+      </c>
+      <c r="BQ19" s="5">
+        <v>92292.1</v>
+      </c>
+      <c r="BR19" s="5">
+        <v>89151.5</v>
+      </c>
+      <c r="BS19" s="5">
+        <v>89670.1</v>
+      </c>
+      <c r="BT19" s="5">
+        <v>88028.1</v>
+      </c>
+      <c r="BU19" s="5">
+        <v>84211.4</v>
+      </c>
+      <c r="BV19" s="5">
+        <v>77624.6</v>
+      </c>
+      <c r="BW19" s="5">
+        <v>76059.4</v>
+      </c>
+      <c r="BX19" s="5">
+        <v>70578.3</v>
+      </c>
+      <c r="BY19" s="5">
+        <v>66162.1</v>
+      </c>
+      <c r="BZ19" s="5">
+        <v>64092.3</v>
+      </c>
+      <c r="CA19" s="5">
+        <v>65322.4</v>
+      </c>
+      <c r="CB19" s="5">
+        <v>64481.9</v>
+      </c>
+      <c r="CC19" s="5">
+        <v>64490.8</v>
+      </c>
+      <c r="CD19" s="5">
+        <v>57679.1</v>
+      </c>
+      <c r="CE19" s="5">
+        <v>58951.1</v>
+      </c>
+      <c r="CF19" s="5">
+        <v>58485.4</v>
+      </c>
+      <c r="CG19" s="5">
+        <v>59411.5</v>
+      </c>
+      <c r="CH19" s="5">
+        <v>61898.9</v>
+      </c>
+      <c r="CI19" s="5">
+        <v>70234.8</v>
+      </c>
+      <c r="CJ19" s="5">
+        <v>67245.5</v>
+      </c>
+      <c r="CK19" s="5">
+        <v>61804.3</v>
+      </c>
+      <c r="CL19" s="5">
+        <v>56945.6</v>
+      </c>
+      <c r="CM19" s="5">
+        <v>58608.6</v>
+      </c>
+      <c r="CN19" s="5">
+        <v>55417.4</v>
+      </c>
+      <c r="CO19" s="5">
+        <v>52754.6</v>
+      </c>
+      <c r="CP19" s="5">
+        <v>46710.7</v>
+      </c>
+      <c r="CQ19" s="5">
+        <v>46872.1</v>
+      </c>
+      <c r="CR19" s="5">
+        <v>48931.8</v>
+      </c>
+      <c r="CS19" s="5">
+        <v>48729.3</v>
+      </c>
+      <c r="CT19" s="6">
+        <v>50593</v>
+      </c>
+      <c r="CU19" s="6">
+        <v>56121</v>
+      </c>
+      <c r="CV19" s="5">
+        <v>56030.8</v>
+      </c>
+      <c r="CW19" s="5">
+        <v>52515.8</v>
+      </c>
+      <c r="CX19" s="5">
+        <v>48455.3</v>
+      </c>
+      <c r="CY19" s="5">
+        <v>50932.7</v>
+      </c>
+      <c r="CZ19" s="5">
+        <v>47109.5</v>
+      </c>
+      <c r="DA19" s="5">
+        <v>47115.9</v>
+      </c>
+      <c r="DB19" s="5">
+        <v>46446.8</v>
+      </c>
+      <c r="DC19" s="5">
+        <v>47883.1</v>
+      </c>
+      <c r="DD19" s="5">
+        <v>45364.7</v>
+      </c>
+      <c r="DE19" s="5">
+        <v>42453.7</v>
+      </c>
+      <c r="DF19" s="6">
+        <v>38441</v>
+      </c>
+      <c r="DG19" s="5">
+        <v>38008.1</v>
+      </c>
+      <c r="DH19" s="5">
+        <v>37494.5</v>
+      </c>
+      <c r="DI19" s="5">
+        <v>35868.4</v>
+      </c>
+      <c r="DJ19" s="6">
+        <v>30314</v>
+      </c>
+      <c r="DK19" s="6">
+        <v>31950</v>
+      </c>
+      <c r="DL19" s="5">
+        <v>31581.5</v>
+      </c>
+      <c r="DM19" s="6">
+        <v>29972</v>
+      </c>
+      <c r="DN19" s="6">
+        <v>28152</v>
+      </c>
+      <c r="DO19" s="5">
+        <v>28285.1</v>
+      </c>
+      <c r="DP19" s="5">
+        <v>26006.3</v>
+      </c>
+      <c r="DQ19" s="5">
+        <v>24298.5</v>
+      </c>
+      <c r="DR19" s="5">
+        <v>24030.9</v>
+      </c>
+      <c r="DS19" s="5">
+        <v>23577.4</v>
+      </c>
+      <c r="DT19" s="5">
+        <v>24407.6</v>
+      </c>
+      <c r="DU19" s="5">
+        <v>24097.4</v>
+      </c>
+      <c r="DV19" s="6">
+        <v>23406</v>
+      </c>
+      <c r="DW19" s="5">
+        <v>23766.6</v>
+      </c>
+      <c r="DX19" s="6">
+        <v>21680</v>
+      </c>
+      <c r="DY19" s="5">
+        <v>21993.6</v>
+      </c>
+      <c r="DZ19" s="5">
+        <v>21651.4</v>
+      </c>
+      <c r="EA19" s="5">
+        <v>20933.4</v>
+      </c>
+      <c r="EB19" s="5">
+        <v>19836.9</v>
+      </c>
+      <c r="EC19" s="5">
+        <v>19173.4</v>
+      </c>
+      <c r="ED19" s="5">
+        <v>17868.8</v>
+      </c>
+      <c r="EE19" s="5">
+        <v>19504.4</v>
+      </c>
+      <c r="EF19" s="5">
+        <v>18548.7</v>
+      </c>
+      <c r="EG19" s="5">
+        <v>17301.4</v>
+      </c>
+      <c r="EH19" s="5">
+        <v>15641.1</v>
+      </c>
+      <c r="EI19" s="5">
+        <v>15927.6</v>
+      </c>
+      <c r="EJ19" s="5">
+        <v>14525.8</v>
+      </c>
+      <c r="EK19" s="5">
+        <v>13294.2</v>
+      </c>
+      <c r="EL19" s="5">
+        <v>12304.9</v>
+      </c>
+      <c r="EM19" s="5">
+        <v>12926.5</v>
+      </c>
+      <c r="EN19" s="5">
+        <v>12865.5</v>
+      </c>
+      <c r="EO19" s="5">
+        <v>12408.7</v>
+      </c>
+      <c r="EP19" s="5">
+        <v>11271.5</v>
+      </c>
+      <c r="EQ19" s="5">
+        <v>11164.5</v>
+      </c>
+      <c r="ER19" s="5">
+        <v>10757.3</v>
+      </c>
+      <c r="ES19" s="5">
+        <v>11289.5</v>
+      </c>
+      <c r="ET19" s="5">
+        <v>11393.4</v>
+      </c>
+      <c r="EU19" s="5">
+        <v>11941.1</v>
+      </c>
+      <c r="EV19" s="6">
+        <v>11540</v>
+      </c>
+      <c r="EW19" s="5">
+        <v>11615.3</v>
+      </c>
+      <c r="EX19" s="5">
+        <v>11377.2</v>
+      </c>
+      <c r="EY19" s="6">
+        <v>11019</v>
+      </c>
+      <c r="EZ19" s="5">
+        <v>10784.9</v>
+      </c>
+      <c r="FA19" s="5">
+        <v>11058.3</v>
+      </c>
+      <c r="FB19" s="5">
+        <v>10138.6</v>
+      </c>
+      <c r="FC19" s="5">
+        <v>10302.3</v>
+      </c>
+      <c r="FD19" s="5">
+        <v>10202.3</v>
+      </c>
+      <c r="FE19" s="5">
+        <v>10186.9</v>
+      </c>
+      <c r="FF19" s="5">
+        <v>10300.6</v>
+      </c>
+      <c r="FG19" s="5">
+        <v>9823.4</v>
+      </c>
+      <c r="FH19" s="5">
+        <v>9938.3</v>
+      </c>
+      <c r="FI19" s="5">
+        <v>9640.3</v>
+      </c>
+      <c r="FJ19" s="5">
+        <v>9240.9</v>
+      </c>
+      <c r="FK19" s="5">
+        <v>9090.2</v>
+      </c>
+      <c r="FL19" s="5">
+        <v>9086.8</v>
+      </c>
+      <c r="FM19" s="5">
+        <v>8748.8</v>
+      </c>
+      <c r="FN19" s="5">
+        <v>8241.6</v>
+      </c>
+      <c r="FO19" s="5">
+        <v>7514.5</v>
+      </c>
+      <c r="FP19" s="5">
+        <v>7571.1</v>
+      </c>
+      <c r="FQ19" s="5">
+        <v>7041.2</v>
+      </c>
+      <c r="FR19" s="5">
+        <v>6865.4</v>
+      </c>
+      <c r="FS19" s="5">
+        <v>6485.1</v>
+      </c>
+      <c r="FT19" s="5">
+        <v>6038.2</v>
+      </c>
+      <c r="FU19" s="5">
+        <v>5724.5</v>
+      </c>
+      <c r="FV19" s="5">
+        <v>5460.8</v>
+      </c>
+      <c r="FW19" s="5">
+        <v>5603.2</v>
+      </c>
+      <c r="FX19" s="6">
+        <v>5445</v>
+      </c>
+      <c r="FY19" s="5">
+        <v>5008.3</v>
+      </c>
+      <c r="FZ19" s="5">
+        <v>4899.1</v>
+      </c>
+      <c r="GA19" s="5">
+        <v>5029.8</v>
+      </c>
+      <c r="GB19" s="5">
+        <v>5044.7</v>
+      </c>
+      <c r="GC19" s="5">
+        <v>4419.9</v>
+      </c>
+      <c r="GD19" s="5">
+        <v>4642.3</v>
+      </c>
+      <c r="GE19" s="5">
+        <v>4479.9</v>
+      </c>
+      <c r="GF19" s="5">
+        <v>4400.3</v>
+      </c>
+      <c r="GG19" s="5">
+        <v>4283.7</v>
+      </c>
+      <c r="GH19" s="5">
+        <v>4329.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:190" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="5">
+        <v>-1763.3</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2243.6</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-1925.3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-2365.9</v>
+      </c>
+      <c r="F20" s="5">
+        <v>-2431.7</v>
+      </c>
+      <c r="G20" s="5">
+        <v>-2269.4</v>
+      </c>
+      <c r="H20" s="5">
+        <v>-2078.9</v>
+      </c>
+      <c r="I20" s="6">
+        <v>-1249</v>
+      </c>
+      <c r="J20" s="5">
+        <v>-1238.1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>-2402</v>
+      </c>
+      <c r="L20" s="5">
+        <v>-1128.3</v>
+      </c>
+      <c r="M20" s="5">
+        <v>-323.3</v>
+      </c>
+      <c r="N20" s="5">
+        <v>-2332.2</v>
+      </c>
+      <c r="O20" s="5">
+        <v>-2404.1</v>
+      </c>
+      <c r="P20" s="5">
+        <v>-1192.5</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>-464</v>
+      </c>
+      <c r="R20" s="5">
+        <v>1139.4</v>
+      </c>
+      <c r="S20" s="5">
+        <v>-2227.6</v>
+      </c>
+      <c r="T20" s="6">
+        <v>223</v>
+      </c>
+      <c r="U20" s="5">
+        <v>-901.8</v>
+      </c>
+      <c r="V20" s="5">
+        <v>-1630.4</v>
+      </c>
+      <c r="W20" s="5">
+        <v>-250.5</v>
+      </c>
+      <c r="X20" s="5">
+        <v>-1218.2</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>390.6</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>154.6</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>-1090.2</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>1895.9</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>-1143.9</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>338.1</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>1543.3</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>-69.4</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>194</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>1386</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>-268.4</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>1215.9</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>993.6</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>335.8</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>-422.5</v>
+      </c>
+      <c r="AN20" s="5">
+        <v>710.3</v>
+      </c>
+      <c r="AO20" s="5">
+        <v>239.5</v>
+      </c>
+      <c r="AP20" s="5">
+        <v>-238.4</v>
+      </c>
+      <c r="AQ20" s="5">
+        <v>-240.8</v>
+      </c>
+      <c r="AR20" s="6">
+        <v>-304</v>
+      </c>
+      <c r="AS20" s="5">
+        <v>-1924.7</v>
+      </c>
+      <c r="AT20" s="5">
+        <v>-551.6</v>
+      </c>
+      <c r="AU20" s="5">
+        <v>-25.3</v>
+      </c>
+      <c r="AV20" s="5">
+        <v>1699.5</v>
+      </c>
+      <c r="AW20" s="5">
+        <v>1244.1</v>
+      </c>
+      <c r="AX20" s="5">
+        <v>-457.9</v>
+      </c>
+      <c r="AY20" s="5">
+        <v>1115.6</v>
+      </c>
+      <c r="AZ20" s="5">
+        <v>79.2</v>
+      </c>
+      <c r="BA20" s="5">
+        <v>863.4</v>
+      </c>
+      <c r="BB20" s="6">
+        <v>2729</v>
+      </c>
+      <c r="BC20" s="5">
+        <v>2690.8</v>
+      </c>
+      <c r="BD20" s="6">
+        <v>1201</v>
+      </c>
+      <c r="BE20" s="6">
+        <v>2694</v>
+      </c>
+      <c r="BF20" s="5">
+        <v>3044.9</v>
+      </c>
+      <c r="BG20" s="5">
+        <v>808.9</v>
+      </c>
+      <c r="BH20" s="5">
+        <v>736.4</v>
+      </c>
+      <c r="BI20" s="5">
+        <v>1465.8</v>
+      </c>
+      <c r="BJ20" s="5">
+        <v>1914.2</v>
+      </c>
+      <c r="BK20" s="5">
+        <v>1672.9</v>
+      </c>
+      <c r="BL20" s="5">
+        <v>1404.1</v>
+      </c>
+      <c r="BM20" s="5">
+        <v>1823.9</v>
+      </c>
+      <c r="BN20" s="5">
+        <v>2242.5</v>
+      </c>
+      <c r="BO20" s="5">
+        <v>1181.5</v>
+      </c>
+      <c r="BP20" s="5">
+        <v>2433.4</v>
+      </c>
+      <c r="BQ20" s="5">
+        <v>2179.2</v>
+      </c>
+      <c r="BR20" s="5">
+        <v>2987.7</v>
+      </c>
+      <c r="BS20" s="5">
+        <v>2296.9</v>
+      </c>
+      <c r="BT20" s="5">
+        <v>1919.3</v>
+      </c>
+      <c r="BU20" s="5">
+        <v>2389.8</v>
+      </c>
+      <c r="BV20" s="5">
+        <v>2431.3</v>
+      </c>
+      <c r="BW20" s="5">
+        <v>2828.2</v>
+      </c>
+      <c r="BX20" s="5">
+        <v>2826.8</v>
+      </c>
+      <c r="BY20" s="5">
+        <v>2254.9</v>
+      </c>
+      <c r="BZ20" s="5">
+        <v>924.1</v>
+      </c>
+      <c r="CA20" s="5">
+        <v>1406.4</v>
+      </c>
+      <c r="CB20" s="6">
+        <v>1400</v>
+      </c>
+      <c r="CC20" s="5">
+        <v>1126.3</v>
+      </c>
+      <c r="CD20" s="5">
+        <v>911.4</v>
+      </c>
+      <c r="CE20" s="6">
+        <v>1449</v>
+      </c>
+      <c r="CF20" s="5">
+        <v>1950.7</v>
+      </c>
+      <c r="CG20" s="5">
+        <v>1611.1</v>
+      </c>
+      <c r="CH20" s="5">
+        <v>1630.5</v>
+      </c>
+      <c r="CI20" s="5">
+        <v>2144.8</v>
+      </c>
+      <c r="CJ20" s="5">
+        <v>2745.3</v>
+      </c>
+      <c r="CK20" s="5">
+        <v>3080.1</v>
+      </c>
+      <c r="CL20" s="5">
+        <v>3069.6</v>
+      </c>
+      <c r="CM20" s="5">
+        <v>2661.4</v>
+      </c>
+      <c r="CN20" s="5">
+        <v>2720.4</v>
+      </c>
+      <c r="CO20" s="5">
+        <v>3348.7</v>
+      </c>
+      <c r="CP20" s="5">
+        <v>2284.5</v>
+      </c>
+      <c r="CQ20" s="5">
+        <v>3241.4</v>
+      </c>
+      <c r="CR20" s="5">
+        <v>3429.3</v>
+      </c>
+      <c r="CS20" s="5">
+        <v>3037.8</v>
+      </c>
+      <c r="CT20" s="5">
+        <v>2726.2</v>
+      </c>
+      <c r="CU20" s="5">
+        <v>2806.9</v>
+      </c>
+      <c r="CV20" s="5">
+        <v>2904.2</v>
+      </c>
+      <c r="CW20" s="5">
         <v>3124.1</v>
       </c>
-      <c r="W16" s="5">
-        <v>-690.6</v>
-      </c>
-      <c r="X16" s="6">
-        <v>-1603</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>866.1</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>-3596.2</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>-191.8</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>1152.6</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>-5279.2</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>-445.9</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>-1021.6</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>3483.7</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>2335.7</v>
-      </c>
-      <c r="AH16" s="5">
-        <v>1584.5</v>
-      </c>
-      <c r="AI16" s="5">
-        <v>1657.2</v>
-      </c>
-      <c r="AJ16" s="5">
-        <v>2865.5</v>
-      </c>
-      <c r="AK16" s="5">
-        <v>1889.4</v>
-      </c>
-      <c r="AL16" s="5">
-        <v>2632.8</v>
-      </c>
-      <c r="AM16" s="5">
-        <v>925.6</v>
-      </c>
-      <c r="AN16" s="5">
-        <v>5685.2</v>
-      </c>
-      <c r="AO16" s="5">
-        <v>-373.8</v>
-      </c>
-      <c r="AP16" s="5">
-        <v>1639.9</v>
-      </c>
-      <c r="AQ16" s="5">
-        <v>-1186.3</v>
-      </c>
-      <c r="AR16" s="5">
-        <v>4144.4</v>
-      </c>
-      <c r="AS16" s="5">
-        <v>-412.4</v>
-      </c>
-      <c r="AT16" s="5">
-        <v>-1433.4</v>
-      </c>
-      <c r="AU16" s="5">
-        <v>-425.3</v>
-      </c>
-      <c r="AV16" s="5">
-        <v>5885.8</v>
-      </c>
-      <c r="AW16" s="5">
-        <v>1993.1</v>
-      </c>
-      <c r="AX16" s="5">
-        <v>-148.7</v>
-      </c>
-      <c r="AY16" s="5">
-        <v>1019.1</v>
-      </c>
-      <c r="AZ16" s="5">
-        <v>-779.4</v>
-      </c>
-      <c r="BA16" s="5">
-        <v>-4222.5</v>
-      </c>
-      <c r="BB16" s="5">
-        <v>4366.5</v>
-      </c>
-      <c r="BC16" s="6">
-        <v>1397</v>
-      </c>
-      <c r="BD16" s="5">
-        <v>2860.6</v>
-      </c>
-      <c r="BE16" s="5">
-        <v>-2845.1</v>
-      </c>
-      <c r="BF16" s="5">
-        <v>2248.1</v>
-      </c>
-      <c r="BG16" s="5">
-        <v>-1414.8</v>
-      </c>
-      <c r="BH16" s="5">
-        <v>935.2</v>
-      </c>
-      <c r="BI16" s="5">
-        <v>-5379.5</v>
-      </c>
-      <c r="BJ16" s="5">
-        <v>-1354.7</v>
-      </c>
-      <c r="BK16" s="5">
-        <v>1301.6</v>
-      </c>
-      <c r="BL16" s="6">
-        <v>1861</v>
-      </c>
-      <c r="BM16" s="5">
-        <v>-3267.7</v>
-      </c>
-      <c r="BN16" s="5">
-        <v>-1649.6</v>
-      </c>
-      <c r="BO16" s="5">
-        <v>-1155.2</v>
-      </c>
-      <c r="BP16" s="5">
-        <v>1102.4</v>
-      </c>
-      <c r="BQ16" s="5">
-        <v>-1605.6</v>
-      </c>
-      <c r="BR16" s="6">
-        <v>467</v>
-      </c>
-      <c r="BS16" s="5">
-        <v>-1117.6</v>
-      </c>
-      <c r="BT16" s="6">
-        <v>169</v>
-      </c>
-      <c r="BU16" s="5">
-        <v>-1529.7</v>
-      </c>
-      <c r="BV16" s="5">
-        <v>-1493.1</v>
-      </c>
-      <c r="BW16" s="5">
-        <v>-3031.7</v>
-      </c>
-      <c r="BX16" s="5">
-        <v>-1247.6</v>
-      </c>
-      <c r="BY16" s="5">
-        <v>-3722.9</v>
-      </c>
-      <c r="BZ16" s="5">
-        <v>-768.9</v>
-      </c>
-      <c r="CA16" s="5">
-        <v>-1072.4</v>
-      </c>
-      <c r="CB16" s="5">
-        <v>1496.4</v>
-      </c>
-      <c r="CC16" s="5">
-        <v>-1743.1</v>
-      </c>
-      <c r="CD16" s="5">
-        <v>-1568.9</v>
-      </c>
-      <c r="CE16" s="5">
-        <v>-1035.5</v>
-      </c>
-      <c r="CF16" s="5">
-        <v>223.9</v>
-      </c>
-      <c r="CG16" s="5">
-        <v>-1586.6</v>
-      </c>
-      <c r="CH16" s="5">
-        <v>2214.8</v>
-      </c>
-      <c r="CI16" s="5">
-        <v>786.4</v>
-      </c>
-      <c r="CJ16" s="5">
-        <v>1913.1</v>
-      </c>
-      <c r="CK16" s="5">
-        <v>-1444.5</v>
-      </c>
-      <c r="CL16" s="5">
-        <v>-24.4</v>
-      </c>
-      <c r="CM16" s="5">
-        <v>-67.8</v>
-      </c>
-      <c r="CN16" s="5">
-        <v>-25.3</v>
-      </c>
-      <c r="CO16" s="5">
-        <v>-2405.8</v>
-      </c>
-      <c r="CP16" s="5">
-        <v>-2431.8</v>
-      </c>
-      <c r="CQ16" s="5">
-        <v>-2769.7</v>
-      </c>
-      <c r="CR16" s="5">
-        <v>-925.1</v>
-      </c>
-      <c r="CS16" s="5">
-        <v>-1749.8</v>
-      </c>
-      <c r="CT16" s="5">
-        <v>-385.4</v>
-      </c>
-      <c r="CU16" s="6">
-        <v>47</v>
-      </c>
-      <c r="CV16" s="5">
-        <v>482.2</v>
-      </c>
-      <c r="CW16" s="5">
-        <v>-483.6</v>
-      </c>
-      <c r="CX16" s="6">
-        <v>-638</v>
-      </c>
-      <c r="CY16" s="5">
-        <v>-1899.4</v>
-      </c>
-      <c r="CZ16" s="5">
-        <v>-101.5</v>
-      </c>
-      <c r="DA16" s="5">
-        <v>-630.9</v>
-      </c>
-      <c r="DB16" s="6">
-        <v>202</v>
-      </c>
-      <c r="DC16" s="5">
-        <v>462.4</v>
-      </c>
-      <c r="DD16" s="6">
-        <v>1186</v>
-      </c>
-      <c r="DE16" s="5">
-        <v>-1163.2</v>
-      </c>
-      <c r="DF16" s="5">
-        <v>-945.3</v>
-      </c>
-      <c r="DG16" s="5">
-        <v>-755.1</v>
-      </c>
-      <c r="DH16" s="5">
-        <v>203.5</v>
-      </c>
-      <c r="DI16" s="5">
-        <v>1118.8</v>
-      </c>
-      <c r="DJ16" s="5">
-        <v>595.9</v>
-      </c>
-      <c r="DK16" s="5">
-        <v>153.2</v>
-      </c>
-      <c r="DL16" s="5">
-        <v>1333.7</v>
-      </c>
-      <c r="DM16" s="5">
-        <v>-30.1</v>
-      </c>
-      <c r="DN16" s="5">
-        <v>664.3</v>
-      </c>
-      <c r="DO16" s="6">
-        <v>-359</v>
-      </c>
-      <c r="DP16" s="5">
-        <v>648.4</v>
-      </c>
-      <c r="DQ16" s="5">
-        <v>-754.7</v>
-      </c>
-      <c r="DR16" s="5">
-        <v>-385.7</v>
-      </c>
-      <c r="DS16" s="5">
-        <v>165.6</v>
-      </c>
-      <c r="DT16" s="5">
-        <v>333.6</v>
-      </c>
-      <c r="DU16" s="5">
-        <v>472.7</v>
-      </c>
-      <c r="DV16" s="5">
-        <v>369.1</v>
-      </c>
-      <c r="DW16" s="5">
-        <v>-60.1</v>
-      </c>
-      <c r="DX16" s="5">
+      <c r="CX20" s="5">
+        <v>2814.4</v>
+      </c>
+      <c r="CY20" s="5">
+        <v>3193.5</v>
+      </c>
+      <c r="CZ20" s="5">
+        <v>3402.9</v>
+      </c>
+      <c r="DA20" s="5">
+        <v>3163.3</v>
+      </c>
+      <c r="DB20" s="5">
+        <v>2818.4</v>
+      </c>
+      <c r="DC20" s="5">
+        <v>3599.7</v>
+      </c>
+      <c r="DD20" s="5">
+        <v>3481.8</v>
+      </c>
+      <c r="DE20" s="5">
+        <v>2997.1</v>
+      </c>
+      <c r="DF20" s="5">
+        <v>2914.6</v>
+      </c>
+      <c r="DG20" s="5">
+        <v>4448.9</v>
+      </c>
+      <c r="DH20" s="5">
+        <v>3980.2</v>
+      </c>
+      <c r="DI20" s="5">
+        <v>3349.9</v>
+      </c>
+      <c r="DJ20" s="5">
+        <v>1782.7</v>
+      </c>
+      <c r="DK20" s="5">
+        <v>3007.3</v>
+      </c>
+      <c r="DL20" s="5">
+        <v>2860.4</v>
+      </c>
+      <c r="DM20" s="5">
+        <v>1569.2</v>
+      </c>
+      <c r="DN20" s="5">
+        <v>2128.4</v>
+      </c>
+      <c r="DO20" s="5">
+        <v>1820.8</v>
+      </c>
+      <c r="DP20" s="5">
+        <v>3042.8</v>
+      </c>
+      <c r="DQ20" s="5">
+        <v>1616.4</v>
+      </c>
+      <c r="DR20" s="5">
+        <v>2758.4</v>
+      </c>
+      <c r="DS20" s="5">
+        <v>2412.8</v>
+      </c>
+      <c r="DT20" s="5">
+        <v>2407.1</v>
+      </c>
+      <c r="DU20" s="5">
+        <v>2277.9</v>
+      </c>
+      <c r="DV20" s="6">
+        <v>1723</v>
+      </c>
+      <c r="DW20" s="5">
+        <v>2282.8</v>
+      </c>
+      <c r="DX20" s="6">
+        <v>2627</v>
+      </c>
+      <c r="DY20" s="5">
+        <v>2497.2</v>
+      </c>
+      <c r="DZ20" s="6">
+        <v>1902</v>
+      </c>
+      <c r="EA20" s="5">
+        <v>2378.9</v>
+      </c>
+      <c r="EB20" s="5">
+        <v>1902.7</v>
+      </c>
+      <c r="EC20" s="5">
+        <v>1876.1</v>
+      </c>
+      <c r="ED20" s="5">
+        <v>1744.8</v>
+      </c>
+      <c r="EE20" s="6">
+        <v>1818</v>
+      </c>
+      <c r="EF20" s="5">
+        <v>2062.6</v>
+      </c>
+      <c r="EG20" s="5">
+        <v>2060.5</v>
+      </c>
+      <c r="EH20" s="5">
+        <v>1479.9</v>
+      </c>
+      <c r="EI20" s="5">
+        <v>1831.2</v>
+      </c>
+      <c r="EJ20" s="6">
+        <v>1608</v>
+      </c>
+      <c r="EK20" s="5">
+        <v>1371.4</v>
+      </c>
+      <c r="EL20" s="5">
+        <v>1741.5</v>
+      </c>
+      <c r="EM20" s="5">
+        <v>1483.9</v>
+      </c>
+      <c r="EN20" s="5">
+        <v>897.2</v>
+      </c>
+      <c r="EO20" s="5">
         <v>1531.9</v>
       </c>
-      <c r="DY16" s="5">
-        <v>672.7</v>
-      </c>
-      <c r="DZ16" s="6">
-        <v>-472</v>
-      </c>
-      <c r="EA16" s="5">
-        <v>482.6</v>
-      </c>
-      <c r="EB16" s="5">
-        <v>1268.4</v>
-      </c>
-      <c r="EC16" s="5">
-        <v>-20.1</v>
-      </c>
-      <c r="ED16" s="5">
-        <v>-31.3</v>
-      </c>
-      <c r="EE16" s="6">
-        <v>650</v>
-      </c>
-      <c r="EF16" s="5">
-        <v>846.7</v>
-      </c>
-      <c r="EG16" s="6">
-        <v>4</v>
-      </c>
-      <c r="EH16" s="6">
-        <v>524</v>
-      </c>
-      <c r="EI16" s="5">
-        <v>563.9</v>
-      </c>
-      <c r="EJ16" s="5">
-        <v>700.1</v>
-      </c>
-      <c r="EK16" s="5">
-        <v>481.2</v>
-      </c>
-      <c r="EL16" s="5">
-        <v>448.4</v>
-      </c>
-      <c r="EM16" s="5">
-        <v>-65.2</v>
-      </c>
-      <c r="EN16" s="5">
-        <v>57.4</v>
-      </c>
-      <c r="EO16" s="5">
-        <v>155.5</v>
-      </c>
-      <c r="EP16" s="5">
-        <v>-104.2</v>
-      </c>
-      <c r="EQ16" s="5">
-        <v>287.6</v>
-      </c>
-      <c r="ER16" s="5">
-        <v>153.3</v>
-      </c>
-      <c r="ES16" s="5">
-        <v>-184.9</v>
-      </c>
-      <c r="ET16" s="5">
-        <v>329.1</v>
-      </c>
-      <c r="EU16" s="5">
-        <v>21.9</v>
-      </c>
-      <c r="EV16" s="5">
-        <v>181.7</v>
-      </c>
-      <c r="EW16" s="5">
-        <v>-252.9</v>
-      </c>
-      <c r="EX16" s="5">
-        <v>294.3</v>
-      </c>
-      <c r="EY16" s="5">
-        <v>-88.7</v>
-      </c>
-      <c r="EZ16" s="5">
-        <v>-23.2</v>
-      </c>
-      <c r="FA16" s="5">
-        <v>-4.9</v>
-      </c>
-      <c r="FB16" s="5">
-        <v>-96.9</v>
-      </c>
-      <c r="FC16" s="5">
-        <v>66.6</v>
-      </c>
-      <c r="FD16" s="5">
-        <v>-166.3</v>
-      </c>
-      <c r="FE16" s="5">
-        <v>369.5</v>
-      </c>
-      <c r="FF16" s="6">
-        <v>-366</v>
-      </c>
-      <c r="FG16" s="5">
-        <v>202.5</v>
-      </c>
-      <c r="FH16" s="5">
-        <v>505.1</v>
-      </c>
-      <c r="FI16" s="5">
-        <v>535.9</v>
-      </c>
-      <c r="FJ16" s="5">
-        <v>337.2</v>
-      </c>
-      <c r="FK16" s="5">
-        <v>749.7</v>
-      </c>
-      <c r="FL16" s="5">
-        <v>348.4</v>
-      </c>
-      <c r="FM16" s="5">
-        <v>385.3</v>
-      </c>
-      <c r="FN16" s="5">
-        <v>148.4</v>
-      </c>
-      <c r="FO16" s="5">
-        <v>436.1</v>
-      </c>
-      <c r="FP16" s="5">
-        <v>677.9</v>
-      </c>
-      <c r="FQ16" s="5">
-        <v>654.9</v>
-      </c>
-      <c r="FR16" s="5">
-        <v>554.3</v>
-      </c>
-      <c r="FS16" s="5">
-        <v>474.3</v>
-      </c>
-      <c r="FT16" s="5">
-        <v>240.3</v>
-      </c>
-      <c r="FU16" s="5">
-        <v>-150.9</v>
-      </c>
-      <c r="FV16" s="5">
-        <v>159.2</v>
-      </c>
-      <c r="FW16" s="5">
-        <v>254.9</v>
-      </c>
-      <c r="FX16" s="5">
-        <v>-90.5</v>
-      </c>
-      <c r="FY16" s="5">
-        <v>33.6</v>
-      </c>
-      <c r="FZ16" s="5">
-        <v>188.8</v>
-      </c>
-      <c r="GA16" s="5">
-        <v>290.9</v>
-      </c>
-      <c r="GB16" s="5">
-        <v>5.6</v>
-      </c>
-      <c r="GC16" s="5">
-        <v>112.3</v>
-      </c>
-      <c r="GD16" s="5">
-        <v>-70.2</v>
-      </c>
-      <c r="GE16" s="5">
-        <v>237.1</v>
-      </c>
-      <c r="GF16" s="5">
-        <v>90.9</v>
-      </c>
-      <c r="GG16" s="5">
-        <v>221.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="5">
-        <v>37110.8</v>
-      </c>
-      <c r="C17" s="5">
-        <v>38846.9</v>
-      </c>
-      <c r="D17" s="5">
-        <v>40499.6</v>
-      </c>
-      <c r="E17" s="5">
-        <v>34933.3</v>
-      </c>
-      <c r="F17" s="5">
-        <v>38284.6</v>
-      </c>
-      <c r="G17" s="5">
-        <v>39544.5</v>
-      </c>
-      <c r="H17" s="5">
-        <v>38606.5</v>
-      </c>
-      <c r="I17" s="5">
-        <v>30585.1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>33653.5</v>
-      </c>
-      <c r="K17" s="5">
-        <v>34992.7</v>
-      </c>
-      <c r="L17" s="6">
-        <v>33232</v>
-      </c>
-      <c r="M17" s="6">
-        <v>30326</v>
-      </c>
-      <c r="N17" s="5">
-        <v>32660.7</v>
-      </c>
-      <c r="O17" s="5">
-        <v>35092.7</v>
-      </c>
-      <c r="P17" s="5">
-        <v>33440.4</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>28790.9</v>
-      </c>
-      <c r="R17" s="5">
-        <v>29385.1</v>
-      </c>
-      <c r="S17" s="5">
-        <v>31110.7</v>
-      </c>
-      <c r="T17" s="5">
-        <v>29494.9</v>
-      </c>
-      <c r="U17" s="5">
-        <v>28612.1</v>
-      </c>
-      <c r="V17" s="5">
-        <v>26892.6</v>
-      </c>
-      <c r="W17" s="5">
-        <v>33577.2</v>
-      </c>
-      <c r="X17" s="5">
-        <v>29934.6</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>24201.1</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>30364.6</v>
-      </c>
-      <c r="AA17" s="5">
-        <v>27128.6</v>
-      </c>
-      <c r="AB17" s="5">
-        <v>27719.7</v>
-      </c>
-      <c r="AC17" s="5">
-        <v>30378.1</v>
-      </c>
-      <c r="AD17" s="5">
-        <v>26507.4</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>29470.5</v>
-      </c>
-      <c r="AF17" s="5">
-        <v>24223.9</v>
-      </c>
-      <c r="AG17" s="5">
-        <v>20562.7</v>
-      </c>
-      <c r="AH17" s="5">
-        <v>25400.6</v>
-      </c>
-      <c r="AI17" s="5">
-        <v>22825.5</v>
-      </c>
-      <c r="AJ17" s="5">
-        <v>24299.6</v>
-      </c>
-      <c r="AK17" s="5">
-        <v>19770.6</v>
-      </c>
-      <c r="AL17" s="5">
-        <v>22499.6</v>
-      </c>
-      <c r="AM17" s="5">
-        <v>22978.8</v>
-      </c>
-      <c r="AN17" s="5">
-        <v>21270.5</v>
-      </c>
-      <c r="AO17" s="5">
-        <v>22193.6</v>
-      </c>
-      <c r="AP17" s="6">
-        <v>22327</v>
-      </c>
-      <c r="AQ17" s="5">
-        <v>25790.6</v>
-      </c>
-      <c r="AR17" s="5">
-        <v>21915.6</v>
-      </c>
-      <c r="AS17" s="5">
-        <v>24123.4</v>
-      </c>
-      <c r="AT17" s="5">
-        <v>23214.5</v>
-      </c>
-      <c r="AU17" s="5">
-        <v>21623.8</v>
-      </c>
-      <c r="AV17" s="5">
-        <v>17845.5</v>
-      </c>
-      <c r="AW17" s="5">
-        <v>15049.8</v>
-      </c>
-      <c r="AX17" s="5">
-        <v>15086.5</v>
-      </c>
-      <c r="AY17" s="5">
-        <v>16415.5</v>
-      </c>
-      <c r="AZ17" s="5">
-        <v>15697.6</v>
-      </c>
-      <c r="BA17" s="5">
-        <v>13158.1</v>
-      </c>
-      <c r="BB17" s="5">
-        <v>7905.1</v>
-      </c>
-      <c r="BC17" s="5">
-        <v>15045.1</v>
-      </c>
-      <c r="BD17" s="5">
-        <v>11657.1</v>
-      </c>
-      <c r="BE17" s="5">
-        <v>15725.9</v>
-      </c>
-      <c r="BF17" s="5">
-        <v>13787.9</v>
-      </c>
-      <c r="BG17" s="5">
-        <v>22054.9</v>
-      </c>
-      <c r="BH17" s="6">
-        <v>16997</v>
-      </c>
-      <c r="BI17" s="5">
-        <v>18931.3</v>
-      </c>
-      <c r="BJ17" s="5">
-        <v>17487.6</v>
-      </c>
-      <c r="BK17" s="5">
-        <v>15364.2</v>
-      </c>
-      <c r="BL17" s="5">
-        <v>14387.1</v>
-      </c>
-      <c r="BM17" s="5">
-        <v>14751.1</v>
-      </c>
-      <c r="BN17" s="5">
-        <v>16196.5</v>
-      </c>
-      <c r="BO17" s="6">
-        <v>15421</v>
-      </c>
-      <c r="BP17" s="5">
-        <v>12186.6</v>
-      </c>
-      <c r="BQ17" s="5">
-        <v>9831.1</v>
-      </c>
-      <c r="BR17" s="5">
-        <v>11652.2</v>
-      </c>
-      <c r="BS17" s="5">
-        <v>12394.9</v>
-      </c>
-      <c r="BT17" s="5">
-        <v>10211.9</v>
-      </c>
-      <c r="BU17" s="5">
-        <v>9664.3</v>
-      </c>
-      <c r="BV17" s="5">
-        <v>10988.2</v>
-      </c>
-      <c r="BW17" s="5">
-        <v>12391.8</v>
-      </c>
-      <c r="BX17" s="5">
-        <v>9456.6</v>
-      </c>
-      <c r="BY17" s="6">
-        <v>11427</v>
-      </c>
-      <c r="BZ17" s="5">
-        <v>8708.4</v>
-      </c>
-      <c r="CA17" s="5">
-        <v>8735.1</v>
-      </c>
-      <c r="CB17" s="5">
-        <v>5779.7</v>
-      </c>
-      <c r="CC17" s="6">
-        <v>6838</v>
-      </c>
-      <c r="CD17" s="5">
-        <v>7562.2</v>
-      </c>
-      <c r="CE17" s="5">
-        <v>5501.1</v>
-      </c>
-      <c r="CF17" s="5">
-        <v>5433.2</v>
-      </c>
-      <c r="CG17" s="5">
-        <v>5406.5</v>
-      </c>
-      <c r="CH17" s="5">
-        <v>3152.6</v>
-      </c>
-      <c r="CI17" s="6">
-        <v>5044</v>
-      </c>
-      <c r="CJ17" s="5">
-        <v>4156.7</v>
-      </c>
-      <c r="CK17" s="5">
-        <v>3989.9</v>
-      </c>
-      <c r="CL17" s="5">
-        <v>6355.8</v>
-      </c>
-      <c r="CM17" s="6">
-        <v>6241</v>
-      </c>
-      <c r="CN17" s="6">
-        <v>6213</v>
-      </c>
-      <c r="CO17" s="5">
-        <v>6111.9</v>
-      </c>
-      <c r="CP17" s="5">
-        <v>8293.8</v>
-      </c>
-      <c r="CQ17" s="5">
-        <v>7763.8</v>
-      </c>
-      <c r="CR17" s="5">
-        <v>5967.6</v>
-      </c>
-      <c r="CS17" s="5">
-        <v>3564.3</v>
-      </c>
-      <c r="CT17" s="5">
-        <v>4101.9</v>
-      </c>
-      <c r="CU17" s="5">
-        <v>4650.9</v>
-      </c>
-      <c r="CV17" s="5">
-        <v>5377.7</v>
-      </c>
-      <c r="CW17" s="5">
-        <v>3662.4</v>
-      </c>
-      <c r="CX17" s="5">
-        <v>4066.9</v>
-      </c>
-      <c r="CY17" s="5">
-        <v>6204.3</v>
-      </c>
-      <c r="CZ17" s="5">
-        <v>4125.9</v>
-      </c>
-      <c r="DA17" s="5">
-        <v>3481.5</v>
-      </c>
-      <c r="DB17" s="6">
-        <v>3593</v>
-      </c>
-      <c r="DC17" s="5">
-        <v>5064.1</v>
-      </c>
-      <c r="DD17" s="5">
-        <v>4047.9</v>
-      </c>
-      <c r="DE17" s="5">
-        <v>4730.8</v>
-      </c>
-      <c r="DF17" s="5">
-        <v>4853.7</v>
-      </c>
-      <c r="DG17" s="5">
-        <v>5146.8</v>
-      </c>
-      <c r="DH17" s="5">
-        <v>4259.9</v>
-      </c>
-      <c r="DI17" s="5">
-        <v>2269.6</v>
-      </c>
-      <c r="DJ17" s="5">
-        <v>3322.9</v>
-      </c>
-      <c r="DK17" s="5">
-        <v>3546.1</v>
-      </c>
-      <c r="DL17" s="5">
-        <v>3066.5</v>
-      </c>
-      <c r="DM17" s="5">
-        <v>1932.6</v>
-      </c>
-      <c r="DN17" s="5">
-        <v>2878.1</v>
-      </c>
-      <c r="DO17" s="5">
-        <v>3357.4</v>
-      </c>
-      <c r="DP17" s="5">
-        <v>2933.2</v>
-      </c>
-      <c r="DQ17" s="6">
-        <v>2356</v>
-      </c>
-      <c r="DR17" s="5">
-        <v>3496.9</v>
-      </c>
-      <c r="DS17" s="5">
-        <v>3034.1</v>
-      </c>
-      <c r="DT17" s="5">
-        <v>2667.3</v>
-      </c>
-      <c r="DU17" s="5">
-        <v>1750.1</v>
-      </c>
-      <c r="DV17" s="5">
-        <v>2726.7</v>
-      </c>
-      <c r="DW17" s="5">
-        <v>2817.2</v>
-      </c>
-      <c r="DX17" s="5">
-        <v>1886.1</v>
-      </c>
-      <c r="DY17" s="5">
-        <v>1497.9</v>
-      </c>
-      <c r="DZ17" s="5">
-        <v>2598.8</v>
-      </c>
-      <c r="EA17" s="6">
-        <v>2571</v>
-      </c>
-      <c r="EB17" s="5">
-        <v>2212.4</v>
-      </c>
-      <c r="EC17" s="5">
-        <v>1489.1</v>
-      </c>
-      <c r="ED17" s="5">
-        <v>2501.7</v>
-      </c>
-      <c r="EE17" s="6">
-        <v>1770</v>
-      </c>
-      <c r="EF17" s="5">
-        <v>1925.5</v>
-      </c>
-      <c r="EG17" s="5">
-        <v>1690.7</v>
-      </c>
-      <c r="EH17" s="5">
-        <v>1309.1</v>
-      </c>
-      <c r="EI17" s="5">
-        <v>1414.2</v>
-      </c>
-      <c r="EJ17" s="5">
-        <v>1541.9</v>
-      </c>
-      <c r="EK17" s="5">
-        <v>500.6</v>
-      </c>
-      <c r="EL17" s="6">
-        <v>1138</v>
-      </c>
-      <c r="EM17" s="5">
-        <v>1386.9</v>
-      </c>
-      <c r="EN17" s="5">
-        <v>1260.9</v>
-      </c>
-      <c r="EO17" s="5">
-        <v>27.2</v>
-      </c>
-      <c r="EP17" s="5">
-        <v>880.1</v>
-      </c>
-      <c r="EQ17" s="5">
-        <v>472.3</v>
-      </c>
-      <c r="ER17" s="5">
-        <v>977.8</v>
-      </c>
-      <c r="ES17" s="5">
-        <v>279.4</v>
-      </c>
-      <c r="ET17" s="5">
-        <v>397.6</v>
-      </c>
-      <c r="EU17" s="5">
-        <v>1029.9</v>
-      </c>
-      <c r="EV17" s="5">
-        <v>626.8</v>
-      </c>
-      <c r="EW17" s="6">
-        <v>286</v>
-      </c>
-      <c r="EX17" s="5">
-        <v>699.7</v>
-      </c>
-      <c r="EY17" s="5">
-        <v>786.3</v>
-      </c>
-      <c r="EZ17" s="5">
-        <v>210.3</v>
-      </c>
-      <c r="FA17" s="6">
-        <v>242</v>
-      </c>
-      <c r="FB17" s="5">
-        <v>525.9</v>
-      </c>
-      <c r="FC17" s="5">
-        <v>430.4</v>
-      </c>
-      <c r="FD17" s="5">
-        <v>706.2</v>
-      </c>
-      <c r="FE17" s="5">
-        <v>-113.3</v>
-      </c>
-      <c r="FF17" s="5">
-        <v>778.8</v>
-      </c>
-      <c r="FG17" s="5">
-        <v>532.3</v>
-      </c>
-      <c r="FH17" s="5">
-        <v>367.9</v>
-      </c>
-      <c r="FI17" s="5">
-        <v>249.6</v>
-      </c>
-      <c r="FJ17" s="5">
-        <v>551.5</v>
-      </c>
-      <c r="FK17" s="6">
-        <v>345</v>
-      </c>
-      <c r="FL17" s="5">
-        <v>112.4</v>
-      </c>
-      <c r="FM17" s="6">
-        <v>297</v>
-      </c>
-      <c r="FN17" s="5">
-        <v>638.9</v>
-      </c>
-      <c r="FO17" s="6">
-        <v>125</v>
-      </c>
-      <c r="FP17" s="5">
-        <v>199.2</v>
-      </c>
-      <c r="FQ17" s="5">
-        <v>-56.3</v>
-      </c>
-      <c r="FR17" s="5">
-        <v>-13.6</v>
-      </c>
-      <c r="FS17" s="5">
-        <v>276.2</v>
-      </c>
-      <c r="FT17" s="5">
-        <v>193.2</v>
-      </c>
-      <c r="FU17" s="5">
-        <v>58.8</v>
-      </c>
-      <c r="FV17" s="5">
-        <v>102.6</v>
-      </c>
-      <c r="FW17" s="6">
-        <v>94</v>
-      </c>
-      <c r="FX17" s="5">
-        <v>315.8</v>
-      </c>
-      <c r="FY17" s="6">
-        <v>248</v>
-      </c>
-      <c r="FZ17" s="5">
-        <v>280.9</v>
-      </c>
-      <c r="GA17" s="6">
-        <v>-93</v>
-      </c>
-      <c r="GB17" s="5">
-        <v>24.2</v>
-      </c>
-      <c r="GC17" s="5">
-        <v>-332.8</v>
-      </c>
-      <c r="GD17" s="5">
-        <v>138.1</v>
-      </c>
-      <c r="GE17" s="5">
-        <v>-140.9</v>
-      </c>
-      <c r="GF17" s="5">
-        <v>-128.2</v>
-      </c>
-      <c r="GG17" s="5">
-        <v>-377.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="5">
-        <v>241753.7</v>
-      </c>
-      <c r="C18" s="5">
-        <v>231557.4</v>
-      </c>
-      <c r="D18" s="6">
-        <v>231483</v>
-      </c>
-      <c r="E18" s="5">
-        <v>227805.9</v>
-      </c>
-      <c r="F18" s="5">
-        <v>224140.4</v>
-      </c>
-      <c r="G18" s="5">
-        <v>216588.7</v>
-      </c>
-      <c r="H18" s="5">
-        <v>202757.4</v>
-      </c>
-      <c r="I18" s="5">
-        <v>229712.8</v>
-      </c>
-      <c r="J18" s="5">
-        <v>226006.9</v>
-      </c>
-      <c r="K18" s="6">
-        <v>219307</v>
-      </c>
-      <c r="L18" s="5">
-        <v>218303.5</v>
-      </c>
-      <c r="M18" s="5">
-        <v>211748.2</v>
-      </c>
-      <c r="N18" s="5">
-        <v>217284.2</v>
-      </c>
-      <c r="O18" s="5">
-        <v>221834.6</v>
-      </c>
-      <c r="P18" s="5">
-        <v>220248.9</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>213340.9</v>
-      </c>
-      <c r="R18" s="5">
-        <v>210663.6</v>
-      </c>
-      <c r="S18" s="5">
-        <v>206938.5</v>
-      </c>
-      <c r="T18" s="6">
-        <v>200168</v>
-      </c>
-      <c r="U18" s="5">
-        <v>193597.2</v>
-      </c>
-      <c r="V18" s="5">
-        <v>194148.5</v>
-      </c>
-      <c r="W18" s="5">
-        <v>192467.5</v>
-      </c>
-      <c r="X18" s="5">
-        <v>189985.2</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>179025.6</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>192787.9</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>190980.8</v>
-      </c>
-      <c r="AB18" s="5">
-        <v>186951.2</v>
-      </c>
-      <c r="AC18" s="5">
-        <v>184639.2</v>
-      </c>
-      <c r="AD18" s="5">
-        <v>184378.6</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>181589.8</v>
-      </c>
-      <c r="AF18" s="5">
-        <v>181105.6</v>
-      </c>
-      <c r="AG18" s="6">
-        <v>172537</v>
-      </c>
-      <c r="AH18" s="5">
-        <v>177239.5</v>
-      </c>
-      <c r="AI18" s="5">
-        <v>179292.3</v>
-      </c>
-      <c r="AJ18" s="5">
-        <v>177174.5</v>
-      </c>
-      <c r="AK18" s="5">
-        <v>160765.1</v>
-      </c>
-      <c r="AL18" s="6">
-        <v>165318</v>
-      </c>
-      <c r="AM18" s="5">
-        <v>161070.5</v>
-      </c>
-      <c r="AN18" s="5">
-        <v>166097.9</v>
-      </c>
-      <c r="AO18" s="5">
-        <v>161812.2</v>
-      </c>
-      <c r="AP18" s="5">
-        <v>162055.5</v>
-      </c>
-      <c r="AQ18" s="5">
-        <v>166441.1</v>
-      </c>
-      <c r="AR18" s="5">
-        <v>159967.2</v>
-      </c>
-      <c r="AS18" s="5">
-        <v>156819.1</v>
-      </c>
-      <c r="AT18" s="5">
-        <v>154747.1</v>
-      </c>
-      <c r="AU18" s="5">
-        <v>156698.6</v>
-      </c>
-      <c r="AV18" s="5">
-        <v>149634.4</v>
-      </c>
-      <c r="AW18" s="5">
-        <v>138121.2</v>
-      </c>
-      <c r="AX18" s="5">
-        <v>136312.7</v>
-      </c>
-      <c r="AY18" s="5">
-        <v>132690.8</v>
-      </c>
-      <c r="AZ18" s="5">
-        <v>122826.8</v>
-      </c>
-      <c r="BA18" s="6">
-        <v>116883</v>
-      </c>
-      <c r="BB18" s="5">
-        <v>129183.5</v>
-      </c>
-      <c r="BC18" s="5">
-        <v>142369.5</v>
-      </c>
-      <c r="BD18" s="5">
-        <v>137525.1</v>
-      </c>
-      <c r="BE18" s="5">
-        <v>139127.2</v>
-      </c>
-      <c r="BF18" s="5">
-        <v>134041.5</v>
-      </c>
-      <c r="BG18" s="5">
-        <v>134431.9</v>
-      </c>
-      <c r="BH18" s="5">
-        <v>127269.6</v>
-      </c>
-      <c r="BI18" s="5">
-        <v>125061.8</v>
-      </c>
-      <c r="BJ18" s="5">
-        <v>125147.1</v>
-      </c>
-      <c r="BK18" s="5">
-        <v>123144.3</v>
-      </c>
-      <c r="BL18" s="5">
-        <v>117833.8</v>
-      </c>
-      <c r="BM18" s="5">
-        <v>113710.8</v>
-      </c>
-      <c r="BN18" s="5">
-        <v>117977.3</v>
-      </c>
-      <c r="BO18" s="5">
-        <v>111024.2</v>
-      </c>
-      <c r="BP18" s="5">
-        <v>104478.7</v>
-      </c>
-      <c r="BQ18" s="5">
-        <v>98982.5</v>
-      </c>
-      <c r="BR18" s="5">
-        <v>101322.2</v>
-      </c>
-      <c r="BS18" s="6">
-        <v>100423</v>
-      </c>
-      <c r="BT18" s="5">
-        <v>94423.4</v>
-      </c>
-      <c r="BU18" s="5">
-        <v>87288.8</v>
-      </c>
-      <c r="BV18" s="5">
-        <v>87047.7</v>
-      </c>
-      <c r="BW18" s="5">
-        <v>82970.1</v>
-      </c>
-      <c r="BX18" s="5">
-        <v>75618.7</v>
-      </c>
-      <c r="BY18" s="5">
-        <v>75519.2</v>
-      </c>
-      <c r="BZ18" s="5">
-        <v>74030.8</v>
-      </c>
-      <c r="CA18" s="6">
-        <v>73217</v>
-      </c>
-      <c r="CB18" s="5">
-        <v>70270.5</v>
-      </c>
-      <c r="CC18" s="5">
-        <v>64517.1</v>
-      </c>
-      <c r="CD18" s="5">
-        <v>66513.3</v>
-      </c>
-      <c r="CE18" s="5">
-        <v>63986.5</v>
-      </c>
-      <c r="CF18" s="5">
-        <v>64844.6</v>
-      </c>
-      <c r="CG18" s="5">
-        <v>67305.4</v>
-      </c>
-      <c r="CH18" s="5">
-        <v>73387.4</v>
-      </c>
-      <c r="CI18" s="5">
-        <v>72289.5</v>
-      </c>
-      <c r="CJ18" s="5">
-        <v>65961.1</v>
-      </c>
-      <c r="CK18" s="5">
-        <v>60935.5</v>
-      </c>
-      <c r="CL18" s="5">
-        <v>64964.3</v>
-      </c>
-      <c r="CM18" s="5">
-        <v>61658.4</v>
-      </c>
-      <c r="CN18" s="5">
-        <v>58967.6</v>
-      </c>
-      <c r="CO18" s="5">
-        <v>52822.6</v>
-      </c>
-      <c r="CP18" s="5">
-        <v>55165.8</v>
-      </c>
-      <c r="CQ18" s="5">
-        <v>56695.7</v>
-      </c>
-      <c r="CR18" s="5">
-        <v>54696.9</v>
-      </c>
-      <c r="CS18" s="5">
-        <v>54157.3</v>
-      </c>
-      <c r="CT18" s="5">
-        <v>60222.8</v>
-      </c>
-      <c r="CU18" s="5">
-        <v>60681.7</v>
-      </c>
-      <c r="CV18" s="5">
-        <v>57893.6</v>
-      </c>
-      <c r="CW18" s="5">
-        <v>52117.7</v>
-      </c>
-      <c r="CX18" s="5">
-        <v>54999.5</v>
-      </c>
-      <c r="CY18" s="5">
-        <v>53313.8</v>
-      </c>
-      <c r="CZ18" s="5">
-        <v>51241.8</v>
-      </c>
-      <c r="DA18" s="5">
-        <v>49928.3</v>
-      </c>
-      <c r="DB18" s="5">
-        <v>51476.2</v>
-      </c>
-      <c r="DC18" s="5">
-        <v>50428.8</v>
-      </c>
-      <c r="DD18" s="5">
-        <v>46501.6</v>
-      </c>
-      <c r="DE18" s="5">
-        <v>43171.8</v>
-      </c>
-      <c r="DF18" s="5">
-        <v>42861.7</v>
-      </c>
-      <c r="DG18" s="5">
-        <v>42641.3</v>
-      </c>
-      <c r="DH18" s="5">
-        <v>40128.3</v>
-      </c>
-      <c r="DI18" s="5">
-        <v>32583.6</v>
-      </c>
-      <c r="DJ18" s="5">
-        <v>35272.9</v>
-      </c>
-      <c r="DK18" s="5">
-        <v>35127.5</v>
-      </c>
-      <c r="DL18" s="5">
-        <v>33038.5</v>
-      </c>
-      <c r="DM18" s="5">
-        <v>30084.6</v>
-      </c>
-      <c r="DN18" s="5">
-        <v>31163.2</v>
-      </c>
-      <c r="DO18" s="5">
-        <v>29363.7</v>
-      </c>
-      <c r="DP18" s="5">
-        <v>27231.7</v>
-      </c>
-      <c r="DQ18" s="5">
-        <v>26386.9</v>
-      </c>
-      <c r="DR18" s="5">
-        <v>27074.3</v>
-      </c>
-      <c r="DS18" s="5">
-        <v>27441.7</v>
-      </c>
-      <c r="DT18" s="5">
-        <v>26764.7</v>
-      </c>
-      <c r="DU18" s="5">
-        <v>25156.1</v>
-      </c>
-      <c r="DV18" s="5">
-        <v>26493.3</v>
-      </c>
-      <c r="DW18" s="5">
-        <v>24497.3</v>
-      </c>
-      <c r="DX18" s="5">
-        <v>23879.7</v>
-      </c>
-      <c r="DY18" s="5">
-        <v>23149.3</v>
-      </c>
-      <c r="DZ18" s="5">
-        <v>23532.2</v>
-      </c>
-      <c r="EA18" s="5">
-        <v>22407.9</v>
-      </c>
-      <c r="EB18" s="5">
-        <v>21385.8</v>
-      </c>
-      <c r="EC18" s="5">
-        <v>19357.9</v>
-      </c>
-      <c r="ED18" s="5">
-        <v>22006.1</v>
-      </c>
-      <c r="EE18" s="5">
-        <v>20318.7</v>
-      </c>
-      <c r="EF18" s="5">
-        <v>19226.9</v>
-      </c>
-      <c r="EG18" s="5">
-        <v>17331.8</v>
-      </c>
-      <c r="EH18" s="5">
-        <v>17236.8</v>
-      </c>
-      <c r="EI18" s="6">
-        <v>15940</v>
-      </c>
-      <c r="EJ18" s="6">
-        <v>14836</v>
-      </c>
-      <c r="EK18" s="5">
-        <v>12805.6</v>
-      </c>
-      <c r="EL18" s="5">
-        <v>14064.6</v>
-      </c>
-      <c r="EM18" s="5">
-        <v>14252.4</v>
-      </c>
-      <c r="EN18" s="5">
-        <v>13669.6</v>
-      </c>
-      <c r="EO18" s="5">
-        <v>11298.7</v>
-      </c>
-      <c r="EP18" s="5">
-        <v>12044.6</v>
-      </c>
-      <c r="EQ18" s="5">
-        <v>11229.5</v>
-      </c>
-      <c r="ER18" s="5">
-        <v>12267.4</v>
-      </c>
-      <c r="ES18" s="5">
-        <v>11672.7</v>
-      </c>
-      <c r="ET18" s="5">
-        <v>12338.7</v>
-      </c>
-      <c r="EU18" s="5">
-        <v>12569.9</v>
-      </c>
-      <c r="EV18" s="5">
-        <v>12242.1</v>
-      </c>
-      <c r="EW18" s="5">
-        <v>11663.2</v>
-      </c>
-      <c r="EX18" s="5">
-        <v>11718.7</v>
-      </c>
-      <c r="EY18" s="5">
-        <v>11571.2</v>
-      </c>
-      <c r="EZ18" s="5">
-        <v>11268.7</v>
-      </c>
-      <c r="FA18" s="5">
-        <v>10380.6</v>
-      </c>
-      <c r="FB18" s="5">
-        <v>10828.1</v>
-      </c>
-      <c r="FC18" s="5">
-        <v>10632.7</v>
-      </c>
-      <c r="FD18" s="5">
-        <v>10893.1</v>
-      </c>
-      <c r="FE18" s="5">
-        <v>10187.3</v>
-      </c>
-      <c r="FF18" s="5">
-        <v>10602.2</v>
-      </c>
-      <c r="FG18" s="5">
-        <v>10470.6</v>
-      </c>
-      <c r="FH18" s="5">
-        <v>10008.2</v>
-      </c>
-      <c r="FI18" s="5">
-        <v>9490.5</v>
-      </c>
-      <c r="FJ18" s="5">
-        <v>9641.7</v>
-      </c>
-      <c r="FK18" s="5">
-        <v>9431.8</v>
-      </c>
-      <c r="FL18" s="5">
-        <v>8861.2</v>
-      </c>
-      <c r="FM18" s="5">
-        <v>8538.6</v>
-      </c>
-      <c r="FN18" s="5">
-        <v>8153.4</v>
-      </c>
-      <c r="FO18" s="5">
-        <v>7696.1</v>
-      </c>
-      <c r="FP18" s="5">
-        <v>7240.5</v>
-      </c>
-      <c r="FQ18" s="5">
-        <v>6809.1</v>
-      </c>
-      <c r="FR18" s="5">
-        <v>6471.5</v>
-      </c>
-      <c r="FS18" s="5">
-        <v>6314.4</v>
-      </c>
-      <c r="FT18" s="5">
-        <v>5917.7</v>
-      </c>
-      <c r="FU18" s="5">
-        <v>5519.5</v>
-      </c>
-      <c r="FV18" s="5">
-        <v>5705.8</v>
-      </c>
-      <c r="FW18" s="6">
-        <v>5539</v>
-      </c>
-      <c r="FX18" s="5">
-        <v>5324.1</v>
-      </c>
-      <c r="FY18" s="5">
-        <v>5147.1</v>
-      </c>
-      <c r="FZ18" s="5">
-        <v>5310.7</v>
-      </c>
-      <c r="GA18" s="5">
-        <v>4951.7</v>
-      </c>
-      <c r="GB18" s="5">
-        <v>4444.1</v>
-      </c>
-      <c r="GC18" s="5">
-        <v>4309.5</v>
-      </c>
-      <c r="GD18" s="6">
-        <v>4618</v>
-      </c>
-      <c r="GE18" s="5">
-        <v>4259.4</v>
-      </c>
-      <c r="GF18" s="5">
-        <v>4155.4</v>
-      </c>
-      <c r="GG18" s="5">
-        <v>3951.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="5">
-        <v>204642.9</v>
-      </c>
-      <c r="C19" s="5">
-        <v>192710.6</v>
-      </c>
-      <c r="D19" s="5">
-        <v>190983.4</v>
-      </c>
-      <c r="E19" s="5">
-        <v>192872.6</v>
-      </c>
-      <c r="F19" s="5">
-        <v>185855.8</v>
-      </c>
-      <c r="G19" s="5">
-        <v>177044.2</v>
-      </c>
-      <c r="H19" s="6">
-        <v>164151</v>
-      </c>
-      <c r="I19" s="5">
-        <v>199127.7</v>
-      </c>
-      <c r="J19" s="5">
-        <v>192353.4</v>
-      </c>
-      <c r="K19" s="5">
-        <v>184314.3</v>
-      </c>
-      <c r="L19" s="5">
-        <v>185071.5</v>
-      </c>
-      <c r="M19" s="5">
-        <v>181422.2</v>
-      </c>
-      <c r="N19" s="5">
-        <v>184623.6</v>
-      </c>
-      <c r="O19" s="5">
-        <v>186741.9</v>
-      </c>
-      <c r="P19" s="5">
-        <v>186808.5</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>184550</v>
-      </c>
-      <c r="R19" s="5">
-        <v>181278.4</v>
-      </c>
-      <c r="S19" s="5">
-        <v>175827.7</v>
-      </c>
-      <c r="T19" s="5">
-        <v>170673.1</v>
-      </c>
-      <c r="U19" s="6">
-        <v>164985</v>
-      </c>
-      <c r="V19" s="5">
-        <v>167255.9</v>
-      </c>
-      <c r="W19" s="5">
-        <v>158890.3</v>
-      </c>
-      <c r="X19" s="5">
-        <v>160050.6</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>154824.5</v>
-      </c>
-      <c r="Z19" s="5">
-        <v>162423.3</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>163852.2</v>
-      </c>
-      <c r="AB19" s="5">
-        <v>159231.5</v>
-      </c>
-      <c r="AC19" s="5">
-        <v>154261.1</v>
-      </c>
-      <c r="AD19" s="5">
-        <v>157871.3</v>
-      </c>
-      <c r="AE19" s="5">
-        <v>152119.3</v>
-      </c>
-      <c r="AF19" s="5">
-        <v>156881.6</v>
-      </c>
-      <c r="AG19" s="5">
-        <v>151974.3</v>
-      </c>
-      <c r="AH19" s="6">
-        <v>151839</v>
-      </c>
-      <c r="AI19" s="5">
-        <v>156466.8</v>
-      </c>
-      <c r="AJ19" s="5">
-        <v>152874.9</v>
-      </c>
-      <c r="AK19" s="5">
-        <v>140994.5</v>
-      </c>
-      <c r="AL19" s="5">
-        <v>142818.3</v>
-      </c>
-      <c r="AM19" s="5">
-        <v>138091.7</v>
-      </c>
-      <c r="AN19" s="5">
-        <v>144827.4</v>
-      </c>
-      <c r="AO19" s="5">
-        <v>139618.6</v>
-      </c>
-      <c r="AP19" s="5">
-        <v>139728.5</v>
-      </c>
-      <c r="AQ19" s="5">
-        <v>140650.5</v>
-      </c>
-      <c r="AR19" s="5">
-        <v>138051.6</v>
-      </c>
-      <c r="AS19" s="5">
-        <v>132695.7</v>
-      </c>
-      <c r="AT19" s="5">
-        <v>131532.6</v>
-      </c>
-      <c r="AU19" s="5">
-        <v>135074.8</v>
-      </c>
-      <c r="AV19" s="5">
-        <v>131788.9</v>
-      </c>
-      <c r="AW19" s="5">
-        <v>123071.4</v>
-      </c>
-      <c r="AX19" s="5">
-        <v>121226.2</v>
-      </c>
-      <c r="AY19" s="5">
-        <v>116275.3</v>
-      </c>
-      <c r="AZ19" s="5">
-        <v>107129.2</v>
-      </c>
-      <c r="BA19" s="5">
-        <v>103724.9</v>
-      </c>
-      <c r="BB19" s="5">
-        <v>121278.4</v>
-      </c>
-      <c r="BC19" s="5">
-        <v>127324.4</v>
-      </c>
-      <c r="BD19" s="5">
-        <v>125868.1</v>
-      </c>
-      <c r="BE19" s="5">
-        <v>123401.3</v>
-      </c>
-      <c r="BF19" s="5">
-        <v>120253.6</v>
-      </c>
-      <c r="BG19" s="6">
-        <v>112377</v>
-      </c>
-      <c r="BH19" s="5">
-        <v>110272.5</v>
-      </c>
-      <c r="BI19" s="5">
-        <v>106130.6</v>
-      </c>
-      <c r="BJ19" s="5">
-        <v>107659.5</v>
-      </c>
-      <c r="BK19" s="5">
-        <v>107780.1</v>
-      </c>
-      <c r="BL19" s="5">
-        <v>103446.6</v>
-      </c>
-      <c r="BM19" s="5">
-        <v>98959.7</v>
-      </c>
-      <c r="BN19" s="5">
-        <v>101780.8</v>
-      </c>
-      <c r="BO19" s="5">
-        <v>95603.3</v>
-      </c>
-      <c r="BP19" s="5">
-        <v>92292.1</v>
-      </c>
-      <c r="BQ19" s="5">
-        <v>89151.5</v>
-      </c>
-      <c r="BR19" s="5">
-        <v>89670.1</v>
-      </c>
-      <c r="BS19" s="5">
-        <v>88028.1</v>
-      </c>
-      <c r="BT19" s="5">
-        <v>84211.4</v>
-      </c>
-      <c r="BU19" s="5">
-        <v>77624.6</v>
-      </c>
-      <c r="BV19" s="5">
-        <v>76059.4</v>
-      </c>
-      <c r="BW19" s="5">
-        <v>70578.3</v>
-      </c>
-      <c r="BX19" s="5">
-        <v>66162.1</v>
-      </c>
-      <c r="BY19" s="5">
-        <v>64092.3</v>
-      </c>
-      <c r="BZ19" s="5">
-        <v>65322.4</v>
-      </c>
-      <c r="CA19" s="5">
-        <v>64481.9</v>
-      </c>
-      <c r="CB19" s="5">
-        <v>64490.8</v>
-      </c>
-      <c r="CC19" s="5">
-        <v>57679.1</v>
-      </c>
-      <c r="CD19" s="5">
-        <v>58951.1</v>
-      </c>
-      <c r="CE19" s="5">
-        <v>58485.4</v>
-      </c>
-      <c r="CF19" s="5">
-        <v>59411.5</v>
-      </c>
-      <c r="CG19" s="5">
-        <v>61898.9</v>
-      </c>
-      <c r="CH19" s="5">
-        <v>70234.8</v>
-      </c>
-      <c r="CI19" s="5">
-        <v>67245.5</v>
-      </c>
-      <c r="CJ19" s="5">
-        <v>61804.3</v>
-      </c>
-      <c r="CK19" s="5">
-        <v>56945.6</v>
-      </c>
-      <c r="CL19" s="5">
-        <v>58608.6</v>
-      </c>
-      <c r="CM19" s="5">
-        <v>55417.4</v>
-      </c>
-      <c r="CN19" s="5">
-        <v>52754.6</v>
-      </c>
-      <c r="CO19" s="5">
-        <v>46710.7</v>
-      </c>
-      <c r="CP19" s="5">
-        <v>46872.1</v>
-      </c>
-      <c r="CQ19" s="5">
-        <v>48931.8</v>
-      </c>
-      <c r="CR19" s="5">
-        <v>48729.3</v>
-      </c>
-      <c r="CS19" s="6">
-        <v>50593</v>
-      </c>
-      <c r="CT19" s="6">
-        <v>56121</v>
-      </c>
-      <c r="CU19" s="5">
-        <v>56030.8</v>
-      </c>
-      <c r="CV19" s="5">
-        <v>52515.8</v>
-      </c>
-      <c r="CW19" s="5">
-        <v>48455.3</v>
-      </c>
-      <c r="CX19" s="5">
-        <v>50932.7</v>
-      </c>
-      <c r="CY19" s="5">
-        <v>47109.5</v>
-      </c>
-      <c r="CZ19" s="5">
-        <v>47115.9</v>
-      </c>
-      <c r="DA19" s="5">
-        <v>46446.8</v>
-      </c>
-      <c r="DB19" s="5">
-        <v>47883.1</v>
-      </c>
-      <c r="DC19" s="5">
-        <v>45364.7</v>
-      </c>
-      <c r="DD19" s="5">
-        <v>42453.7</v>
-      </c>
-      <c r="DE19" s="6">
-        <v>38441</v>
-      </c>
-      <c r="DF19" s="5">
-        <v>38008.1</v>
-      </c>
-      <c r="DG19" s="5">
-        <v>37494.5</v>
-      </c>
-      <c r="DH19" s="5">
-        <v>35868.4</v>
-      </c>
-      <c r="DI19" s="6">
-        <v>30314</v>
-      </c>
-      <c r="DJ19" s="6">
-        <v>31950</v>
-      </c>
-      <c r="DK19" s="5">
-        <v>31581.5</v>
-      </c>
-      <c r="DL19" s="6">
-        <v>29972</v>
-      </c>
-      <c r="DM19" s="6">
-        <v>28152</v>
-      </c>
-      <c r="DN19" s="5">
-        <v>28285.1</v>
-      </c>
-      <c r="DO19" s="5">
-        <v>26006.3</v>
-      </c>
-      <c r="DP19" s="5">
-        <v>24298.5</v>
-      </c>
-      <c r="DQ19" s="5">
-        <v>24030.9</v>
-      </c>
-      <c r="DR19" s="5">
-        <v>23577.4</v>
-      </c>
-      <c r="DS19" s="5">
-        <v>24407.6</v>
-      </c>
-      <c r="DT19" s="5">
-        <v>24097.4</v>
-      </c>
-      <c r="DU19" s="6">
-        <v>23406</v>
-      </c>
-      <c r="DV19" s="5">
-        <v>23766.6</v>
-      </c>
-      <c r="DW19" s="6">
-        <v>21680</v>
-      </c>
-      <c r="DX19" s="5">
-        <v>21993.6</v>
-      </c>
-      <c r="DY19" s="5">
-        <v>21651.4</v>
-      </c>
-      <c r="DZ19" s="5">
-        <v>20933.4</v>
-      </c>
-      <c r="EA19" s="5">
-        <v>19836.9</v>
-      </c>
-      <c r="EB19" s="5">
-        <v>19173.4</v>
-      </c>
-      <c r="EC19" s="5">
-        <v>17868.8</v>
-      </c>
-      <c r="ED19" s="5">
-        <v>19504.4</v>
-      </c>
-      <c r="EE19" s="5">
-        <v>18548.7</v>
-      </c>
-      <c r="EF19" s="5">
-        <v>17301.4</v>
-      </c>
-      <c r="EG19" s="5">
-        <v>15641.1</v>
-      </c>
-      <c r="EH19" s="5">
-        <v>15927.6</v>
-      </c>
-      <c r="EI19" s="5">
-        <v>14525.8</v>
-      </c>
-      <c r="EJ19" s="5">
-        <v>13294.2</v>
-      </c>
-      <c r="EK19" s="5">
-        <v>12304.9</v>
-      </c>
-      <c r="EL19" s="5">
-        <v>12926.5</v>
-      </c>
-      <c r="EM19" s="5">
-        <v>12865.5</v>
-      </c>
-      <c r="EN19" s="5">
-        <v>12408.7</v>
-      </c>
-      <c r="EO19" s="5">
-        <v>11271.5</v>
-      </c>
-      <c r="EP19" s="5">
-        <v>11164.5</v>
-      </c>
-      <c r="EQ19" s="5">
-        <v>10757.3</v>
-      </c>
-      <c r="ER19" s="5">
-        <v>11289.5</v>
-      </c>
-      <c r="ES19" s="5">
-        <v>11393.4</v>
-      </c>
-      <c r="ET19" s="5">
-        <v>11941.1</v>
-      </c>
-      <c r="EU19" s="6">
-        <v>11540</v>
-      </c>
-      <c r="EV19" s="5">
-        <v>11615.3</v>
-      </c>
-      <c r="EW19" s="5">
-        <v>11377.2</v>
-      </c>
-      <c r="EX19" s="6">
-        <v>11019</v>
-      </c>
-      <c r="EY19" s="5">
-        <v>10784.9</v>
-      </c>
-      <c r="EZ19" s="5">
-        <v>11058.3</v>
-      </c>
-      <c r="FA19" s="5">
-        <v>10138.6</v>
-      </c>
-      <c r="FB19" s="5">
-        <v>10302.3</v>
-      </c>
-      <c r="FC19" s="5">
-        <v>10202.3</v>
-      </c>
-      <c r="FD19" s="5">
-        <v>10186.9</v>
-      </c>
-      <c r="FE19" s="5">
-        <v>10300.6</v>
-      </c>
-      <c r="FF19" s="5">
-        <v>9823.4</v>
-      </c>
-      <c r="FG19" s="5">
-        <v>9938.3</v>
-      </c>
-      <c r="FH19" s="5">
-        <v>9640.3</v>
-      </c>
-      <c r="FI19" s="5">
-        <v>9240.9</v>
-      </c>
-      <c r="FJ19" s="5">
-        <v>9090.2</v>
-      </c>
-      <c r="FK19" s="5">
-        <v>9086.8</v>
-      </c>
-      <c r="FL19" s="5">
-        <v>8748.8</v>
-      </c>
-      <c r="FM19" s="5">
-        <v>8241.6</v>
-      </c>
-      <c r="FN19" s="5">
-        <v>7514.5</v>
-      </c>
-      <c r="FO19" s="5">
-        <v>7571.1</v>
-      </c>
-      <c r="FP19" s="5">
-        <v>7041.2</v>
-      </c>
-      <c r="FQ19" s="5">
-        <v>6865.4</v>
-      </c>
-      <c r="FR19" s="5">
-        <v>6485.1</v>
-      </c>
-      <c r="FS19" s="5">
-        <v>6038.2</v>
-      </c>
-      <c r="FT19" s="5">
-        <v>5724.5</v>
-      </c>
-      <c r="FU19" s="5">
-        <v>5460.8</v>
-      </c>
-      <c r="FV19" s="5">
-        <v>5603.2</v>
-      </c>
-      <c r="FW19" s="6">
-        <v>5445</v>
-      </c>
-      <c r="FX19" s="5">
-        <v>5008.3</v>
-      </c>
-      <c r="FY19" s="5">
-        <v>4899.1</v>
-      </c>
-      <c r="FZ19" s="5">
-        <v>5029.8</v>
-      </c>
-      <c r="GA19" s="5">
-        <v>5044.7</v>
-      </c>
-      <c r="GB19" s="5">
-        <v>4419.9</v>
-      </c>
-      <c r="GC19" s="5">
-        <v>4642.3</v>
-      </c>
-      <c r="GD19" s="5">
-        <v>4479.9</v>
-      </c>
-      <c r="GE19" s="5">
-        <v>4400.3</v>
-      </c>
-      <c r="GF19" s="5">
-        <v>4283.7</v>
-      </c>
-      <c r="GG19" s="5">
-        <v>4329.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:189" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2243.6</v>
-      </c>
-      <c r="C20" s="5">
-        <v>-1925.3</v>
-      </c>
-      <c r="D20" s="5">
-        <v>-2365.9</v>
-      </c>
-      <c r="E20" s="5">
-        <v>-2431.7</v>
-      </c>
-      <c r="F20" s="5">
-        <v>-2269.4</v>
-      </c>
-      <c r="G20" s="5">
-        <v>-2078.9</v>
-      </c>
-      <c r="H20" s="6">
-        <v>-1249</v>
-      </c>
-      <c r="I20" s="5">
-        <v>-1238.1</v>
-      </c>
-      <c r="J20" s="6">
-        <v>-2402</v>
-      </c>
-      <c r="K20" s="5">
-        <v>-1128.3</v>
-      </c>
-      <c r="L20" s="5">
-        <v>-323.3</v>
-      </c>
-      <c r="M20" s="5">
-        <v>-2332.2</v>
-      </c>
-      <c r="N20" s="5">
-        <v>-2404.1</v>
-      </c>
-      <c r="O20" s="5">
-        <v>-1192.5</v>
-      </c>
-      <c r="P20" s="6">
-        <v>-464</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>1139.4</v>
-      </c>
-      <c r="R20" s="5">
-        <v>-2227.6</v>
-      </c>
-      <c r="S20" s="6">
-        <v>223</v>
-      </c>
-      <c r="T20" s="5">
-        <v>-901.8</v>
-      </c>
-      <c r="U20" s="5">
-        <v>-1630.4</v>
-      </c>
-      <c r="V20" s="5">
-        <v>-250.5</v>
-      </c>
-      <c r="W20" s="5">
-        <v>-1218.2</v>
-      </c>
-      <c r="X20" s="5">
-        <v>390.6</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>154.6</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>-1090.2</v>
-      </c>
-      <c r="AA20" s="5">
-        <v>1895.9</v>
-      </c>
-      <c r="AB20" s="5">
-        <v>-1143.9</v>
-      </c>
-      <c r="AC20" s="5">
-        <v>338.1</v>
-      </c>
-      <c r="AD20" s="5">
-        <v>1543.3</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>-69.4</v>
-      </c>
-      <c r="AF20" s="6">
-        <v>194</v>
-      </c>
-      <c r="AG20" s="6">
-        <v>1386</v>
-      </c>
-      <c r="AH20" s="5">
-        <v>-268.4</v>
-      </c>
-      <c r="AI20" s="5">
-        <v>1215.9</v>
-      </c>
-      <c r="AJ20" s="5">
-        <v>993.6</v>
-      </c>
-      <c r="AK20" s="5">
-        <v>335.8</v>
-      </c>
-      <c r="AL20" s="5">
-        <v>-422.5</v>
-      </c>
-      <c r="AM20" s="5">
-        <v>710.3</v>
-      </c>
-      <c r="AN20" s="5">
-        <v>239.5</v>
-      </c>
-      <c r="AO20" s="5">
-        <v>-238.4</v>
-      </c>
-      <c r="AP20" s="5">
-        <v>-240.8</v>
-      </c>
-      <c r="AQ20" s="6">
-        <v>-304</v>
-      </c>
-      <c r="AR20" s="5">
-        <v>-1924.7</v>
-      </c>
-      <c r="AS20" s="5">
-        <v>-551.6</v>
-      </c>
-      <c r="AT20" s="5">
-        <v>-25.3</v>
-      </c>
-      <c r="AU20" s="5">
-        <v>1699.5</v>
-      </c>
-      <c r="AV20" s="5">
-        <v>1244.1</v>
-      </c>
-      <c r="AW20" s="5">
-        <v>-457.9</v>
-      </c>
-      <c r="AX20" s="5">
-        <v>1115.6</v>
-      </c>
-      <c r="AY20" s="5">
-        <v>79.2</v>
-      </c>
-      <c r="AZ20" s="5">
-        <v>863.4</v>
-      </c>
-      <c r="BA20" s="6">
-        <v>2729</v>
-      </c>
-      <c r="BB20" s="5">
-        <v>2690.8</v>
-      </c>
-      <c r="BC20" s="6">
-        <v>1201</v>
-      </c>
-      <c r="BD20" s="6">
-        <v>2694</v>
-      </c>
-      <c r="BE20" s="5">
-        <v>3044.9</v>
-      </c>
-      <c r="BF20" s="5">
-        <v>808.9</v>
-      </c>
-      <c r="BG20" s="5">
-        <v>736.4</v>
-      </c>
-      <c r="BH20" s="5">
-        <v>1465.8</v>
-      </c>
-      <c r="BI20" s="5">
-        <v>1914.2</v>
-      </c>
-      <c r="BJ20" s="5">
-        <v>1672.9</v>
-      </c>
-      <c r="BK20" s="5">
-        <v>1404.1</v>
-      </c>
-      <c r="BL20" s="5">
-        <v>1823.9</v>
-      </c>
-      <c r="BM20" s="5">
-        <v>2242.5</v>
-      </c>
-      <c r="BN20" s="5">
-        <v>1181.5</v>
-      </c>
-      <c r="BO20" s="5">
-        <v>2433.4</v>
-      </c>
-      <c r="BP20" s="5">
-        <v>2179.2</v>
-      </c>
-      <c r="BQ20" s="5">
-        <v>2987.7</v>
-      </c>
-      <c r="BR20" s="5">
-        <v>2296.9</v>
-      </c>
-      <c r="BS20" s="5">
-        <v>1919.3</v>
-      </c>
-      <c r="BT20" s="5">
-        <v>2389.8</v>
-      </c>
-      <c r="BU20" s="5">
-        <v>2431.3</v>
-      </c>
-      <c r="BV20" s="5">
-        <v>2828.2</v>
-      </c>
-      <c r="BW20" s="5">
-        <v>2826.8</v>
-      </c>
-      <c r="BX20" s="5">
-        <v>2254.9</v>
-      </c>
-      <c r="BY20" s="5">
-        <v>924.1</v>
-      </c>
-      <c r="BZ20" s="5">
-        <v>1406.4</v>
-      </c>
-      <c r="CA20" s="6">
-        <v>1400</v>
-      </c>
-      <c r="CB20" s="5">
-        <v>1126.3</v>
-      </c>
-      <c r="CC20" s="5">
-        <v>911.4</v>
-      </c>
-      <c r="CD20" s="6">
-        <v>1449</v>
-      </c>
-      <c r="CE20" s="5">
-        <v>1950.7</v>
-      </c>
-      <c r="CF20" s="5">
-        <v>1611.1</v>
-      </c>
-      <c r="CG20" s="5">
-        <v>1630.5</v>
-      </c>
-      <c r="CH20" s="5">
-        <v>2144.8</v>
-      </c>
-      <c r="CI20" s="5">
-        <v>2745.3</v>
-      </c>
-      <c r="CJ20" s="5">
-        <v>3080.1</v>
-      </c>
-      <c r="CK20" s="5">
-        <v>3069.6</v>
-      </c>
-      <c r="CL20" s="5">
-        <v>2661.4</v>
-      </c>
-      <c r="CM20" s="5">
-        <v>2720.4</v>
-      </c>
-      <c r="CN20" s="5">
-        <v>3348.7</v>
-      </c>
-      <c r="CO20" s="5">
-        <v>2284.5</v>
-      </c>
-      <c r="CP20" s="5">
-        <v>3241.4</v>
-      </c>
-      <c r="CQ20" s="5">
-        <v>3429.3</v>
-      </c>
-      <c r="CR20" s="5">
-        <v>3037.8</v>
-      </c>
-      <c r="CS20" s="5">
-        <v>2726.2</v>
-      </c>
-      <c r="CT20" s="5">
-        <v>2806.9</v>
-      </c>
-      <c r="CU20" s="5">
-        <v>2904.2</v>
-      </c>
-      <c r="CV20" s="5">
-        <v>3124.1</v>
-      </c>
-      <c r="CW20" s="5">
-        <v>2814.4</v>
-      </c>
-      <c r="CX20" s="5">
-        <v>3193.5</v>
-      </c>
-      <c r="CY20" s="5">
-        <v>3402.9</v>
-      </c>
-      <c r="CZ20" s="5">
-        <v>3163.3</v>
-      </c>
-      <c r="DA20" s="5">
-        <v>2818.4</v>
-      </c>
-      <c r="DB20" s="5">
-        <v>3599.7</v>
-      </c>
-      <c r="DC20" s="5">
-        <v>3481.8</v>
-      </c>
-      <c r="DD20" s="5">
-        <v>2997.1</v>
-      </c>
-      <c r="DE20" s="5">
-        <v>2914.6</v>
-      </c>
-      <c r="DF20" s="5">
-        <v>4448.9</v>
-      </c>
-      <c r="DG20" s="5">
-        <v>3980.2</v>
-      </c>
-      <c r="DH20" s="5">
-        <v>3349.9</v>
-      </c>
-      <c r="DI20" s="5">
-        <v>1782.7</v>
-      </c>
-      <c r="DJ20" s="5">
-        <v>3007.3</v>
-      </c>
-      <c r="DK20" s="5">
-        <v>2860.4</v>
-      </c>
-      <c r="DL20" s="5">
-        <v>1569.2</v>
-      </c>
-      <c r="DM20" s="5">
-        <v>2128.4</v>
-      </c>
-      <c r="DN20" s="5">
-        <v>1820.8</v>
-      </c>
-      <c r="DO20" s="5">
-        <v>3042.8</v>
-      </c>
-      <c r="DP20" s="5">
-        <v>1616.4</v>
-      </c>
-      <c r="DQ20" s="5">
-        <v>2758.4</v>
-      </c>
-      <c r="DR20" s="5">
-        <v>2412.8</v>
-      </c>
-      <c r="DS20" s="5">
-        <v>2407.1</v>
-      </c>
-      <c r="DT20" s="5">
-        <v>2277.9</v>
-      </c>
-      <c r="DU20" s="6">
-        <v>1723</v>
-      </c>
-      <c r="DV20" s="5">
-        <v>2282.8</v>
-      </c>
-      <c r="DW20" s="6">
-        <v>2627</v>
-      </c>
-      <c r="DX20" s="5">
-        <v>2497.2</v>
-      </c>
-      <c r="DY20" s="6">
-        <v>1902</v>
-      </c>
-      <c r="DZ20" s="5">
-        <v>2378.9</v>
-      </c>
-      <c r="EA20" s="5">
-        <v>1902.7</v>
-      </c>
-      <c r="EB20" s="5">
-        <v>1876.1</v>
-      </c>
-      <c r="EC20" s="5">
-        <v>1744.8</v>
-      </c>
-      <c r="ED20" s="6">
-        <v>1818</v>
-      </c>
-      <c r="EE20" s="5">
-        <v>2062.6</v>
-      </c>
-      <c r="EF20" s="5">
-        <v>2060.5</v>
-      </c>
-      <c r="EG20" s="5">
-        <v>1479.9</v>
-      </c>
-      <c r="EH20" s="5">
-        <v>1831.2</v>
-      </c>
-      <c r="EI20" s="6">
-        <v>1608</v>
-      </c>
-      <c r="EJ20" s="5">
-        <v>1371.4</v>
-      </c>
-      <c r="EK20" s="5">
-        <v>1741.5</v>
-      </c>
-      <c r="EL20" s="5">
-        <v>1483.9</v>
-      </c>
-      <c r="EM20" s="5">
-        <v>897.2</v>
-      </c>
-      <c r="EN20" s="5">
-        <v>1531.9</v>
-      </c>
-      <c r="EO20" s="5">
+      <c r="EP20" s="5">
         <v>1706.3</v>
       </c>
-      <c r="EP20" s="5">
+      <c r="EQ20" s="5">
         <v>1240.6</v>
       </c>
-      <c r="EQ20" s="5">
+      <c r="ER20" s="5">
         <v>1718.1</v>
       </c>
-      <c r="ER20" s="6">
+      <c r="ES20" s="6">
         <v>1352</v>
       </c>
-      <c r="ES20" s="5">
+      <c r="ET20" s="5">
         <v>900.4</v>
       </c>
-      <c r="ET20" s="5">
+      <c r="EU20" s="5">
         <v>918.7</v>
       </c>
-      <c r="EU20" s="5">
+      <c r="EV20" s="5">
         <v>960.1</v>
       </c>
-      <c r="EV20" s="5">
+      <c r="EW20" s="5">
         <v>1118.5</v>
       </c>
-      <c r="EW20" s="5">
+      <c r="EX20" s="5">
         <v>1158.7</v>
       </c>
-      <c r="EX20" s="5">
+      <c r="EY20" s="5">
         <v>709.3</v>
       </c>
-      <c r="EY20" s="5">
+      <c r="EZ20" s="5">
         <v>641.6</v>
       </c>
-      <c r="EZ20" s="5">
+      <c r="FA20" s="5">
         <v>1213.8</v>
       </c>
-      <c r="FA20" s="5">
+      <c r="FB20" s="5">
         <v>1208.6</v>
       </c>
-      <c r="FB20" s="5">
+      <c r="FC20" s="5">
         <v>945.9</v>
       </c>
-      <c r="FC20" s="5">
+      <c r="FD20" s="5">
         <v>867.6</v>
       </c>
-      <c r="FD20" s="5">
+      <c r="FE20" s="5">
         <v>911.6</v>
       </c>
-      <c r="FE20" s="6">
+      <c r="FF20" s="6">
         <v>1377</v>
       </c>
-      <c r="FF20" s="5">
+      <c r="FG20" s="5">
         <v>748.2</v>
       </c>
-      <c r="FG20" s="5">
+      <c r="FH20" s="5">
         <v>1024.6</v>
       </c>
-      <c r="FH20" s="5">
+      <c r="FI20" s="5">
         <v>1083.4</v>
       </c>
-      <c r="FI20" s="5">
+      <c r="FJ20" s="5">
         <v>1195.7</v>
       </c>
-      <c r="FJ20" s="6">
+      <c r="FK20" s="6">
         <v>607</v>
       </c>
-      <c r="FK20" s="5">
+      <c r="FL20" s="5">
         <v>579.1</v>
       </c>
-      <c r="FL20" s="6">
+      <c r="FM20" s="6">
         <v>913</v>
       </c>
-      <c r="FM20" s="5">
+      <c r="FN20" s="5">
         <v>739.2</v>
       </c>
-      <c r="FN20" s="5">
+      <c r="FO20" s="5">
         <v>406.2</v>
       </c>
-      <c r="FO20" s="5">
+      <c r="FP20" s="5">
         <v>770.5</v>
       </c>
-      <c r="FP20" s="5">
+      <c r="FQ20" s="5">
         <v>636.7</v>
       </c>
-      <c r="FQ20" s="5">
+      <c r="FR20" s="5">
         <v>1149.4</v>
       </c>
-      <c r="FR20" s="5">
+      <c r="FS20" s="5">
         <v>1163.6</v>
       </c>
-      <c r="FS20" s="5">
+      <c r="FT20" s="5">
         <v>704.3</v>
       </c>
-      <c r="FT20" s="5">
+      <c r="FU20" s="5">
         <v>818.7</v>
       </c>
-      <c r="FU20" s="5">
+      <c r="FV20" s="5">
         <v>801.6</v>
       </c>
-      <c r="FV20" s="5">
+      <c r="FW20" s="5">
         <v>849.3</v>
       </c>
-      <c r="FW20" s="5">
+      <c r="FX20" s="5">
         <v>683.3</v>
       </c>
-      <c r="FX20" s="5">
+      <c r="FY20" s="5">
         <v>857.8</v>
       </c>
-      <c r="FY20" s="6">
+      <c r="FZ20" s="6">
         <v>609</v>
       </c>
-      <c r="FZ20" s="5">
+      <c r="GA20" s="5">
         <v>471.6</v>
       </c>
-      <c r="GA20" s="5">
+      <c r="GB20" s="5">
         <v>767.7</v>
       </c>
-      <c r="GB20" s="5">
+      <c r="GC20" s="5">
         <v>1029.7</v>
       </c>
-      <c r="GC20" s="5">
+      <c r="GD20" s="5">
         <v>1121.8</v>
       </c>
-      <c r="GD20" s="5">
+      <c r="GE20" s="5">
         <v>795.8</v>
       </c>
-      <c r="GE20" s="5">
+      <c r="GF20" s="5">
         <v>940.5</v>
       </c>
-      <c r="GF20" s="5">
+      <c r="GG20" s="5">
         <v>983.6</v>
       </c>
-      <c r="GG20" s="6">
+      <c r="GH20" s="6">
         <v>848</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/576/DOS/M014811 - Expenditure On Gross Domestic Product In Chained Dollars Quarterly.xlsx
+++ b/INTLINE/data/576/DOS/M014811 - Expenditure On Gross Domestic Product In Chained Dollars Quarterly.xlsx
@@ -718,7 +718,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 14/06/2022</t>
+    <t>Date generated: 27/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
